--- a/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
   <si>
     <t>tech</t>
   </si>
@@ -59,15 +59,6 @@
     <t>UPS_LOC_HOIL_2</t>
   </si>
   <si>
-    <t>UPS_LOC_HOIL_3</t>
-  </si>
-  <si>
-    <t>UPS_GRO_HOIL_1</t>
-  </si>
-  <si>
-    <t>UPS_GRO_HOIL_2</t>
-  </si>
-  <si>
     <t>UPS_LOC_HSAN_1</t>
   </si>
   <si>
@@ -92,28 +83,73 @@
     <t>UPS_LOC_NGA_2</t>
   </si>
   <si>
+    <t>UPS_LOC_NGA_3</t>
+  </si>
+  <si>
     <t>UPS_LOC_BCO</t>
   </si>
   <si>
-    <t>UPS_DIS_BCO</t>
-  </si>
-  <si>
     <t>UPS_LOC_HCO</t>
   </si>
   <si>
-    <t>UPS_MIN_IMP_URA_NAT</t>
+    <t>UPS_NUC_LWR_UOX_EXS</t>
   </si>
   <si>
     <t>UPS_RES_OIL_ADD</t>
   </si>
   <si>
-    <t>UPS_BIO_SLD_POT</t>
-  </si>
-  <si>
-    <t>UPS_BIO_CRP_POT</t>
-  </si>
-  <si>
-    <t>UPS_BIO_OTH_POT</t>
+    <t>UPS_BIO_RPS_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_CRP_STC_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_CRP_SUG_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_CRP_GRS_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_CRP_WOD_1_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_CRP_WOD_2_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_AGR_WST_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_FOR_2_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_WOD_RES_1_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_WOD_RES_2_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_WOD_PRD_1_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_MUN_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_SLU_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_GAS_POT</t>
+  </si>
+  <si>
+    <t>UPS_BIO_LIQ_POT</t>
+  </si>
+  <si>
+    <t>IMP_BIO_EMHV_GLB</t>
+  </si>
+  <si>
+    <t>IMP_BIO_ETH_GLB</t>
+  </si>
+  <si>
+    <t>IMP_BIO_WOD_GLB</t>
   </si>
   <si>
     <t>UPS_HYD_POT</t>
@@ -125,6 +161,9 @@
     <t>UPS_SOL_PV_POT</t>
   </si>
   <si>
+    <t>UPS_SOL_TH_POT</t>
+  </si>
+  <si>
     <t>UPS_SOL_CSP_POT</t>
   </si>
   <si>
@@ -188,25 +227,25 @@
     <t>IMP_GAS_PIP_MEA</t>
   </si>
   <si>
-    <t>EXP_NGA_GLB</t>
-  </si>
-  <si>
-    <t>IMP_LNG_AFR</t>
-  </si>
-  <si>
-    <t>IMP_LNG_MEA</t>
-  </si>
-  <si>
-    <t>IMP_LNG_GLB</t>
-  </si>
-  <si>
-    <t>IMP_LNG_OLA</t>
-  </si>
-  <si>
-    <t>IMP_LNG_USA</t>
-  </si>
-  <si>
-    <t>IMP_LNG_RUS</t>
+    <t>EXP_GAS_NGA_GLB</t>
+  </si>
+  <si>
+    <t>IMP_GAS_LNG_AFR</t>
+  </si>
+  <si>
+    <t>IMP_GAS_LNG_MEA</t>
+  </si>
+  <si>
+    <t>IMP_GAS_LNG_GLB</t>
+  </si>
+  <si>
+    <t>IMP_GAS_LNG_OLA</t>
+  </si>
+  <si>
+    <t>IMP_GAS_LNG_USA</t>
+  </si>
+  <si>
+    <t>IMP_GAS_LNG_RUS</t>
   </si>
   <si>
     <t>IMP_COA_AFR</t>
@@ -236,6 +275,9 @@
     <t>IMP_COA_USA</t>
   </si>
   <si>
+    <t>EXP_COA_GLB</t>
+  </si>
+  <si>
     <t>MIN_OIL_HOIL</t>
   </si>
   <si>
@@ -251,19 +293,46 @@
     <t>MIN_COA_HCO</t>
   </si>
   <si>
-    <t>UPS_URA_NAT</t>
+    <t>UPS_NUC_HET_LWR_UOX</t>
   </si>
   <si>
     <t>MIN_OIL_ADD</t>
   </si>
   <si>
-    <t>RNW_POT_BIO_SLD</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_CRP</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_OTH</t>
+    <t>RNW_POT_BIO_RPS</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_CRP_STC</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_CRP_SUG</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_CRP_GRS</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_WOD</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_MUN</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_SLU</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_GAS</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_LIQ</t>
+  </si>
+  <si>
+    <t>IMP_RNW_BIO_EMHV</t>
+  </si>
+  <si>
+    <t>IMP_RNW_BIO_ETH</t>
+  </si>
+  <si>
+    <t>IMP_RNW_BIO_WOD</t>
   </si>
   <si>
     <t>RNW_POT_HYD</t>
@@ -275,6 +344,9 @@
     <t>RNW_POT_SOL_PV</t>
   </si>
   <si>
+    <t>RNW_POT_SOL_TH</t>
+  </si>
+  <si>
     <t>RNW_POT_SOL_CSP</t>
   </si>
   <si>
@@ -293,16 +365,22 @@
     <t>IMP_OIL_PRD</t>
   </si>
   <si>
-    <t>SNK_DMY</t>
+    <t>EXP_OIL_PRD</t>
   </si>
   <si>
     <t>IMP_GAS_NGA</t>
   </si>
   <si>
+    <t>EXP_GAS_NGA</t>
+  </si>
+  <si>
     <t>IMP_GAS_LNG</t>
   </si>
   <si>
-    <t>IMP_COA_HCO</t>
+    <t>IMP_COA</t>
+  </si>
+  <si>
+    <t>EXP_COA</t>
   </si>
 </sst>
 </file>
@@ -708,7 +786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -757,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>7384.745999999999</v>
@@ -766,19 +844,19 @@
         <v>6027.236000000001</v>
       </c>
       <c r="F2">
-        <v>5810.872800000002</v>
+        <v>6196.844</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5887.002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5592.651999999999</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5313.019</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2044.210599999997</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -795,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -804,22 +882,22 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>385.9711999999981</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5577.160000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5019.444</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>551.1378000000021</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3003.157400000003</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3910.287001631636</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -833,10 +911,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>191.32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -851,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3966.361199999998</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3722.780800000002</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -871,10 +949,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>191.32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -892,13 +970,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>342.9681999999975</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3659.174</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2763.559600000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -909,10 +987,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>95.66000000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -936,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>529.6973999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -947,22 +1025,22 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>95.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.003000000007887138</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>389.0141999999921</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -985,10 +1063,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>95.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1000,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>389.0172</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1023,10 +1101,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>47.83000000000001</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1038,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>194.5088</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1061,22 +1139,22 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>11339.231</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>9314.114000000001</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6033.454999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>194.5086</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1099,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1108,25 +1186,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1660.191000000001</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>6924.281</v>
       </c>
       <c r="H11">
-        <v>194.5086</v>
+        <v>6231.852999999999</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5608.668</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5047.801000000001</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4543.021</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2783.292499999999</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1137,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1152,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>97.2544</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1164,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1305.426500000001</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1175,34 +1253,34 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>11239.24</v>
+        <v>3638.04</v>
       </c>
       <c r="E13">
-        <v>8848.414000000001</v>
+        <v>3443.583</v>
       </c>
       <c r="F13">
-        <v>6599.146</v>
+        <v>2430.211</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2187.19</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1968.471</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1498.809837214362</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1594.461</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1435.015</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1291.514</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1213,34 +1291,34 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3280.326</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2515.435</v>
       </c>
       <c r="F14">
-        <v>1094.504</v>
+        <v>1491.766</v>
       </c>
       <c r="G14">
-        <v>6924.285</v>
+        <v>1193.413</v>
       </c>
       <c r="H14">
-        <v>6231.857000000001</v>
+        <v>954.7300000000001</v>
       </c>
       <c r="I14">
-        <v>5608.671000000001</v>
+        <v>763.784</v>
       </c>
       <c r="J14">
-        <v>4117.017820657467</v>
+        <v>611.027</v>
       </c>
       <c r="K14">
-        <v>2615.880396110269</v>
+        <v>488.8219999999999</v>
       </c>
       <c r="L14">
-        <v>2179.848482826957</v>
+        <v>391.058</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1251,34 +1329,34 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <v>5194.214467340649</v>
+        <v>10542.65590793708</v>
       </c>
       <c r="E15">
-        <v>6953.375</v>
+        <v>9813.491920798779</v>
       </c>
       <c r="F15">
-        <v>4209.407000000001</v>
+        <v>8330.12645151467</v>
       </c>
       <c r="G15">
-        <v>3788.5</v>
+        <v>8877.491745726787</v>
       </c>
       <c r="H15">
-        <v>3409.6</v>
+        <v>8365.601310035543</v>
       </c>
       <c r="I15">
-        <v>3068.7</v>
+        <v>7853.710874344224</v>
       </c>
       <c r="J15">
-        <v>361.0603234855276</v>
+        <v>7126.207756016245</v>
       </c>
       <c r="K15">
-        <v>231.2064183621093</v>
+        <v>6673.549543797601</v>
       </c>
       <c r="L15">
-        <v>853.8925954058562</v>
+        <v>6220.891331578947</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1289,34 +1367,34 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>228.7400000000007</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>635.7240000000002</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>615.4250000000002</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>584.6539999999997</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>555.4210000000002</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>527.6499999999996</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.11753319606618</v>
       </c>
       <c r="L16">
-        <v>1383.207404594144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1327,34 +1405,34 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D17">
-        <v>3054.95153265935</v>
+        <v>176.5481192453167</v>
       </c>
       <c r="E17">
-        <v>221.6599999999991</v>
+        <v>521.9999999999999</v>
       </c>
       <c r="F17">
-        <v>264.2439999999998</v>
+        <v>670.4</v>
       </c>
       <c r="G17">
-        <v>1342.5</v>
+        <v>809.9</v>
       </c>
       <c r="H17">
-        <v>1074</v>
+        <v>949.4000000000001</v>
       </c>
       <c r="I17">
-        <v>860</v>
+        <v>972.5999999999999</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>995.8000000000001</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1014.6</v>
       </c>
       <c r="L17">
-        <v>440.0000000000001</v>
+        <v>1033.4</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1365,34 +1443,34 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D18">
-        <v>9949.718111574757</v>
+        <v>95.12905841918084</v>
       </c>
       <c r="E18">
-        <v>9234.657667988366</v>
+        <v>143.8169715327734</v>
       </c>
       <c r="F18">
-        <v>7695.172</v>
+        <v>180.328301859957</v>
       </c>
       <c r="G18">
-        <v>8213.361937027888</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>8775.251639368473</v>
+        <v>278.3261798964585</v>
       </c>
       <c r="I18">
-        <v>9627.980263463854</v>
+        <v>288.3</v>
       </c>
       <c r="J18">
-        <v>10440.4869552106</v>
+        <v>288.5</v>
       </c>
       <c r="K18">
-        <v>11448.76673341376</v>
+        <v>286.65</v>
       </c>
       <c r="L18">
-        <v>12611.89698485036</v>
+        <v>284.8</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1403,34 +1481,34 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>467.8900000000004</v>
+        <v>346.6</v>
       </c>
       <c r="E19">
-        <v>635.7240000000002</v>
+        <v>474.9</v>
       </c>
       <c r="F19">
-        <v>615.4250000000002</v>
+        <v>603.1999999999999</v>
       </c>
       <c r="G19">
-        <v>553.8820000000006</v>
+        <v>742.8499999999999</v>
       </c>
       <c r="H19">
-        <v>498.4939999999997</v>
+        <v>882.5000000000001</v>
       </c>
       <c r="I19">
-        <v>448.6450000000004</v>
+        <v>913.5</v>
       </c>
       <c r="J19">
-        <v>403.781</v>
+        <v>944.5000000000001</v>
       </c>
       <c r="K19">
-        <v>363.4030000000003</v>
+        <v>969.8000000000001</v>
       </c>
       <c r="L19">
-        <v>15.91211496448446</v>
+        <v>995.0999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1441,34 +1519,34 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D20">
-        <v>5481.2444392613</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>5693.544800000001</v>
+        <v>72.03744069425493</v>
       </c>
       <c r="F20">
-        <v>4891.885699999999</v>
+        <v>1527.3</v>
       </c>
       <c r="G20">
-        <v>4502.596799999999</v>
+        <v>1652.400000000001</v>
       </c>
       <c r="H20">
-        <v>4113.307900000001</v>
+        <v>1777.5</v>
       </c>
       <c r="I20">
-        <v>4064.3655</v>
+        <v>1751.8</v>
       </c>
       <c r="J20">
-        <v>4015.4231</v>
+        <v>1726.1</v>
       </c>
       <c r="K20">
-        <v>4020.72385</v>
+        <v>1696.9</v>
       </c>
       <c r="L20">
-        <v>4026.0246</v>
+        <v>1667.7</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1479,34 +1557,34 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D21">
-        <v>1.927710843373494</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1628.868603125135</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4204.0427</v>
+        <v>292.5</v>
       </c>
       <c r="H21">
-        <v>4634.193200000001</v>
+        <v>317.6</v>
       </c>
       <c r="I21">
-        <v>4646.161</v>
+        <v>310.3</v>
       </c>
       <c r="J21">
-        <v>4658.1288</v>
+        <v>303</v>
       </c>
       <c r="K21">
-        <v>4644.2357</v>
+        <v>294.45</v>
       </c>
       <c r="L21">
-        <v>4630.342600000001</v>
+        <v>285.9</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1517,34 +1595,34 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D22">
-        <v>116.0500098953276</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>615.6982</v>
+        <v>45.65</v>
       </c>
       <c r="F22">
-        <v>538.8796968748651</v>
+        <v>91.3</v>
       </c>
       <c r="G22">
-        <v>714.10625</v>
+        <v>93.95</v>
       </c>
       <c r="H22">
-        <v>779.8271000000002</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I22">
-        <v>843.7955499999998</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="J22">
-        <v>907.764</v>
+        <v>102.7</v>
       </c>
       <c r="K22">
-        <v>982.0147999999999</v>
+        <v>105.85</v>
       </c>
       <c r="L22">
-        <v>1056.2656</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1555,34 +1633,34 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>2016.271</v>
+        <v>1109.8</v>
       </c>
       <c r="E23">
-        <v>2052.35</v>
+        <v>1127.1</v>
       </c>
       <c r="F23">
-        <v>2157.069</v>
+        <v>773.0954590864997</v>
       </c>
       <c r="G23">
-        <v>2283.020864513946</v>
+        <v>1132.5</v>
       </c>
       <c r="H23">
-        <v>2244.423418381996</v>
+        <v>1120.6</v>
       </c>
       <c r="I23">
-        <v>2171.020113894573</v>
+        <v>1106.6</v>
       </c>
       <c r="J23">
-        <v>2435.696719222486</v>
+        <v>1092.6</v>
       </c>
       <c r="K23">
-        <v>2491.516911887999</v>
+        <v>1078.4</v>
       </c>
       <c r="L23">
-        <v>2288.058938928</v>
+        <v>1064.2</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1593,34 +1671,34 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>275.5654991815703</v>
+        <v>403.613691694073</v>
       </c>
       <c r="E24">
-        <v>393.8307787775784</v>
+        <v>271.4382177729718</v>
       </c>
       <c r="F24">
-        <v>541.7860708462373</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1019.706738559895</v>
+        <v>315.4</v>
       </c>
       <c r="H24">
-        <v>1210.484297534795</v>
+        <v>320.6</v>
       </c>
       <c r="I24">
-        <v>1347.083249479973</v>
+        <v>312.7</v>
       </c>
       <c r="J24">
-        <v>1491.716594567017</v>
+        <v>304.8</v>
       </c>
       <c r="K24">
-        <v>1654.327696213863</v>
+        <v>304.95</v>
       </c>
       <c r="L24">
-        <v>1813.681797456409</v>
+        <v>305.1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1631,34 +1709,34 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D25">
-        <v>355.5230008184299</v>
+        <v>110.6</v>
       </c>
       <c r="E25">
-        <v>782.2373812224217</v>
+        <v>112.3</v>
       </c>
       <c r="F25">
-        <v>1157.324166151717</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>2664.72663418279</v>
+        <v>116.75</v>
       </c>
       <c r="H25">
-        <v>3981.979130252886</v>
+        <v>119.5</v>
       </c>
       <c r="I25">
-        <v>4944.836468024525</v>
+        <v>127.8</v>
       </c>
       <c r="J25">
-        <v>6503.649611287138</v>
+        <v>136.1</v>
       </c>
       <c r="K25">
-        <v>7187.225710880306</v>
+        <v>139.7</v>
       </c>
       <c r="L25">
-        <v>7621.38165014732</v>
+        <v>143.3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1669,34 +1747,34 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D26">
-        <v>2.74</v>
+        <v>156.2</v>
       </c>
       <c r="E26">
-        <v>20.13</v>
+        <v>155.85</v>
       </c>
       <c r="F26">
-        <v>20.46</v>
+        <v>155.5</v>
       </c>
       <c r="G26">
-        <v>58.27756930560001</v>
+        <v>155.45</v>
       </c>
       <c r="H26">
-        <v>58.52768762879999</v>
+        <v>155.4</v>
       </c>
       <c r="I26">
-        <v>58.52768762880002</v>
+        <v>163.25</v>
       </c>
       <c r="J26">
-        <v>58.77780595200001</v>
+        <v>171.1</v>
       </c>
       <c r="K26">
-        <v>59.02792427520001</v>
+        <v>173.05</v>
       </c>
       <c r="L26">
-        <v>59.27804259840001</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1707,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D27">
-        <v>0.01259942039999995</v>
+        <v>977.3</v>
       </c>
       <c r="E27">
-        <v>0.6449663880000002</v>
+        <v>955.45</v>
       </c>
       <c r="F27">
-        <v>1.3654517724</v>
+        <v>933.6</v>
       </c>
       <c r="G27">
-        <v>2.223288</v>
+        <v>940.25</v>
       </c>
       <c r="H27">
-        <v>2.412504</v>
+        <v>946.9</v>
       </c>
       <c r="I27">
-        <v>2.617488</v>
+        <v>945.4000000000001</v>
       </c>
       <c r="J27">
-        <v>2.806704</v>
+        <v>943.9</v>
       </c>
       <c r="K27">
-        <v>2.99592</v>
+        <v>923.1499999999999</v>
       </c>
       <c r="L27">
-        <v>3.185136</v>
+        <v>902.4</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1745,34 +1823,34 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D28">
-        <v>1.7074005796</v>
+        <v>424.3000000000001</v>
       </c>
       <c r="E28">
-        <v>1.115033612</v>
+        <v>447.6499999999999</v>
       </c>
       <c r="F28">
-        <v>0.4845482275999996</v>
+        <v>470.9999999999999</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>610.15</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>655.3</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>707.0999999999998</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>758.8999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1783,34 +1861,34 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D29">
-        <v>550.0799999999998</v>
+        <v>24.10000000000001</v>
       </c>
       <c r="E29">
-        <v>983.0200000000001</v>
+        <v>25.95</v>
       </c>
       <c r="F29">
-        <v>1530.69</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2571.996338789735</v>
+        <v>31.35</v>
       </c>
       <c r="H29">
-        <v>2480.05048418925</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="I29">
-        <v>1747.657241591986</v>
+        <v>38.95000000000001</v>
       </c>
       <c r="J29">
-        <v>3446.057800943117</v>
+        <v>42.99999999999999</v>
       </c>
       <c r="K29">
-        <v>3439.99217164902</v>
+        <v>48.3</v>
       </c>
       <c r="L29">
-        <v>3832.78873398619</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1821,34 +1899,34 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="E30">
-        <v>126.62</v>
+        <v>1237.1</v>
       </c>
       <c r="F30">
-        <v>259.57</v>
+        <v>935.9098690535446</v>
       </c>
       <c r="G30">
-        <v>908.0745173208001</v>
+        <v>1233.55</v>
       </c>
       <c r="H30">
-        <v>908.0745173208001</v>
+        <v>1238.9</v>
       </c>
       <c r="I30">
-        <v>679.0009553207998</v>
+        <v>1245.75</v>
       </c>
       <c r="J30">
-        <v>963.2291857044445</v>
+        <v>1252.6</v>
       </c>
       <c r="K30">
-        <v>3033.052700801566</v>
+        <v>1259.4</v>
       </c>
       <c r="L30">
-        <v>2921.502147580891</v>
+        <v>1266.2</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1859,34 +1937,34 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D31">
-        <v>281.869</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>305.4943238549999</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>456.966</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>456.966</v>
+        <v>71.39999999999998</v>
       </c>
       <c r="H31">
-        <v>456.966</v>
+        <v>73.59999999999997</v>
       </c>
       <c r="I31">
-        <v>456.966</v>
+        <v>65</v>
       </c>
       <c r="J31">
-        <v>456.966</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="K31">
-        <v>456.966</v>
+        <v>56.4</v>
       </c>
       <c r="L31">
-        <v>456.966</v>
+        <v>56.39999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1897,34 +1975,34 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D32">
-        <v>45.454</v>
+        <v>270.0004999999999</v>
       </c>
       <c r="E32">
-        <v>49.14117809999999</v>
+        <v>270.0005</v>
       </c>
       <c r="F32">
-        <v>31.521</v>
+        <v>270.0005</v>
       </c>
       <c r="G32">
-        <v>31.521</v>
+        <v>369.4999</v>
       </c>
       <c r="H32">
-        <v>31.521</v>
+        <v>468.9992999999999</v>
       </c>
       <c r="I32">
-        <v>31.521</v>
+        <v>555.4164000000001</v>
       </c>
       <c r="J32">
-        <v>31.521</v>
+        <v>0.03849999999999999</v>
       </c>
       <c r="K32">
-        <v>31.521</v>
+        <v>0.0385</v>
       </c>
       <c r="L32">
-        <v>31.521</v>
+        <v>0.03849999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1935,34 +2013,34 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D33">
-        <v>573.5430000000001</v>
+        <v>90.30063064142915</v>
       </c>
       <c r="E33">
-        <v>622.4549225999999</v>
+        <v>164.99987</v>
       </c>
       <c r="F33">
-        <v>397.7380000000001</v>
+        <v>164.99987</v>
       </c>
       <c r="G33">
-        <v>397.7380000000001</v>
+        <v>167.0542911880224</v>
       </c>
       <c r="H33">
-        <v>397.7380000000001</v>
+        <v>105.3867119331086</v>
       </c>
       <c r="I33">
-        <v>397.7380000000001</v>
+        <v>18.51625630556301</v>
       </c>
       <c r="J33">
-        <v>397.7380000000001</v>
+        <v>0.0251</v>
       </c>
       <c r="K33">
-        <v>397.7380000000001</v>
+        <v>0.0251</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>26.83750944001381</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1973,34 +2051,34 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D34">
-        <v>1121.453</v>
+        <v>283</v>
       </c>
       <c r="E34">
-        <v>1216.244157975</v>
+        <v>283</v>
       </c>
       <c r="F34">
-        <v>1166.519</v>
+        <v>283</v>
       </c>
       <c r="G34">
-        <v>1166.519</v>
+        <v>400</v>
       </c>
       <c r="H34">
-        <v>1166.519</v>
+        <v>517</v>
       </c>
       <c r="I34">
-        <v>1166.519</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1166.519</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1166.519</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>961.3204771591603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2011,34 +2089,34 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D35">
-        <v>513.146</v>
+        <v>2016.271</v>
       </c>
       <c r="E35">
-        <v>556.9333518000001</v>
+        <v>2052.35</v>
       </c>
       <c r="F35">
-        <v>533.7809999999999</v>
+        <v>2157.069</v>
       </c>
       <c r="G35">
-        <v>533.7809999999999</v>
+        <v>2121.01695294255</v>
       </c>
       <c r="H35">
-        <v>533.7809999999999</v>
+        <v>2126.7785304297</v>
       </c>
       <c r="I35">
-        <v>533.7809999999999</v>
+        <v>2161.755919963684</v>
       </c>
       <c r="J35">
-        <v>533.7809999999999</v>
+        <v>2184.012508457391</v>
       </c>
       <c r="K35">
-        <v>533.7809999999999</v>
+        <v>2325.131714448</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>2397.1443912</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2049,34 +2127,34 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D36">
-        <v>18141.907</v>
+        <v>223.0968842850797</v>
       </c>
       <c r="E36">
-        <v>17784.42636</v>
+        <v>405.9641394134632</v>
       </c>
       <c r="F36">
-        <v>18571.906</v>
+        <v>518.4206113410844</v>
       </c>
       <c r="G36">
-        <v>9285.953</v>
+        <v>630.3767656750111</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>734.3361930849139</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>846.924250106358</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1033.780465091256</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1192.258914739135</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1325.39804903871</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2087,34 +2165,34 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D37">
-        <v>8810.888999999999</v>
+        <v>164.23</v>
       </c>
       <c r="E37">
-        <v>9476.640240928253</v>
+        <v>361.68</v>
       </c>
       <c r="F37">
-        <v>6480.449</v>
+        <v>583.6800000000001</v>
       </c>
       <c r="G37">
-        <v>6480.449</v>
+        <v>1272.60547848</v>
       </c>
       <c r="H37">
-        <v>6480.449</v>
+        <v>2011.698041263809</v>
       </c>
       <c r="I37">
-        <v>6480.449</v>
+        <v>2889.64588067647</v>
       </c>
       <c r="J37">
-        <v>2872.40868045197</v>
+        <v>3771.485324232459</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>4486.409170480571</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>4664.71479616537</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2125,34 +2203,34 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D38">
-        <v>7942.354</v>
+        <v>267.9581157149204</v>
       </c>
       <c r="E38">
-        <v>8599.706167500002</v>
+        <v>455.5178605865373</v>
       </c>
       <c r="F38">
-        <v>6448.197</v>
+        <v>633.9483886589155</v>
       </c>
       <c r="G38">
-        <v>6448.197</v>
+        <v>734.1215490570469</v>
       </c>
       <c r="H38">
-        <v>6448.197</v>
+        <v>1364.84151827464</v>
       </c>
       <c r="I38">
-        <v>6448.197</v>
+        <v>2360.054494565132</v>
       </c>
       <c r="J38">
-        <v>6448.197</v>
+        <v>4335.595886414521</v>
       </c>
       <c r="K38">
-        <v>3904.255897844513</v>
+        <v>5340.805886414521</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>6338.733654523157</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2163,34 +2241,34 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D39">
-        <v>5.683</v>
+        <v>2.740000000000001</v>
       </c>
       <c r="E39">
-        <v>6.142647262499999</v>
+        <v>20.13</v>
       </c>
       <c r="F39">
-        <v>3.941</v>
+        <v>20.46</v>
       </c>
       <c r="G39">
-        <v>3.941</v>
+        <v>19.3981188799466</v>
       </c>
       <c r="H39">
-        <v>3.941</v>
+        <v>19.64823720314659</v>
       </c>
       <c r="I39">
-        <v>3.941</v>
+        <v>27.09091627970468</v>
       </c>
       <c r="J39">
-        <v>3.941</v>
+        <v>56.47127020980455</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>59.02792427520002</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>59.27804259840001</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2201,34 +2279,34 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D40">
-        <v>7.582</v>
+        <v>0.01655639999999993</v>
       </c>
       <c r="E40">
-        <v>8.23114733175</v>
+        <v>0.6658024860000001</v>
       </c>
       <c r="F40">
-        <v>15.765</v>
+        <v>1.2458228</v>
       </c>
       <c r="G40">
-        <v>15.765</v>
+        <v>1.4298948</v>
       </c>
       <c r="H40">
-        <v>15.765</v>
+        <v>1.4133384</v>
       </c>
       <c r="I40">
-        <v>15.765</v>
+        <v>0.7618572000000002</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2.6991399072</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2.99592</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>2.995919999999999</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2239,28 +2317,28 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D41">
-        <v>346.636</v>
+        <v>1.7034436</v>
       </c>
       <c r="E41">
-        <v>375.5205026475</v>
+        <v>1.094197514</v>
       </c>
       <c r="F41">
-        <v>240.384</v>
+        <v>0.6041772000000001</v>
       </c>
       <c r="G41">
-        <v>240.384</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>240.384</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>240.384</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>240.384</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2277,34 +2355,34 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D42">
-        <v>17983.926</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E42">
-        <v>19356.834</v>
+        <v>983.0199999999999</v>
       </c>
       <c r="F42">
-        <v>17799.56</v>
+        <v>1530.69</v>
       </c>
       <c r="G42">
-        <v>14832.96666666667</v>
+        <v>2421.330447026947</v>
       </c>
       <c r="H42">
-        <v>11866.37333333333</v>
+        <v>3087.026499809194</v>
       </c>
       <c r="I42">
-        <v>8899.780000000001</v>
+        <v>3272.793154516681</v>
       </c>
       <c r="J42">
-        <v>5933.186666666669</v>
+        <v>3356.439601609714</v>
       </c>
       <c r="K42">
-        <v>2966.593333333332</v>
+        <v>3462.082048869347</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>3612.253989053497</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2315,34 +2393,34 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D43">
-        <v>1633.18</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1783.46</v>
+        <v>126.62</v>
       </c>
       <c r="F43">
-        <v>1406.8</v>
+        <v>259.57</v>
       </c>
       <c r="G43">
-        <v>2092.615</v>
+        <v>816.3933908256</v>
       </c>
       <c r="H43">
-        <v>2778.43</v>
+        <v>1378.616517648</v>
       </c>
       <c r="I43">
-        <v>2778.43</v>
+        <v>1970.3535971472</v>
       </c>
       <c r="J43">
-        <v>2283.528</v>
+        <v>2337.121988625601</v>
       </c>
       <c r="K43">
-        <v>2283.528</v>
+        <v>2400.458212646401</v>
       </c>
       <c r="L43">
-        <v>2283.528</v>
+        <v>2400.4582126464</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2353,28 +2431,28 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D44">
-        <v>13431.211</v>
+        <v>281.869</v>
       </c>
       <c r="E44">
-        <v>14607.281</v>
+        <v>305.4943238549999</v>
       </c>
       <c r="F44">
-        <v>13583.752</v>
+        <v>456.966</v>
       </c>
       <c r="G44">
-        <v>7397.09245</v>
+        <v>456.966</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>456.966</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>456.966</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>456.966</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2391,34 +2469,34 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>45.45400000000001</v>
       </c>
       <c r="E45">
-        <v>27.3</v>
+        <v>49.14117809999999</v>
       </c>
       <c r="F45">
-        <v>281.36</v>
+        <v>31.521</v>
       </c>
       <c r="G45">
-        <v>492.3799999999999</v>
+        <v>31.521</v>
       </c>
       <c r="H45">
-        <v>703</v>
+        <v>31.521</v>
       </c>
       <c r="I45">
-        <v>702.9999999999999</v>
+        <v>31.521</v>
       </c>
       <c r="J45">
-        <v>36.628</v>
+        <v>31.521</v>
       </c>
       <c r="K45">
-        <v>36.628</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>36.628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2429,25 +2507,25 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>573.5429999999999</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>622.4549225999999</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="H46">
-        <v>386.8700000000003</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="I46">
-        <v>466.0025000000001</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2467,31 +2545,31 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D47">
-        <v>8181.324</v>
+        <v>1121.453</v>
       </c>
       <c r="E47">
-        <v>8584.531999999999</v>
+        <v>1216.244157975</v>
       </c>
       <c r="F47">
-        <v>7355.054999999999</v>
+        <v>1166.519</v>
       </c>
       <c r="G47">
-        <v>6129.212500000003</v>
+        <v>1166.519</v>
       </c>
       <c r="H47">
-        <v>4903.370000000001</v>
+        <v>1166.519</v>
       </c>
       <c r="I47">
-        <v>3677.527500000001</v>
+        <v>1166.519</v>
       </c>
       <c r="J47">
-        <v>2451.685</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>1225.8425</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2505,34 +2583,34 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D48">
-        <v>1589.52</v>
+        <v>513.146</v>
       </c>
       <c r="E48">
-        <v>544.4299999999998</v>
+        <v>556.9333518000001</v>
       </c>
       <c r="F48">
-        <v>1010.68</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="G48">
-        <v>1010.68</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="H48">
-        <v>1010.68</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="I48">
-        <v>1010.68</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="J48">
-        <v>1010.68</v>
+        <v>101.5324558126367</v>
       </c>
       <c r="K48">
-        <v>1010.68</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1010.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2543,34 +2621,34 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D49">
-        <v>1394.83</v>
+        <v>18141.907</v>
       </c>
       <c r="E49">
-        <v>920.75</v>
+        <v>17784.42636</v>
       </c>
       <c r="F49">
-        <v>988.55</v>
+        <v>18571.906</v>
       </c>
       <c r="G49">
-        <v>1172.9875</v>
+        <v>9285.953</v>
       </c>
       <c r="H49">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2581,25 +2659,25 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D50">
-        <v>161.078000000009</v>
+        <v>8810.888999999999</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>9476.640240928249</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>6480.449</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>6480.449</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>6480.449</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>925.0309408175019</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2608,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>4734.81740442895</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2619,34 +2697,34 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D51">
-        <v>209.55</v>
+        <v>7942.354</v>
       </c>
       <c r="E51">
-        <v>99.88</v>
+        <v>8599.706167500002</v>
       </c>
       <c r="F51">
-        <v>181.99</v>
+        <v>6448.197</v>
       </c>
       <c r="G51">
-        <v>181.99</v>
+        <v>6448.197</v>
       </c>
       <c r="H51">
-        <v>181.99</v>
+        <v>6448.197</v>
       </c>
       <c r="I51">
-        <v>181.99</v>
+        <v>6448.197</v>
       </c>
       <c r="J51">
-        <v>181.99</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>181.99</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>181.99</v>
+        <v>6448.197</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2657,34 +2735,34 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>5.683000000000001</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>6.142647262499999</v>
       </c>
       <c r="F52">
-        <v>835.91</v>
+        <v>3.941</v>
       </c>
       <c r="G52">
-        <v>1715.16</v>
+        <v>3.941</v>
       </c>
       <c r="H52">
-        <v>2594.41</v>
+        <v>3.941</v>
       </c>
       <c r="I52">
-        <v>2594.41</v>
+        <v>3.941</v>
       </c>
       <c r="J52">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2695,22 +2773,22 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>7.582</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>8.23114733175</v>
       </c>
       <c r="F53">
-        <v>568.11</v>
+        <v>15.765</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>15.765</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>15.765</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2733,34 +2811,34 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D54">
-        <v>447.2400000000001</v>
+        <v>346.636</v>
       </c>
       <c r="E54">
-        <v>401.528</v>
+        <v>375.5205026475</v>
       </c>
       <c r="F54">
-        <v>53.92400000000001</v>
+        <v>240.384</v>
       </c>
       <c r="G54">
-        <v>53.92400000000001</v>
+        <v>240.384</v>
       </c>
       <c r="H54">
-        <v>53.92400000000001</v>
+        <v>240.384</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>240.384</v>
       </c>
       <c r="J54">
-        <v>53.92400000000001</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>53.92400000000001</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>53.92400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2771,34 +2849,34 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D55">
-        <v>424.6669999999999</v>
+        <v>17983.926</v>
       </c>
       <c r="E55">
-        <v>543.7600000000001</v>
+        <v>19356.834</v>
       </c>
       <c r="F55">
-        <v>347.054</v>
+        <v>17799.56</v>
       </c>
       <c r="G55">
-        <v>347.054</v>
+        <v>10740.52028571428</v>
       </c>
       <c r="H55">
-        <v>347.054</v>
+        <v>6760.826142857142</v>
       </c>
       <c r="I55">
-        <v>347.054</v>
+        <v>4373.176260350358</v>
       </c>
       <c r="J55">
-        <v>347.054</v>
+        <v>252.8654810625586</v>
       </c>
       <c r="K55">
-        <v>347.054</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>347.054</v>
+        <v>5527.789381969985</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2809,34 +2887,34 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D56">
-        <v>17.233</v>
+        <v>1649.5118</v>
       </c>
       <c r="E56">
-        <v>25.59</v>
+        <v>1801.2946</v>
       </c>
       <c r="F56">
-        <v>47.088</v>
+        <v>1420.868</v>
       </c>
       <c r="G56">
-        <v>47.088</v>
+        <v>2099.649</v>
       </c>
       <c r="H56">
-        <v>47.088</v>
+        <v>2778.43</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2778.43</v>
       </c>
       <c r="J56">
-        <v>47.088</v>
+        <v>2778.43</v>
       </c>
       <c r="K56">
-        <v>47.088</v>
+        <v>2618.191296600504</v>
       </c>
       <c r="L56">
-        <v>47.088</v>
+        <v>2778.43</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2847,34 +2925,34 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D57">
-        <v>119.584</v>
+        <v>13312.33579999999</v>
       </c>
       <c r="E57">
-        <v>79.33599999999998</v>
+        <v>14460.199</v>
       </c>
       <c r="F57">
-        <v>59.255</v>
+        <v>13473.857</v>
       </c>
       <c r="G57">
-        <v>59.255</v>
+        <v>6791.875795</v>
       </c>
       <c r="H57">
-        <v>59.255</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>59.255</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>59.255</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>59.255</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>59.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2885,34 +2963,34 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D58">
-        <v>284.87</v>
+        <v>25.25</v>
       </c>
       <c r="E58">
-        <v>205.3</v>
+        <v>27.573</v>
       </c>
       <c r="F58">
-        <v>1.966</v>
+        <v>278.5463999999999</v>
       </c>
       <c r="G58">
-        <v>1.966</v>
+        <v>493.7867999999999</v>
       </c>
       <c r="H58">
-        <v>1.966</v>
+        <v>703.3999999999997</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>703.3999999999999</v>
       </c>
       <c r="J58">
-        <v>1.966</v>
+        <v>703.4</v>
       </c>
       <c r="K58">
-        <v>1.966</v>
+        <v>36.62799999999999</v>
       </c>
       <c r="L58">
-        <v>1.966</v>
+        <v>703.4</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2923,13 +3001,13 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D59">
-        <v>118.768</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>14.361</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2938,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>386.8700000000005</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>466.0025000000004</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>545.1349999999994</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>545.1349999999965</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2961,34 +3039,34 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D60">
-        <v>956.478</v>
+        <v>8181.323999999999</v>
       </c>
       <c r="E60">
-        <v>944.024</v>
+        <v>8584.531999999999</v>
       </c>
       <c r="F60">
-        <v>138.709</v>
+        <v>7355.054999999999</v>
       </c>
       <c r="G60">
-        <v>138.709</v>
+        <v>5780.219183571429</v>
       </c>
       <c r="H60">
-        <v>138.709</v>
+        <v>3867.913585714286</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3901.827514285714</v>
       </c>
       <c r="J60">
-        <v>138.709</v>
+        <v>3935.741442857143</v>
       </c>
       <c r="K60">
-        <v>138.709</v>
+        <v>3347.678998543073</v>
       </c>
       <c r="L60">
-        <v>138.709</v>
+        <v>3935.741442857142</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2999,34 +3077,34 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D61">
-        <v>1130.197</v>
+        <v>1573.6248</v>
       </c>
       <c r="E61">
-        <v>1287.005</v>
+        <v>538.9857</v>
       </c>
       <c r="F61">
-        <v>1262.742</v>
+        <v>1000.5732</v>
       </c>
       <c r="G61">
-        <v>631.371</v>
+        <v>1020.7868</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3037,34 +3115,566 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D62">
-        <v>853.477</v>
+        <v>1380.8817</v>
       </c>
       <c r="E62">
-        <v>1287.005</v>
+        <v>911.5425</v>
       </c>
       <c r="F62">
-        <v>1262.742</v>
+        <v>978.6645</v>
       </c>
       <c r="G62">
-        <v>1262.742</v>
+        <v>1177.93025</v>
       </c>
       <c r="H62">
-        <v>1262.742</v>
+        <v>1357.425</v>
       </c>
       <c r="I62">
-        <v>1046.116724594301</v>
+        <v>1357.425</v>
       </c>
       <c r="J62">
-        <v>1262.742</v>
+        <v>1357.425</v>
       </c>
       <c r="K62">
-        <v>1262.742</v>
+        <v>1357.425</v>
       </c>
       <c r="L62">
-        <v>1262.742</v>
+        <v>1357.425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63">
+        <v>291.1194</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64">
+        <v>211.6455</v>
+      </c>
+      <c r="E64">
+        <v>98.88120000000001</v>
+      </c>
+      <c r="F64">
+        <v>180.1701</v>
+      </c>
+      <c r="G64">
+        <v>183.8099</v>
+      </c>
+      <c r="H64">
+        <v>183.8099</v>
+      </c>
+      <c r="I64">
+        <v>183.8099</v>
+      </c>
+      <c r="J64">
+        <v>183.8099</v>
+      </c>
+      <c r="K64">
+        <v>183.8099</v>
+      </c>
+      <c r="L64">
+        <v>183.8099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>827.5509</v>
+      </c>
+      <c r="G65">
+        <v>1719.33955</v>
+      </c>
+      <c r="H65">
+        <v>2594.41</v>
+      </c>
+      <c r="I65">
+        <v>2594.41</v>
+      </c>
+      <c r="J65">
+        <v>2594.41</v>
+      </c>
+      <c r="K65">
+        <v>2594.41</v>
+      </c>
+      <c r="L65">
+        <v>2594.41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>562.4289</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67">
+        <v>616.5158729999999</v>
+      </c>
+      <c r="E67">
+        <v>609.5027680000001</v>
+      </c>
+      <c r="F67">
+        <v>88.207576</v>
+      </c>
+      <c r="G67">
+        <v>88.207576</v>
+      </c>
+      <c r="H67">
+        <v>88.207576</v>
+      </c>
+      <c r="I67">
+        <v>88.207576</v>
+      </c>
+      <c r="J67">
+        <v>88.207576</v>
+      </c>
+      <c r="K67">
+        <v>88.207576</v>
+      </c>
+      <c r="L67">
+        <v>88.207576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68">
+        <v>586.5879179999999</v>
+      </c>
+      <c r="E68">
+        <v>827.1823280000001</v>
+      </c>
+      <c r="F68">
+        <v>579.1019119999999</v>
+      </c>
+      <c r="G68">
+        <v>579.1019119999999</v>
+      </c>
+      <c r="H68">
+        <v>579.1019119999999</v>
+      </c>
+      <c r="I68">
+        <v>579.1019119999999</v>
+      </c>
+      <c r="J68">
+        <v>579.1019119999999</v>
+      </c>
+      <c r="K68">
+        <v>579.1019119999999</v>
+      </c>
+      <c r="L68">
+        <v>579.1019119999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69">
+        <v>23.942364</v>
+      </c>
+      <c r="E69">
+        <v>37.31649600000001</v>
+      </c>
+      <c r="F69">
+        <v>76.70224</v>
+      </c>
+      <c r="G69">
+        <v>76.70224</v>
+      </c>
+      <c r="H69">
+        <v>76.70224</v>
+      </c>
+      <c r="I69">
+        <v>76.70224</v>
+      </c>
+      <c r="J69">
+        <v>76.70224</v>
+      </c>
+      <c r="K69">
+        <v>76.70224</v>
+      </c>
+      <c r="L69">
+        <v>76.70224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70">
+        <v>161.610957</v>
+      </c>
+      <c r="E70">
+        <v>118.168904</v>
+      </c>
+      <c r="F70">
+        <v>99.712912</v>
+      </c>
+      <c r="G70">
+        <v>99.712912</v>
+      </c>
+      <c r="H70">
+        <v>99.712912</v>
+      </c>
+      <c r="I70">
+        <v>99.712912</v>
+      </c>
+      <c r="J70">
+        <v>99.712912</v>
+      </c>
+      <c r="K70">
+        <v>99.712912</v>
+      </c>
+      <c r="L70">
+        <v>99.712912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71">
+        <v>389.063415</v>
+      </c>
+      <c r="E71">
+        <v>310.9708000000001</v>
+      </c>
+      <c r="F71">
+        <v>3.835112</v>
+      </c>
+      <c r="G71">
+        <v>3.835112</v>
+      </c>
+      <c r="H71">
+        <v>3.835112</v>
+      </c>
+      <c r="I71">
+        <v>3.835112</v>
+      </c>
+      <c r="J71">
+        <v>3.835112</v>
+      </c>
+      <c r="K71">
+        <v>3.835112</v>
+      </c>
+      <c r="L71">
+        <v>3.835112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72">
+        <v>161.610957</v>
+      </c>
+      <c r="E72">
+        <v>18.658248</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73">
+        <v>1316.83002</v>
+      </c>
+      <c r="E73">
+        <v>1430.46568</v>
+      </c>
+      <c r="F73">
+        <v>230.10672</v>
+      </c>
+      <c r="G73">
+        <v>230.10672</v>
+      </c>
+      <c r="H73">
+        <v>230.10672</v>
+      </c>
+      <c r="I73">
+        <v>230.10672</v>
+      </c>
+      <c r="J73">
+        <v>230.10672</v>
+      </c>
+      <c r="K73">
+        <v>230.10672</v>
+      </c>
+      <c r="L73">
+        <v>230.10672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74">
+        <v>1556.25366</v>
+      </c>
+      <c r="E74">
+        <v>1952.896624</v>
+      </c>
+      <c r="F74">
+        <v>2105.476488</v>
+      </c>
+      <c r="G74">
+        <v>1052.738244</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75">
+        <v>1173.175836</v>
+      </c>
+      <c r="E75">
+        <v>914.254152</v>
+      </c>
+      <c r="F75">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="G75">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="H75">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="I75">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="J75">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="K75">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="L75">
+        <v>651.9690400000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76">
+        <v>931.7900000000002</v>
+      </c>
+      <c r="E76">
+        <v>763.401</v>
+      </c>
+      <c r="F76">
+        <v>571.756</v>
+      </c>
+      <c r="G76">
+        <v>309.1526395555556</v>
+      </c>
+      <c r="H76">
+        <v>192.1817235555555</v>
+      </c>
+      <c r="I76">
+        <v>192.1817235555555</v>
+      </c>
+      <c r="J76">
+        <v>192.1817235555555</v>
+      </c>
+      <c r="K76">
+        <v>192.1817235555555</v>
+      </c>
+      <c r="L76">
+        <v>192.1817235555555</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
@@ -897,7 +897,7 @@
         <v>3003.157400000003</v>
       </c>
       <c r="K3">
-        <v>3910.287001631636</v>
+        <v>3918.467491930823</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.003000000007887138</v>
+        <v>0.003000000006068149</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>389.0141999999921</v>
+        <v>389.0141999999939</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>1968.471</v>
       </c>
       <c r="I13">
-        <v>1498.809837214362</v>
+        <v>1491.920893191529</v>
       </c>
       <c r="J13">
         <v>1594.461</v>
@@ -1332,31 +1332,31 @@
         <v>92</v>
       </c>
       <c r="D15">
-        <v>10542.65590793708</v>
+        <v>10542.65590793705</v>
       </c>
       <c r="E15">
-        <v>9813.491920798779</v>
+        <v>9813.491920798784</v>
       </c>
       <c r="F15">
-        <v>8330.12645151467</v>
+        <v>8330.126451514634</v>
       </c>
       <c r="G15">
-        <v>8877.491745726787</v>
+        <v>8877.491745726857</v>
       </c>
       <c r="H15">
-        <v>8365.601310035543</v>
+        <v>8365.601310035538</v>
       </c>
       <c r="I15">
-        <v>7853.710874344224</v>
+        <v>7853.71087434422</v>
       </c>
       <c r="J15">
-        <v>7126.207756016245</v>
+        <v>7126.20775601625</v>
       </c>
       <c r="K15">
         <v>6673.549543797601</v>
       </c>
       <c r="L15">
-        <v>6220.891331578947</v>
+        <v>6220.891331578949</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.11753319606618</v>
+        <v>13.14598614205944</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>94</v>
       </c>
       <c r="D17">
-        <v>176.5481192453167</v>
+        <v>286.7629552136859</v>
       </c>
       <c r="E17">
-        <v>521.9999999999999</v>
+        <v>522.0000000000002</v>
       </c>
       <c r="F17">
-        <v>670.4</v>
+        <v>670.3999999999999</v>
       </c>
       <c r="G17">
-        <v>809.9</v>
+        <v>809.8999999999996</v>
       </c>
       <c r="H17">
-        <v>949.4000000000001</v>
+        <v>949.3999999999999</v>
       </c>
       <c r="I17">
-        <v>972.5999999999999</v>
+        <v>972.5999999999998</v>
       </c>
       <c r="J17">
         <v>995.8000000000001</v>
@@ -1449,28 +1449,28 @@
         <v>95.12905841918084</v>
       </c>
       <c r="E18">
-        <v>143.8169715327734</v>
+        <v>143.7211429018147</v>
       </c>
       <c r="F18">
-        <v>180.328301859957</v>
+        <v>178.4902159567854</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>278.3261798964585</v>
+        <v>288.1</v>
       </c>
       <c r="I18">
         <v>288.3</v>
       </c>
       <c r="J18">
-        <v>288.5</v>
+        <v>288.5000000000001</v>
       </c>
       <c r="K18">
-        <v>286.65</v>
+        <v>286.6500000000001</v>
       </c>
       <c r="L18">
-        <v>284.8</v>
+        <v>284.8000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1490,25 +1490,25 @@
         <v>474.9</v>
       </c>
       <c r="F19">
-        <v>603.1999999999999</v>
+        <v>603.2</v>
       </c>
       <c r="G19">
-        <v>742.8499999999999</v>
+        <v>742.85</v>
       </c>
       <c r="H19">
-        <v>882.5000000000001</v>
+        <v>882.5</v>
       </c>
       <c r="I19">
         <v>913.5</v>
       </c>
       <c r="J19">
-        <v>944.5000000000001</v>
+        <v>944.5</v>
       </c>
       <c r="K19">
-        <v>969.8000000000001</v>
+        <v>969.8</v>
       </c>
       <c r="L19">
-        <v>995.0999999999999</v>
+        <v>995.1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1525,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>72.03744069425493</v>
+        <v>50.0533727510583</v>
       </c>
       <c r="F20">
         <v>1527.3</v>
       </c>
       <c r="G20">
-        <v>1652.400000000001</v>
+        <v>1652.4</v>
       </c>
       <c r="H20">
         <v>1777.5</v>
@@ -1642,7 +1642,7 @@
         <v>1127.1</v>
       </c>
       <c r="F23">
-        <v>773.0954590864997</v>
+        <v>802.7551626666141</v>
       </c>
       <c r="G23">
         <v>1132.5</v>
@@ -1674,10 +1674,10 @@
         <v>98</v>
       </c>
       <c r="D24">
-        <v>403.613691694073</v>
+        <v>313.2792046031269</v>
       </c>
       <c r="E24">
-        <v>271.4382177729718</v>
+        <v>293.5181143471254</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>304.8</v>
       </c>
       <c r="K24">
-        <v>304.95</v>
+        <v>304.9500000000001</v>
       </c>
       <c r="L24">
         <v>305.1</v>
@@ -1794,22 +1794,22 @@
         <v>955.45</v>
       </c>
       <c r="F27">
-        <v>933.6</v>
+        <v>933.5999999999999</v>
       </c>
       <c r="G27">
         <v>940.25</v>
       </c>
       <c r="H27">
-        <v>946.9</v>
+        <v>946.9000000000001</v>
       </c>
       <c r="I27">
-        <v>945.4000000000001</v>
+        <v>945.4</v>
       </c>
       <c r="J27">
-        <v>943.9</v>
+        <v>943.8999999999999</v>
       </c>
       <c r="K27">
-        <v>923.1499999999999</v>
+        <v>923.15</v>
       </c>
       <c r="L27">
         <v>902.4</v>
@@ -1826,19 +1826,19 @@
         <v>99</v>
       </c>
       <c r="D28">
-        <v>424.3000000000001</v>
+        <v>424.3</v>
       </c>
       <c r="E28">
         <v>447.6499999999999</v>
       </c>
       <c r="F28">
-        <v>470.9999999999999</v>
+        <v>470.9999999999998</v>
       </c>
       <c r="G28">
         <v>518</v>
       </c>
       <c r="H28">
-        <v>565</v>
+        <v>565.0000000000002</v>
       </c>
       <c r="I28">
         <v>610.15</v>
@@ -1847,7 +1847,7 @@
         <v>655.3</v>
       </c>
       <c r="K28">
-        <v>707.0999999999998</v>
+        <v>707.1</v>
       </c>
       <c r="L28">
         <v>758.8999999999999</v>
@@ -1864,22 +1864,22 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>24.10000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="E29">
-        <v>25.95</v>
+        <v>25.95000000000001</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>31.35</v>
+        <v>31.34999999999999</v>
       </c>
       <c r="H29">
         <v>34.90000000000001</v>
       </c>
       <c r="I29">
-        <v>38.95000000000001</v>
+        <v>38.95</v>
       </c>
       <c r="J29">
         <v>42.99999999999999</v>
@@ -1888,7 +1888,7 @@
         <v>48.3</v>
       </c>
       <c r="L29">
-        <v>53.6</v>
+        <v>53.60000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1908,7 +1908,7 @@
         <v>1237.1</v>
       </c>
       <c r="F30">
-        <v>935.9098690535446</v>
+        <v>908.088251376601</v>
       </c>
       <c r="G30">
         <v>1233.55</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>71.39999999999998</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="H31">
-        <v>73.59999999999997</v>
+        <v>73.59999999999998</v>
       </c>
       <c r="I31">
         <v>65</v>
@@ -1961,10 +1961,10 @@
         <v>56.40000000000001</v>
       </c>
       <c r="K31">
+        <v>56.39999999999999</v>
+      </c>
+      <c r="L31">
         <v>56.4</v>
-      </c>
-      <c r="L31">
-        <v>56.39999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1984,7 +1984,7 @@
         <v>270.0005</v>
       </c>
       <c r="F32">
-        <v>270.0005</v>
+        <v>270.0004999999999</v>
       </c>
       <c r="G32">
         <v>369.4999</v>
@@ -1993,10 +1993,10 @@
         <v>468.9992999999999</v>
       </c>
       <c r="I32">
-        <v>555.4164000000001</v>
+        <v>555.4164</v>
       </c>
       <c r="J32">
-        <v>0.03849999999999999</v>
+        <v>0.0385</v>
       </c>
       <c r="K32">
         <v>0.0385</v>
@@ -2016,7 +2016,7 @@
         <v>104</v>
       </c>
       <c r="D33">
-        <v>90.30063064142915</v>
+        <v>70.420281764007</v>
       </c>
       <c r="E33">
         <v>164.99987</v>
@@ -2025,13 +2025,13 @@
         <v>164.99987</v>
       </c>
       <c r="G33">
-        <v>167.0542911880224</v>
+        <v>166.6424564965332</v>
       </c>
       <c r="H33">
-        <v>105.3867119331086</v>
+        <v>104.5700131488597</v>
       </c>
       <c r="I33">
-        <v>18.51625630556301</v>
+        <v>18.51676318410327</v>
       </c>
       <c r="J33">
         <v>0.0251</v>
@@ -2040,7 +2040,7 @@
         <v>0.0251</v>
       </c>
       <c r="L33">
-        <v>26.83750944001381</v>
+        <v>23.14574775626194</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2054,7 +2054,7 @@
         <v>105</v>
       </c>
       <c r="D34">
-        <v>283</v>
+        <v>283.0000000000001</v>
       </c>
       <c r="E34">
         <v>283</v>
@@ -2101,22 +2101,22 @@
         <v>2157.069</v>
       </c>
       <c r="G35">
-        <v>2121.01695294255</v>
+        <v>2120.856615821679</v>
       </c>
       <c r="H35">
-        <v>2126.7785304297</v>
+        <v>2136.897691598091</v>
       </c>
       <c r="I35">
-        <v>2161.755919963684</v>
+        <v>2168.809778952856</v>
       </c>
       <c r="J35">
-        <v>2184.012508457391</v>
+        <v>2183.919063765507</v>
       </c>
       <c r="K35">
         <v>2325.131714448</v>
       </c>
       <c r="L35">
-        <v>2397.1443912</v>
+        <v>2397.144391199999</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2130,31 +2130,31 @@
         <v>107</v>
       </c>
       <c r="D36">
-        <v>223.0968842850797</v>
+        <v>190.8050671750906</v>
       </c>
       <c r="E36">
-        <v>405.9641394134632</v>
+        <v>405.9641394134636</v>
       </c>
       <c r="F36">
-        <v>518.4206113410844</v>
+        <v>521.3211178718931</v>
       </c>
       <c r="G36">
-        <v>630.3767656750111</v>
+        <v>631.8178541846589</v>
       </c>
       <c r="H36">
-        <v>734.3361930849139</v>
+        <v>735.8095141129907</v>
       </c>
       <c r="I36">
-        <v>846.924250106358</v>
+        <v>847.1894207328172</v>
       </c>
       <c r="J36">
-        <v>1033.780465091256</v>
+        <v>1040.682254268009</v>
       </c>
       <c r="K36">
-        <v>1192.258914739135</v>
+        <v>1192.223167778791</v>
       </c>
       <c r="L36">
-        <v>1325.39804903871</v>
+        <v>1325.819181040141</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2168,31 +2168,31 @@
         <v>108</v>
       </c>
       <c r="D37">
-        <v>164.23</v>
+        <v>164.2299999999999</v>
       </c>
       <c r="E37">
-        <v>361.68</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F37">
-        <v>583.6800000000001</v>
+        <v>583.6799999999997</v>
       </c>
       <c r="G37">
-        <v>1272.60547848</v>
+        <v>1243.439233240649</v>
       </c>
       <c r="H37">
-        <v>2011.698041263809</v>
+        <v>2013.318061456363</v>
       </c>
       <c r="I37">
-        <v>2889.64588067647</v>
+        <v>2887.343019990184</v>
       </c>
       <c r="J37">
-        <v>3771.485324232459</v>
+        <v>3773.463691189361</v>
       </c>
       <c r="K37">
-        <v>4486.409170480571</v>
+        <v>4490.142375877111</v>
       </c>
       <c r="L37">
-        <v>4664.71479616537</v>
+        <v>4668.448001561909</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2206,31 +2206,31 @@
         <v>109</v>
       </c>
       <c r="D38">
-        <v>267.9581157149204</v>
+        <v>300.2499328249097</v>
       </c>
       <c r="E38">
-        <v>455.5178605865373</v>
+        <v>455.5178605865362</v>
       </c>
       <c r="F38">
-        <v>633.9483886589155</v>
+        <v>631.0478821281067</v>
       </c>
       <c r="G38">
-        <v>734.1215490570469</v>
+        <v>734.0171772888376</v>
       </c>
       <c r="H38">
-        <v>1364.84151827464</v>
+        <v>1401.289613835492</v>
       </c>
       <c r="I38">
-        <v>2360.054494565132</v>
+        <v>2382.078769879987</v>
       </c>
       <c r="J38">
-        <v>4335.595886414521</v>
+        <v>4335.585388554874</v>
       </c>
       <c r="K38">
-        <v>5340.805886414521</v>
+        <v>5340.795388554872</v>
       </c>
       <c r="L38">
-        <v>6338.733654523157</v>
+        <v>6309.434785341552</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2253,22 +2253,22 @@
         <v>20.46</v>
       </c>
       <c r="G39">
-        <v>19.3981188799466</v>
+        <v>19.42365604795519</v>
       </c>
       <c r="H39">
-        <v>19.64823720314659</v>
+        <v>20.1541894024232</v>
       </c>
       <c r="I39">
-        <v>27.09091627970468</v>
+        <v>27.16898191408292</v>
       </c>
       <c r="J39">
-        <v>56.47127020980455</v>
+        <v>56.45802508980456</v>
       </c>
       <c r="K39">
-        <v>59.02792427520002</v>
+        <v>59.02792427520001</v>
       </c>
       <c r="L39">
-        <v>59.27804259840001</v>
+        <v>59.27804259839998</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2285,28 +2285,28 @@
         <v>0.01655639999999993</v>
       </c>
       <c r="E40">
-        <v>0.6658024860000001</v>
+        <v>0.579922074</v>
       </c>
       <c r="F40">
-        <v>1.2458228</v>
+        <v>1.327386722</v>
       </c>
       <c r="G40">
-        <v>1.4298948</v>
+        <v>1.4038721208</v>
       </c>
       <c r="H40">
-        <v>1.4133384</v>
+        <v>1.395978187200001</v>
       </c>
       <c r="I40">
-        <v>0.7618572000000002</v>
+        <v>0.7435726272000004</v>
       </c>
       <c r="J40">
-        <v>2.6991399072</v>
+        <v>2.7556049976</v>
       </c>
       <c r="K40">
         <v>2.99592</v>
       </c>
       <c r="L40">
-        <v>2.995919999999999</v>
+        <v>2.99592</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2323,10 +2323,10 @@
         <v>1.7034436</v>
       </c>
       <c r="E41">
-        <v>1.094197514</v>
+        <v>1.180077926</v>
       </c>
       <c r="F41">
-        <v>0.6041772000000001</v>
+        <v>0.5226132780000002</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2361,28 +2361,28 @@
         <v>550.0799999999999</v>
       </c>
       <c r="E42">
-        <v>983.0199999999999</v>
+        <v>983.0200000000001</v>
       </c>
       <c r="F42">
-        <v>1530.69</v>
+        <v>1530.690000000001</v>
       </c>
       <c r="G42">
-        <v>2421.330447026947</v>
+        <v>2439.908325209025</v>
       </c>
       <c r="H42">
-        <v>3087.026499809194</v>
+        <v>3078.066753781754</v>
       </c>
       <c r="I42">
-        <v>3272.793154516681</v>
+        <v>3290.352990435884</v>
       </c>
       <c r="J42">
-        <v>3356.439601609714</v>
+        <v>3364.841673240101</v>
       </c>
       <c r="K42">
-        <v>3462.082048869347</v>
+        <v>3460.671837368401</v>
       </c>
       <c r="L42">
-        <v>3612.253989053497</v>
+        <v>3610.736886094618</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2405,22 +2405,22 @@
         <v>259.57</v>
       </c>
       <c r="G43">
-        <v>816.3933908256</v>
+        <v>813.8432511072</v>
       </c>
       <c r="H43">
-        <v>1378.616517648</v>
+        <v>1400.0936480384</v>
       </c>
       <c r="I43">
-        <v>1970.3535971472</v>
+        <v>1985.556845256</v>
       </c>
       <c r="J43">
-        <v>2337.121988625601</v>
+        <v>2337.004075876801</v>
       </c>
       <c r="K43">
-        <v>2400.458212646401</v>
+        <v>2398.519127078402</v>
       </c>
       <c r="L43">
-        <v>2400.4582126464</v>
+        <v>2398.519127078402</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2472,7 +2472,7 @@
         <v>115</v>
       </c>
       <c r="D45">
-        <v>45.45400000000001</v>
+        <v>45.454</v>
       </c>
       <c r="E45">
         <v>49.14117809999999</v>
@@ -2604,7 +2604,7 @@
         <v>533.7809999999999</v>
       </c>
       <c r="J48">
-        <v>101.5324558126367</v>
+        <v>105.2397240974229</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>6480.449</v>
       </c>
       <c r="I50">
-        <v>925.0309408175019</v>
+        <v>853.8193000604568</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>4734.81740442895</v>
+        <v>4728.226653048191</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2738,7 +2738,7 @@
         <v>115</v>
       </c>
       <c r="D52">
-        <v>5.683000000000001</v>
+        <v>5.683</v>
       </c>
       <c r="E52">
         <v>6.142647262499999</v>
@@ -2861,22 +2861,22 @@
         <v>17799.56</v>
       </c>
       <c r="G55">
-        <v>10740.52028571428</v>
+        <v>10740.52028571429</v>
       </c>
       <c r="H55">
         <v>6760.826142857142</v>
       </c>
       <c r="I55">
-        <v>4373.176260350358</v>
+        <v>4342.656985740197</v>
       </c>
       <c r="J55">
-        <v>252.8654810625586</v>
+        <v>254.454310327467</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>5527.789381969985</v>
+        <v>5524.532524885278</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2905,13 +2905,13 @@
         <v>2778.43</v>
       </c>
       <c r="I56">
-        <v>2778.43</v>
+        <v>2778.430000000001</v>
       </c>
       <c r="J56">
         <v>2778.43</v>
       </c>
       <c r="K56">
-        <v>2618.191296600504</v>
+        <v>2606.156526596835</v>
       </c>
       <c r="L56">
         <v>2778.43</v>
@@ -2928,7 +2928,7 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>13312.33579999999</v>
+        <v>13312.3358</v>
       </c>
       <c r="E57">
         <v>14460.199</v>
@@ -2969,7 +2969,7 @@
         <v>25.25</v>
       </c>
       <c r="E58">
-        <v>27.573</v>
+        <v>27.57300000000001</v>
       </c>
       <c r="F58">
         <v>278.5463999999999</v>
@@ -2978,19 +2978,19 @@
         <v>493.7867999999999</v>
       </c>
       <c r="H58">
-        <v>703.3999999999997</v>
+        <v>703.3999999999999</v>
       </c>
       <c r="I58">
         <v>703.3999999999999</v>
       </c>
       <c r="J58">
-        <v>703.4</v>
+        <v>703.3999999999999</v>
       </c>
       <c r="K58">
         <v>36.62799999999999</v>
       </c>
       <c r="L58">
-        <v>703.4</v>
+        <v>703.4000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3016,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>386.8700000000005</v>
+        <v>386.87</v>
       </c>
       <c r="I59">
-        <v>466.0025000000004</v>
+        <v>466.0025</v>
       </c>
       <c r="J59">
-        <v>545.1349999999994</v>
+        <v>545.135</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>545.1349999999965</v>
+        <v>545.1350000000002</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3042,28 +3042,28 @@
         <v>118</v>
       </c>
       <c r="D60">
-        <v>8181.323999999999</v>
+        <v>8181.323999999998</v>
       </c>
       <c r="E60">
-        <v>8584.531999999999</v>
+        <v>8584.531999999997</v>
       </c>
       <c r="F60">
         <v>7355.054999999999</v>
       </c>
       <c r="G60">
-        <v>5780.219183571429</v>
+        <v>5780.219183571428</v>
       </c>
       <c r="H60">
         <v>3867.913585714286</v>
       </c>
       <c r="I60">
-        <v>3901.827514285714</v>
+        <v>3901.827514285715</v>
       </c>
       <c r="J60">
         <v>3935.741442857143</v>
       </c>
       <c r="K60">
-        <v>3347.678998543073</v>
+        <v>3342.521239970072</v>
       </c>
       <c r="L60">
         <v>3935.741442857142</v>
@@ -3197,7 +3197,7 @@
         <v>211.6455</v>
       </c>
       <c r="E64">
-        <v>98.88120000000001</v>
+        <v>98.88119999999999</v>
       </c>
       <c r="F64">
         <v>180.1701</v>
@@ -3308,7 +3308,7 @@
         <v>120</v>
       </c>
       <c r="D67">
-        <v>616.5158729999999</v>
+        <v>616.5158730000002</v>
       </c>
       <c r="E67">
         <v>609.5027680000001</v>
@@ -3346,7 +3346,7 @@
         <v>120</v>
       </c>
       <c r="D68">
-        <v>586.5879179999999</v>
+        <v>586.5879180000001</v>
       </c>
       <c r="E68">
         <v>827.1823280000001</v>

--- a/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
   <si>
     <t>tech</t>
   </si>
@@ -59,6 +59,12 @@
     <t>UPS_LOC_HOIL_2</t>
   </si>
   <si>
+    <t>UPS_LOC_HOIL_3</t>
+  </si>
+  <si>
+    <t>UPS_GRO_HOIL_1</t>
+  </si>
+  <si>
     <t>UPS_LOC_HSAN_1</t>
   </si>
   <si>
@@ -86,10 +92,19 @@
     <t>UPS_LOC_NGA_3</t>
   </si>
   <si>
+    <t>UPS_GRO_NGA_1</t>
+  </si>
+  <si>
+    <t>UPS_GRO_NGA_2</t>
+  </si>
+  <si>
     <t>UPS_LOC_BCO</t>
   </si>
   <si>
     <t>UPS_LOC_HCO</t>
+  </si>
+  <si>
+    <t>UPS_DIS_HCO</t>
   </si>
   <si>
     <t>UPS_NUC_LWR_UOX_EXS</t>
@@ -786,7 +801,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>7384.745999999999</v>
@@ -844,19 +859,19 @@
         <v>6027.236000000001</v>
       </c>
       <c r="F2">
-        <v>6196.844</v>
+        <v>5810.872800000002</v>
       </c>
       <c r="G2">
-        <v>5887.002</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5592.651999999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5313.019</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2044.210599999997</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -873,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -882,22 +897,22 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>385.9711999999981</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5887.002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5260.739800000001</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3003.157400000003</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3918.467491930823</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -911,10 +926,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>191.32</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -926,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>331.9121999999979</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5313.019</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2044.210800000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -949,10 +964,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>191.32</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -970,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3003.157199999999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3579.914295325188</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -987,7 +1002,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>95.66000000000001</v>
@@ -1025,22 +1040,22 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>95.66000000000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.003000000006068149</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>389.0141999999939</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1063,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>47.83000000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1078,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>389.0172</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1101,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1110,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.002999999991516233</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>194.5056000000231</v>
       </c>
       <c r="H9">
-        <v>194.5088</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1139,19 +1154,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>11339.231</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>9314.114000000001</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>6033.454999999999</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>194.5086</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1177,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1186,25 +1201,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1660.191000000001</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6924.281</v>
+        <v>97.2544</v>
       </c>
       <c r="H11">
-        <v>6231.852999999999</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5608.668</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5047.801000000001</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4543.021</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2783.292499999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1215,13 +1230,13 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>11339.231</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2004.169</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1242,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1305.426500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1253,34 +1268,34 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>3638.04</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3443.583</v>
+        <v>7309.945</v>
       </c>
       <c r="F13">
-        <v>2430.211</v>
+        <v>7693.646</v>
       </c>
       <c r="G13">
-        <v>2187.19</v>
+        <v>2787.609000000002</v>
       </c>
       <c r="H13">
-        <v>1968.471</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1491.920893191529</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1594.461</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1435.015</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1291.514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1291,34 +1306,34 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D14">
-        <v>3280.326</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2515.435</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1491.766</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1193.413</v>
+        <v>4136.671999999999</v>
       </c>
       <c r="H14">
-        <v>954.7300000000001</v>
+        <v>6231.852999999999</v>
       </c>
       <c r="I14">
-        <v>763.784</v>
+        <v>2974.875000000002</v>
       </c>
       <c r="J14">
-        <v>611.027</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>488.8219999999999</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>391.058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1329,34 +1344,34 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15">
-        <v>10542.65590793705</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>9813.491920798784</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>8330.126451514634</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>8877.491745726857</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>8365.601310035538</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>7853.71087434422</v>
+        <v>2633.792999999998</v>
       </c>
       <c r="J15">
-        <v>7126.20775601625</v>
+        <v>5047.801000000001</v>
       </c>
       <c r="K15">
-        <v>6673.549543797601</v>
+        <v>3782.242917849391</v>
       </c>
       <c r="L15">
-        <v>6220.891331578949</v>
+        <v>1620.981541075305</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1367,34 +1382,34 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>228.7400000000007</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>635.7240000000002</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>615.4250000000002</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>584.6539999999997</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>555.4210000000002</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>527.6499999999996</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.14598614205944</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2467.737458924695</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1405,34 +1420,34 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>286.7629552136859</v>
+        <v>3638.04</v>
       </c>
       <c r="E17">
-        <v>522.0000000000002</v>
+        <v>3443.583</v>
       </c>
       <c r="F17">
-        <v>670.3999999999999</v>
+        <v>2430.211</v>
       </c>
       <c r="G17">
-        <v>809.8999999999996</v>
+        <v>2187.19</v>
       </c>
       <c r="H17">
-        <v>949.3999999999999</v>
+        <v>1968.471</v>
       </c>
       <c r="I17">
-        <v>972.5999999999998</v>
+        <v>1441.747620933477</v>
       </c>
       <c r="J17">
-        <v>995.8000000000001</v>
+        <v>1210.575176740467</v>
       </c>
       <c r="K17">
-        <v>1014.6</v>
+        <v>433.2637502840357</v>
       </c>
       <c r="L17">
-        <v>1033.4</v>
+        <v>1291.514</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1443,34 +1458,34 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>95.12905841918084</v>
+        <v>3280.326</v>
       </c>
       <c r="E18">
-        <v>143.7211429018147</v>
+        <v>2515.435</v>
       </c>
       <c r="F18">
-        <v>178.4902159567854</v>
+        <v>1491.766</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1193.413</v>
       </c>
       <c r="H18">
-        <v>288.1</v>
+        <v>954.7300000000001</v>
       </c>
       <c r="I18">
-        <v>288.3</v>
+        <v>763.784</v>
       </c>
       <c r="J18">
-        <v>288.5000000000001</v>
+        <v>611.027</v>
       </c>
       <c r="K18">
-        <v>286.6500000000001</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>284.8000000000001</v>
+        <v>62.83459999999942</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1484,31 +1499,31 @@
         <v>96</v>
       </c>
       <c r="D19">
-        <v>346.6</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>474.9</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>603.2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>742.85</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>882.5</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>913.5</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>944.5</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>969.8</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>995.1</v>
+        <v>328.2234000000006</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1522,31 +1537,31 @@
         <v>97</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10542.65590793705</v>
       </c>
       <c r="E20">
-        <v>50.0533727510583</v>
+        <v>9813.491920798784</v>
       </c>
       <c r="F20">
-        <v>1527.3</v>
+        <v>8330.126451514547</v>
       </c>
       <c r="G20">
-        <v>1652.4</v>
+        <v>8877.491745726904</v>
       </c>
       <c r="H20">
-        <v>1777.5</v>
+        <v>8365.601310035534</v>
       </c>
       <c r="I20">
-        <v>1751.8</v>
+        <v>7853.71087434422</v>
       </c>
       <c r="J20">
-        <v>1726.1</v>
+        <v>7126.207756016251</v>
       </c>
       <c r="K20">
-        <v>1696.9</v>
+        <v>6673.549543797601</v>
       </c>
       <c r="L20">
-        <v>1667.7</v>
+        <v>6220.891331578942</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1560,31 +1575,31 @@
         <v>98</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>467.8900000000004</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>635.7240000000002</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>615.4250000000002</v>
       </c>
       <c r="G21">
-        <v>292.5</v>
+        <v>584.6539999999997</v>
       </c>
       <c r="H21">
-        <v>317.6</v>
+        <v>555.4210000000002</v>
       </c>
       <c r="I21">
-        <v>310.3</v>
+        <v>490.1205766520289</v>
       </c>
       <c r="J21">
-        <v>303</v>
+        <v>17.07828153299648</v>
       </c>
       <c r="K21">
-        <v>294.45</v>
+        <v>11.96844843141363</v>
       </c>
       <c r="L21">
-        <v>285.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1595,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>27.50755464648073</v>
       </c>
       <c r="E22">
-        <v>45.65</v>
+        <v>522</v>
       </c>
       <c r="F22">
-        <v>91.3</v>
+        <v>670.3999999999999</v>
       </c>
       <c r="G22">
-        <v>93.95</v>
+        <v>809.9000000000001</v>
       </c>
       <c r="H22">
-        <v>96.59999999999999</v>
+        <v>949.4000000000001</v>
       </c>
       <c r="I22">
-        <v>99.65000000000001</v>
+        <v>972.6000000001769</v>
       </c>
       <c r="J22">
-        <v>102.7</v>
+        <v>995.8</v>
       </c>
       <c r="K22">
-        <v>105.85</v>
+        <v>1014.600000000001</v>
       </c>
       <c r="L22">
-        <v>109</v>
+        <v>1033.400000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1633,34 +1648,34 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>1109.8</v>
+        <v>95.12905841918084</v>
       </c>
       <c r="E23">
-        <v>1127.1</v>
+        <v>146.2483690290342</v>
       </c>
       <c r="F23">
-        <v>802.7551626666141</v>
+        <v>90.02558565786411</v>
       </c>
       <c r="G23">
-        <v>1132.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1120.6</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1106.6</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1092.6</v>
+        <v>288.4999999999999</v>
       </c>
       <c r="K23">
-        <v>1078.4</v>
+        <v>286.6499999999999</v>
       </c>
       <c r="L23">
-        <v>1064.2</v>
+        <v>284.8000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1671,34 +1686,34 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D24">
-        <v>313.2792046031269</v>
+        <v>346.6</v>
       </c>
       <c r="E24">
-        <v>293.5181143471254</v>
+        <v>474.9</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>603.2</v>
       </c>
       <c r="G24">
-        <v>315.4</v>
+        <v>742.8500000000003</v>
       </c>
       <c r="H24">
-        <v>320.6</v>
+        <v>882.5000000000001</v>
       </c>
       <c r="I24">
-        <v>312.7</v>
+        <v>913.4999999999999</v>
       </c>
       <c r="J24">
-        <v>304.8</v>
+        <v>944.5000000000002</v>
       </c>
       <c r="K24">
-        <v>304.9500000000001</v>
+        <v>969.8000000000001</v>
       </c>
       <c r="L24">
-        <v>305.1</v>
+        <v>995.1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1709,34 +1724,34 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D25">
-        <v>110.6</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>112.3</v>
+        <v>322.7600379837668</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1527.3</v>
       </c>
       <c r="G25">
-        <v>116.75</v>
+        <v>1652.4</v>
       </c>
       <c r="H25">
-        <v>119.5</v>
+        <v>1777.500000000001</v>
       </c>
       <c r="I25">
-        <v>127.8</v>
+        <v>1751.8</v>
       </c>
       <c r="J25">
-        <v>136.1</v>
+        <v>1726.1</v>
       </c>
       <c r="K25">
-        <v>139.7</v>
+        <v>1696.9</v>
       </c>
       <c r="L25">
-        <v>143.3</v>
+        <v>1667.7</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1747,34 +1762,34 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D26">
-        <v>156.2</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>155.85</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>155.5</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>155.45</v>
+        <v>292.5</v>
       </c>
       <c r="H26">
-        <v>155.4</v>
+        <v>317.6</v>
       </c>
       <c r="I26">
-        <v>163.25</v>
+        <v>310.3</v>
       </c>
       <c r="J26">
-        <v>171.1</v>
+        <v>303</v>
       </c>
       <c r="K26">
-        <v>173.05</v>
+        <v>294.45</v>
       </c>
       <c r="L26">
-        <v>175</v>
+        <v>285.9</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1785,34 +1800,34 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D27">
-        <v>977.3</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>955.45</v>
+        <v>45.65</v>
       </c>
       <c r="F27">
-        <v>933.5999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="G27">
-        <v>940.25</v>
+        <v>93.94999999999999</v>
       </c>
       <c r="H27">
-        <v>946.9000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I27">
-        <v>945.4</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="J27">
-        <v>943.8999999999999</v>
+        <v>102.7</v>
       </c>
       <c r="K27">
-        <v>923.15</v>
+        <v>105.85</v>
       </c>
       <c r="L27">
-        <v>902.4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1823,34 +1838,34 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D28">
-        <v>424.3</v>
+        <v>1109.8</v>
       </c>
       <c r="E28">
-        <v>447.6499999999999</v>
+        <v>1127.1</v>
       </c>
       <c r="F28">
-        <v>470.9999999999998</v>
+        <v>863.6250357918311</v>
       </c>
       <c r="G28">
-        <v>518</v>
+        <v>1132.5</v>
       </c>
       <c r="H28">
-        <v>565.0000000000002</v>
+        <v>1120.6</v>
       </c>
       <c r="I28">
-        <v>610.15</v>
+        <v>1106.6</v>
       </c>
       <c r="J28">
-        <v>655.3</v>
+        <v>1092.6</v>
       </c>
       <c r="K28">
-        <v>707.1</v>
+        <v>1078.4</v>
       </c>
       <c r="L28">
-        <v>758.8999999999999</v>
+        <v>1064.2</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1861,34 +1876,34 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D29">
-        <v>24.1</v>
+        <v>477.9550169343402</v>
       </c>
       <c r="E29">
-        <v>25.95000000000001</v>
+        <v>18.28422298720079</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>31.34999999999999</v>
+        <v>315.4</v>
       </c>
       <c r="H29">
-        <v>34.90000000000001</v>
+        <v>320.6</v>
       </c>
       <c r="I29">
-        <v>38.95</v>
+        <v>312.7</v>
       </c>
       <c r="J29">
-        <v>42.99999999999999</v>
+        <v>304.8</v>
       </c>
       <c r="K29">
-        <v>48.3</v>
+        <v>304.95</v>
       </c>
       <c r="L29">
-        <v>53.60000000000001</v>
+        <v>305.1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1899,34 +1914,34 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D30">
-        <v>1246</v>
+        <v>110.6</v>
       </c>
       <c r="E30">
-        <v>1237.1</v>
+        <v>112.3</v>
       </c>
       <c r="F30">
-        <v>908.088251376601</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1233.55</v>
+        <v>116.75</v>
       </c>
       <c r="H30">
-        <v>1238.9</v>
+        <v>119.5</v>
       </c>
       <c r="I30">
-        <v>1245.75</v>
+        <v>127.8</v>
       </c>
       <c r="J30">
-        <v>1252.6</v>
+        <v>136.1</v>
       </c>
       <c r="K30">
-        <v>1259.4</v>
+        <v>139.7</v>
       </c>
       <c r="L30">
-        <v>1266.2</v>
+        <v>143.3</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1937,34 +1952,34 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>156.2</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>155.85</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="G31">
-        <v>71.39999999999999</v>
+        <v>155.45</v>
       </c>
       <c r="H31">
-        <v>73.59999999999998</v>
+        <v>155.4</v>
       </c>
       <c r="I31">
-        <v>65</v>
+        <v>163.25</v>
       </c>
       <c r="J31">
-        <v>56.40000000000001</v>
+        <v>171.1</v>
       </c>
       <c r="K31">
-        <v>56.39999999999999</v>
+        <v>173.05</v>
       </c>
       <c r="L31">
-        <v>56.4</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1978,31 +1993,31 @@
         <v>103</v>
       </c>
       <c r="D32">
-        <v>270.0004999999999</v>
+        <v>977.3</v>
       </c>
       <c r="E32">
-        <v>270.0005</v>
+        <v>955.45</v>
       </c>
       <c r="F32">
-        <v>270.0004999999999</v>
+        <v>933.5999999999999</v>
       </c>
       <c r="G32">
-        <v>369.4999</v>
+        <v>940.25</v>
       </c>
       <c r="H32">
-        <v>468.9992999999999</v>
+        <v>946.8999999999999</v>
       </c>
       <c r="I32">
-        <v>555.4164</v>
+        <v>945.4</v>
       </c>
       <c r="J32">
-        <v>0.0385</v>
+        <v>943.9</v>
       </c>
       <c r="K32">
-        <v>0.0385</v>
+        <v>923.1500000000001</v>
       </c>
       <c r="L32">
-        <v>0.03849999999999999</v>
+        <v>902.4</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2016,31 +2031,31 @@
         <v>104</v>
       </c>
       <c r="D33">
-        <v>70.420281764007</v>
+        <v>424.3000000000001</v>
       </c>
       <c r="E33">
-        <v>164.99987</v>
+        <v>447.65</v>
       </c>
       <c r="F33">
-        <v>164.99987</v>
+        <v>471</v>
       </c>
       <c r="G33">
-        <v>166.6424564965332</v>
+        <v>518</v>
       </c>
       <c r="H33">
-        <v>104.5700131488597</v>
+        <v>565</v>
       </c>
       <c r="I33">
-        <v>18.51676318410327</v>
+        <v>610.1500000000002</v>
       </c>
       <c r="J33">
-        <v>0.0251</v>
+        <v>655.3</v>
       </c>
       <c r="K33">
-        <v>0.0251</v>
+        <v>707.0999999999999</v>
       </c>
       <c r="L33">
-        <v>23.14574775626194</v>
+        <v>758.9</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2054,31 +2069,31 @@
         <v>105</v>
       </c>
       <c r="D34">
-        <v>283.0000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="E34">
-        <v>283</v>
+        <v>25.95</v>
       </c>
       <c r="F34">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>400</v>
+        <v>31.35</v>
       </c>
       <c r="H34">
-        <v>517</v>
+        <v>34.9</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>38.95</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>42.99999999999999</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>48.3</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>53.60000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2092,31 +2107,31 @@
         <v>106</v>
       </c>
       <c r="D35">
-        <v>2016.271</v>
+        <v>1246</v>
       </c>
       <c r="E35">
-        <v>2052.35</v>
+        <v>1237.1</v>
       </c>
       <c r="F35">
-        <v>2157.069</v>
+        <v>935.6830085503052</v>
       </c>
       <c r="G35">
-        <v>2120.856615821679</v>
+        <v>1233.55</v>
       </c>
       <c r="H35">
-        <v>2136.897691598091</v>
+        <v>1238.9</v>
       </c>
       <c r="I35">
-        <v>2168.809778952856</v>
+        <v>1245.75</v>
       </c>
       <c r="J35">
-        <v>2183.919063765507</v>
+        <v>1252.6</v>
       </c>
       <c r="K35">
-        <v>2325.131714448</v>
+        <v>1259.4</v>
       </c>
       <c r="L35">
-        <v>2397.144391199999</v>
+        <v>1266.2</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2130,31 +2145,31 @@
         <v>107</v>
       </c>
       <c r="D36">
-        <v>190.8050671750906</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>405.9641394134636</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>521.3211178718931</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>631.8178541846589</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H36">
-        <v>735.8095141129907</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I36">
-        <v>847.1894207328172</v>
+        <v>65</v>
       </c>
       <c r="J36">
-        <v>1040.682254268009</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="K36">
-        <v>1192.223167778791</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="L36">
-        <v>1325.819181040141</v>
+        <v>56.39999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2168,31 +2183,31 @@
         <v>108</v>
       </c>
       <c r="D37">
-        <v>164.2299999999999</v>
+        <v>270.0005</v>
       </c>
       <c r="E37">
-        <v>361.6799999999999</v>
+        <v>270.0005</v>
       </c>
       <c r="F37">
-        <v>583.6799999999997</v>
+        <v>270.0005</v>
       </c>
       <c r="G37">
-        <v>1243.439233240649</v>
+        <v>369.499900000001</v>
       </c>
       <c r="H37">
-        <v>2013.318061456363</v>
+        <v>468.9992999999999</v>
       </c>
       <c r="I37">
-        <v>2887.343019990184</v>
+        <v>555.4164000000025</v>
       </c>
       <c r="J37">
-        <v>3773.463691189361</v>
+        <v>0.03849999999999999</v>
       </c>
       <c r="K37">
-        <v>4490.142375877111</v>
+        <v>0.03849999999999999</v>
       </c>
       <c r="L37">
-        <v>4668.448001561909</v>
+        <v>0.03849999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2206,31 +2221,31 @@
         <v>109</v>
       </c>
       <c r="D38">
-        <v>300.2499328249097</v>
+        <v>164.99987</v>
       </c>
       <c r="E38">
-        <v>455.5178605865362</v>
+        <v>164.99987</v>
       </c>
       <c r="F38">
-        <v>631.0478821281067</v>
+        <v>164.99987</v>
       </c>
       <c r="G38">
-        <v>734.0171772888376</v>
+        <v>166.6424564965331</v>
       </c>
       <c r="H38">
-        <v>1401.289613835492</v>
+        <v>104.569288202864</v>
       </c>
       <c r="I38">
-        <v>2382.078769879987</v>
+        <v>18.50742396442822</v>
       </c>
       <c r="J38">
-        <v>4335.585388554874</v>
+        <v>0.0251</v>
       </c>
       <c r="K38">
-        <v>5340.795388554872</v>
+        <v>0.0251</v>
       </c>
       <c r="L38">
-        <v>6309.434785341552</v>
+        <v>0.3567947586939657</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2244,31 +2259,31 @@
         <v>110</v>
       </c>
       <c r="D39">
-        <v>2.740000000000001</v>
+        <v>283</v>
       </c>
       <c r="E39">
-        <v>20.13</v>
+        <v>283</v>
       </c>
       <c r="F39">
-        <v>20.46</v>
+        <v>283.0000000000001</v>
       </c>
       <c r="G39">
-        <v>19.42365604795519</v>
+        <v>400</v>
       </c>
       <c r="H39">
-        <v>20.1541894024232</v>
+        <v>517</v>
       </c>
       <c r="I39">
-        <v>27.16898191408292</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>56.45802508980456</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>59.02792427520001</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>59.27804259839998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2282,31 +2297,31 @@
         <v>111</v>
       </c>
       <c r="D40">
-        <v>0.01655639999999993</v>
+        <v>2016.271</v>
       </c>
       <c r="E40">
-        <v>0.579922074</v>
+        <v>2052.35</v>
       </c>
       <c r="F40">
-        <v>1.327386722</v>
+        <v>2157.069</v>
       </c>
       <c r="G40">
-        <v>1.4038721208</v>
+        <v>2115.437892381151</v>
       </c>
       <c r="H40">
-        <v>1.395978187200001</v>
+        <v>2128.060431983476</v>
       </c>
       <c r="I40">
-        <v>0.7435726272000004</v>
+        <v>2157.132351215901</v>
       </c>
       <c r="J40">
-        <v>2.7556049976</v>
+        <v>2182.51533541839</v>
       </c>
       <c r="K40">
-        <v>2.99592</v>
+        <v>2321.433676944</v>
       </c>
       <c r="L40">
-        <v>2.99592</v>
+        <v>2397.1443912</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2320,31 +2335,31 @@
         <v>112</v>
       </c>
       <c r="D41">
-        <v>1.7034436</v>
+        <v>165.3812282601459</v>
       </c>
       <c r="E41">
-        <v>1.180077926</v>
+        <v>406.0593945077775</v>
       </c>
       <c r="F41">
-        <v>0.5226132780000002</v>
+        <v>518.9399588839048</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>631.4201690081751</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>734.3822307453855</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>846.9523423377772</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1017.045902655166</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1256.420533238042</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1390.263467492422</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2358,31 +2373,31 @@
         <v>113</v>
       </c>
       <c r="D42">
-        <v>550.0799999999999</v>
+        <v>164.23</v>
       </c>
       <c r="E42">
-        <v>983.0200000000001</v>
+        <v>361.68</v>
       </c>
       <c r="F42">
-        <v>1530.690000000001</v>
+        <v>583.6799999999999</v>
       </c>
       <c r="G42">
-        <v>2439.908325209025</v>
+        <v>1261.044569068977</v>
       </c>
       <c r="H42">
-        <v>3078.066753781754</v>
+        <v>2022.727665097562</v>
       </c>
       <c r="I42">
-        <v>3290.352990435884</v>
+        <v>2913.38042183824</v>
       </c>
       <c r="J42">
-        <v>3364.841673240101</v>
+        <v>3808.820870279999</v>
       </c>
       <c r="K42">
-        <v>3460.671837368401</v>
+        <v>4506.41309201073</v>
       </c>
       <c r="L42">
-        <v>3610.736886094618</v>
+        <v>4993.975584649704</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2396,31 +2411,31 @@
         <v>114</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>325.6737717398542</v>
       </c>
       <c r="E43">
-        <v>126.62</v>
+        <v>455.4226054922228</v>
       </c>
       <c r="F43">
-        <v>259.57</v>
+        <v>633.4290411160954</v>
       </c>
       <c r="G43">
-        <v>813.8432511072</v>
+        <v>709.6144999999999</v>
       </c>
       <c r="H43">
-        <v>1400.0936480384</v>
+        <v>1340.316333333333</v>
       </c>
       <c r="I43">
-        <v>1985.556845256</v>
+        <v>2345.508166666667</v>
       </c>
       <c r="J43">
-        <v>2337.004075876801</v>
+        <v>4336.450075937425</v>
       </c>
       <c r="K43">
-        <v>2398.519127078402</v>
+        <v>5385.92631166208</v>
       </c>
       <c r="L43">
-        <v>2398.519127078402</v>
+        <v>6394.407849938817</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2434,31 +2449,31 @@
         <v>115</v>
       </c>
       <c r="D44">
-        <v>281.869</v>
+        <v>2.74</v>
       </c>
       <c r="E44">
-        <v>305.4943238549999</v>
+        <v>20.13</v>
       </c>
       <c r="F44">
-        <v>456.966</v>
+        <v>20.46</v>
       </c>
       <c r="G44">
-        <v>456.966</v>
+        <v>19.3853502959423</v>
       </c>
       <c r="H44">
-        <v>456.966</v>
+        <v>19.81109623619148</v>
       </c>
       <c r="I44">
-        <v>456.966</v>
+        <v>27.06490257570038</v>
       </c>
       <c r="J44">
-        <v>456.966</v>
+        <v>57.29717537684284</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>59.02792427520001</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>59.27804259839998</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2469,34 +2484,34 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D45">
-        <v>45.454</v>
+        <v>0.01448684999999994</v>
       </c>
       <c r="E45">
-        <v>49.14117809999999</v>
+        <v>0.5864368860000001</v>
       </c>
       <c r="F45">
-        <v>31.521</v>
+        <v>1.2470434088</v>
       </c>
       <c r="G45">
-        <v>31.521</v>
+        <v>1.4044547088</v>
       </c>
       <c r="H45">
-        <v>31.521</v>
+        <v>1.3956364152</v>
       </c>
       <c r="I45">
-        <v>31.521</v>
+        <v>0.7618572000000003</v>
       </c>
       <c r="J45">
-        <v>31.521</v>
+        <v>2.7239224728</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>2.99592</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>3.185136000000001</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2507,25 +2522,25 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D46">
-        <v>573.5429999999999</v>
+        <v>1.705513150000001</v>
       </c>
       <c r="E46">
-        <v>622.4549225999999</v>
+        <v>1.173563114</v>
       </c>
       <c r="F46">
-        <v>397.7380000000001</v>
+        <v>0.6029565911999999</v>
       </c>
       <c r="G46">
-        <v>397.7380000000001</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>397.7380000000001</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>397.7380000000001</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2545,34 +2560,34 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D47">
-        <v>1121.453</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E47">
-        <v>1216.244157975</v>
+        <v>983.0199999999999</v>
       </c>
       <c r="F47">
-        <v>1166.519</v>
+        <v>1530.69</v>
       </c>
       <c r="G47">
-        <v>1166.519</v>
+        <v>2388.394317262298</v>
       </c>
       <c r="H47">
-        <v>1166.519</v>
+        <v>3026.540690391624</v>
       </c>
       <c r="I47">
-        <v>1166.519</v>
+        <v>3255.539501228443</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>3347.382711868258</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>3498.723932588206</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>3701.674607338765</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2583,34 +2598,34 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D48">
-        <v>513.146</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>556.9333518000001</v>
+        <v>126.62</v>
       </c>
       <c r="F48">
-        <v>533.7809999999999</v>
+        <v>259.5700000000001</v>
       </c>
       <c r="G48">
-        <v>533.7809999999999</v>
+        <v>816.3933908256</v>
       </c>
       <c r="H48">
-        <v>533.7809999999999</v>
+        <v>1385.486319888</v>
       </c>
       <c r="I48">
-        <v>533.7809999999999</v>
+        <v>1970.3535971472</v>
       </c>
       <c r="J48">
-        <v>105.2397240974229</v>
+        <v>2334.6292128912</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2398.627207257602</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>2430.430594694401</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2621,25 +2636,25 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D49">
-        <v>18141.907</v>
+        <v>281.869</v>
       </c>
       <c r="E49">
-        <v>17784.42636</v>
+        <v>305.4943238549999</v>
       </c>
       <c r="F49">
-        <v>18571.906</v>
+        <v>456.966</v>
       </c>
       <c r="G49">
-        <v>9285.953</v>
+        <v>456.966</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>456.966</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>456.966</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2659,25 +2674,25 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D50">
-        <v>8810.888999999999</v>
+        <v>45.45400000000001</v>
       </c>
       <c r="E50">
-        <v>9476.640240928249</v>
+        <v>49.14117809999999</v>
       </c>
       <c r="F50">
-        <v>6480.449</v>
+        <v>31.521</v>
       </c>
       <c r="G50">
-        <v>6480.449</v>
+        <v>31.521</v>
       </c>
       <c r="H50">
-        <v>6480.449</v>
+        <v>31.521</v>
       </c>
       <c r="I50">
-        <v>853.8193000604568</v>
+        <v>31.521</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2686,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>4728.226653048191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2697,25 +2712,25 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D51">
-        <v>7942.354</v>
+        <v>573.5430000000001</v>
       </c>
       <c r="E51">
-        <v>8599.706167500002</v>
+        <v>622.4549225999999</v>
       </c>
       <c r="F51">
-        <v>6448.197</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="G51">
-        <v>6448.197</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="H51">
-        <v>6448.197</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="I51">
-        <v>6448.197</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2724,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>6448.197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2735,25 +2750,25 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D52">
-        <v>5.683</v>
+        <v>1121.453</v>
       </c>
       <c r="E52">
-        <v>6.142647262499999</v>
+        <v>1216.244157975</v>
       </c>
       <c r="F52">
-        <v>3.941</v>
+        <v>1166.519</v>
       </c>
       <c r="G52">
-        <v>3.941</v>
+        <v>1166.519</v>
       </c>
       <c r="H52">
-        <v>3.941</v>
+        <v>1166.519</v>
       </c>
       <c r="I52">
-        <v>3.941</v>
+        <v>1166.519</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2773,25 +2788,25 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D53">
-        <v>7.582</v>
+        <v>513.146</v>
       </c>
       <c r="E53">
-        <v>8.23114733175</v>
+        <v>556.9333518000001</v>
       </c>
       <c r="F53">
-        <v>15.765</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="G53">
-        <v>15.765</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="H53">
-        <v>15.765</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2811,25 +2826,25 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D54">
-        <v>346.636</v>
+        <v>18141.907</v>
       </c>
       <c r="E54">
-        <v>375.5205026475</v>
+        <v>17784.42636</v>
       </c>
       <c r="F54">
-        <v>240.384</v>
+        <v>18571.906</v>
       </c>
       <c r="G54">
-        <v>240.384</v>
+        <v>9285.953</v>
       </c>
       <c r="H54">
-        <v>240.384</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>240.384</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2849,34 +2864,34 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D55">
-        <v>17983.926</v>
+        <v>8810.888999999999</v>
       </c>
       <c r="E55">
-        <v>19356.834</v>
+        <v>9476.640240928249</v>
       </c>
       <c r="F55">
-        <v>17799.56</v>
+        <v>6480.449</v>
       </c>
       <c r="G55">
-        <v>10740.52028571429</v>
+        <v>6480.449</v>
       </c>
       <c r="H55">
-        <v>6760.826142857142</v>
+        <v>6480.449</v>
       </c>
       <c r="I55">
-        <v>4342.656985740197</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>254.454310327467</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>5524.532524885278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2887,34 +2902,34 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D56">
-        <v>1649.5118</v>
+        <v>7942.354000000001</v>
       </c>
       <c r="E56">
-        <v>1801.2946</v>
+        <v>8599.706167500002</v>
       </c>
       <c r="F56">
-        <v>1420.868</v>
+        <v>6448.197</v>
       </c>
       <c r="G56">
-        <v>2099.649</v>
+        <v>6448.197</v>
       </c>
       <c r="H56">
-        <v>2778.43</v>
+        <v>6448.197</v>
       </c>
       <c r="I56">
-        <v>2778.430000000001</v>
+        <v>4268.331997137235</v>
       </c>
       <c r="J56">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2606.156526596835</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>2778.43</v>
+        <v>4002.983142424744</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2925,22 +2940,22 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D57">
-        <v>13312.3358</v>
+        <v>5.683</v>
       </c>
       <c r="E57">
-        <v>14460.199</v>
+        <v>6.142647262499999</v>
       </c>
       <c r="F57">
-        <v>13473.857</v>
+        <v>3.941</v>
       </c>
       <c r="G57">
-        <v>6791.875795</v>
+        <v>3.941</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3.941</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2963,34 +2978,34 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D58">
-        <v>25.25</v>
+        <v>7.582</v>
       </c>
       <c r="E58">
-        <v>27.57300000000001</v>
+        <v>8.23114733175</v>
       </c>
       <c r="F58">
-        <v>278.5463999999999</v>
+        <v>15.765</v>
       </c>
       <c r="G58">
-        <v>493.7867999999999</v>
+        <v>15.765</v>
       </c>
       <c r="H58">
-        <v>703.3999999999999</v>
+        <v>15.765</v>
       </c>
       <c r="I58">
-        <v>703.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>703.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>36.62799999999999</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>703.4000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3001,34 +3016,34 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>346.636</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>375.5205026475</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>240.384</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>240.384</v>
       </c>
       <c r="H59">
-        <v>386.87</v>
+        <v>240.384</v>
       </c>
       <c r="I59">
-        <v>466.0025</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>545.135</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>545.1350000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3039,34 +3054,34 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D60">
-        <v>8181.323999999998</v>
+        <v>17983.926</v>
       </c>
       <c r="E60">
-        <v>8584.531999999997</v>
+        <v>19356.834</v>
       </c>
       <c r="F60">
-        <v>7355.054999999999</v>
+        <v>17799.56</v>
       </c>
       <c r="G60">
-        <v>5780.219183571428</v>
+        <v>10740.52028571429</v>
       </c>
       <c r="H60">
-        <v>3867.913585714286</v>
+        <v>4981.661368421052</v>
       </c>
       <c r="I60">
-        <v>3901.827514285715</v>
+        <v>1504.724706688662</v>
       </c>
       <c r="J60">
-        <v>3935.741442857143</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>3342.521239970072</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>3935.741442857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3077,34 +3092,34 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D61">
-        <v>1573.6248</v>
+        <v>1649.5118</v>
       </c>
       <c r="E61">
-        <v>538.9857</v>
+        <v>1801.2946</v>
       </c>
       <c r="F61">
-        <v>1000.5732</v>
+        <v>1420.868</v>
       </c>
       <c r="G61">
-        <v>1020.7868</v>
+        <v>2099.648999999999</v>
       </c>
       <c r="H61">
-        <v>1020.7868</v>
+        <v>2778.43</v>
       </c>
       <c r="I61">
-        <v>1020.7868</v>
+        <v>2778.429999999999</v>
       </c>
       <c r="J61">
-        <v>1020.7868</v>
+        <v>2283.528</v>
       </c>
       <c r="K61">
-        <v>1020.7868</v>
+        <v>2283.527999999999</v>
       </c>
       <c r="L61">
-        <v>1020.7868</v>
+        <v>2778.43</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3115,34 +3130,34 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D62">
-        <v>1380.8817</v>
+        <v>13312.33579999999</v>
       </c>
       <c r="E62">
-        <v>911.5425</v>
+        <v>14460.19899999999</v>
       </c>
       <c r="F62">
-        <v>978.6645</v>
+        <v>13473.857</v>
       </c>
       <c r="G62">
-        <v>1177.93025</v>
+        <v>6791.875795000001</v>
       </c>
       <c r="H62">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3153,34 +3168,34 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D63">
-        <v>291.1194</v>
+        <v>25.25</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>27.573</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>278.5463999999999</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>493.7868</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>703.4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>703.3999999999997</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>36.628</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>36.628</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>703.3999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3191,34 +3206,34 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D64">
-        <v>211.6455</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>98.88119999999999</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>180.1701</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>183.8099</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>183.8099</v>
+        <v>386.8699999999998</v>
       </c>
       <c r="I64">
-        <v>183.8099</v>
+        <v>466.0024999999995</v>
       </c>
       <c r="J64">
-        <v>183.8099</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>183.8099</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>183.8099</v>
+        <v>703.4000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3229,34 +3244,34 @@
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>8181.323999999999</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>8584.531999999996</v>
       </c>
       <c r="F65">
-        <v>827.5509</v>
+        <v>7355.054999999999</v>
       </c>
       <c r="G65">
-        <v>1719.33955</v>
+        <v>5780.219183571429</v>
       </c>
       <c r="H65">
-        <v>2594.41</v>
+        <v>2850.041589473683</v>
       </c>
       <c r="I65">
-        <v>2594.41</v>
+        <v>1998.497019512195</v>
       </c>
       <c r="J65">
-        <v>2594.41</v>
+        <v>908.1933910779153</v>
       </c>
       <c r="K65">
-        <v>2594.41</v>
+        <v>400.3398510638298</v>
       </c>
       <c r="L65">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3267,34 +3282,34 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1573.6248</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>538.9857</v>
       </c>
       <c r="F66">
-        <v>562.4289</v>
+        <v>1000.5732</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>388.0938679047333</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1020.7868</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3305,34 +3320,34 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D67">
-        <v>616.5158730000002</v>
+        <v>1380.8817</v>
       </c>
       <c r="E67">
-        <v>609.5027680000001</v>
+        <v>911.5424999999999</v>
       </c>
       <c r="F67">
-        <v>88.207576</v>
+        <v>978.6645</v>
       </c>
       <c r="G67">
-        <v>88.207576</v>
+        <v>1177.93025</v>
       </c>
       <c r="H67">
-        <v>88.207576</v>
+        <v>1357.425</v>
       </c>
       <c r="I67">
-        <v>88.207576</v>
+        <v>1357.425</v>
       </c>
       <c r="J67">
-        <v>88.207576</v>
+        <v>1357.425</v>
       </c>
       <c r="K67">
-        <v>88.207576</v>
+        <v>1357.425</v>
       </c>
       <c r="L67">
-        <v>88.207576</v>
+        <v>1357.425</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3343,34 +3358,34 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D68">
-        <v>586.5879180000001</v>
+        <v>291.1194</v>
       </c>
       <c r="E68">
-        <v>827.1823280000001</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3381,34 +3396,34 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D69">
-        <v>23.942364</v>
+        <v>211.6455</v>
       </c>
       <c r="E69">
-        <v>37.31649600000001</v>
+        <v>98.88120000000001</v>
       </c>
       <c r="F69">
-        <v>76.70224</v>
+        <v>180.1701</v>
       </c>
       <c r="G69">
-        <v>76.70224</v>
+        <v>183.8099</v>
       </c>
       <c r="H69">
-        <v>76.70224</v>
+        <v>183.8099</v>
       </c>
       <c r="I69">
-        <v>76.70224</v>
+        <v>183.8099</v>
       </c>
       <c r="J69">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>76.70224</v>
+        <v>183.8099</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3419,34 +3434,34 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D70">
-        <v>161.610957</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>118.168904</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>99.712912</v>
+        <v>827.5509</v>
       </c>
       <c r="G70">
-        <v>99.712912</v>
+        <v>1719.33955</v>
       </c>
       <c r="H70">
-        <v>99.712912</v>
+        <v>2594.41</v>
       </c>
       <c r="I70">
-        <v>99.712912</v>
+        <v>2594.41</v>
       </c>
       <c r="J70">
-        <v>99.712912</v>
+        <v>2594.41</v>
       </c>
       <c r="K70">
-        <v>99.712912</v>
+        <v>2594.41</v>
       </c>
       <c r="L70">
-        <v>99.712912</v>
+        <v>2594.41</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3457,34 +3472,34 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D71">
-        <v>389.063415</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>310.9708000000001</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>3.835112</v>
+        <v>562.4289</v>
       </c>
       <c r="G71">
-        <v>3.835112</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>3.835112</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>3.835112</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>3.835112</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>3.835112</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>3.835112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3495,34 +3510,34 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D72">
-        <v>161.610957</v>
+        <v>616.5158729999999</v>
       </c>
       <c r="E72">
-        <v>18.658248</v>
+        <v>609.5027680000001</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>88.207576</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>88.207576</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>88.207576</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>88.207576</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>88.207576</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>88.207576</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>88.207576</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3533,34 +3548,34 @@
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D73">
-        <v>1316.83002</v>
+        <v>586.5879180000001</v>
       </c>
       <c r="E73">
-        <v>1430.46568</v>
+        <v>827.1823280000001</v>
       </c>
       <c r="F73">
-        <v>230.10672</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="G73">
-        <v>230.10672</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="H73">
-        <v>230.10672</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="I73">
-        <v>230.10672</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="J73">
-        <v>230.10672</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="K73">
-        <v>230.10672</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="L73">
-        <v>230.10672</v>
+        <v>579.1019119999999</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3571,34 +3586,34 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D74">
-        <v>1556.25366</v>
+        <v>23.942364</v>
       </c>
       <c r="E74">
-        <v>1952.896624</v>
+        <v>37.31649600000001</v>
       </c>
       <c r="F74">
-        <v>2105.476488</v>
+        <v>76.70224</v>
       </c>
       <c r="G74">
-        <v>1052.738244</v>
+        <v>76.70224</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>76.70224</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>76.70224</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>76.70224</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>76.70224</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3609,34 +3624,34 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D75">
-        <v>1173.175836</v>
+        <v>161.610957</v>
       </c>
       <c r="E75">
-        <v>914.254152</v>
+        <v>118.168904</v>
       </c>
       <c r="F75">
-        <v>651.9690400000001</v>
+        <v>99.712912</v>
       </c>
       <c r="G75">
-        <v>651.9690400000001</v>
+        <v>99.712912</v>
       </c>
       <c r="H75">
-        <v>651.9690400000001</v>
+        <v>99.712912</v>
       </c>
       <c r="I75">
-        <v>651.9690400000001</v>
+        <v>99.712912</v>
       </c>
       <c r="J75">
-        <v>651.9690400000001</v>
+        <v>99.712912</v>
       </c>
       <c r="K75">
-        <v>651.9690400000001</v>
+        <v>99.712912</v>
       </c>
       <c r="L75">
-        <v>651.9690400000001</v>
+        <v>99.712912</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3647,34 +3662,224 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D76">
+        <v>389.063415</v>
+      </c>
+      <c r="E76">
+        <v>310.9708000000001</v>
+      </c>
+      <c r="F76">
+        <v>3.835112</v>
+      </c>
+      <c r="G76">
+        <v>3.835112</v>
+      </c>
+      <c r="H76">
+        <v>3.835112</v>
+      </c>
+      <c r="I76">
+        <v>3.835112</v>
+      </c>
+      <c r="J76">
+        <v>3.835112</v>
+      </c>
+      <c r="K76">
+        <v>3.835112</v>
+      </c>
+      <c r="L76">
+        <v>3.835112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77">
+        <v>161.610957</v>
+      </c>
+      <c r="E77">
+        <v>18.658248</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78">
+        <v>1316.83002</v>
+      </c>
+      <c r="E78">
+        <v>1430.46568</v>
+      </c>
+      <c r="F78">
+        <v>230.10672</v>
+      </c>
+      <c r="G78">
+        <v>230.10672</v>
+      </c>
+      <c r="H78">
+        <v>230.10672</v>
+      </c>
+      <c r="I78">
+        <v>230.10672</v>
+      </c>
+      <c r="J78">
+        <v>230.10672</v>
+      </c>
+      <c r="K78">
+        <v>230.10672</v>
+      </c>
+      <c r="L78">
+        <v>230.10672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79">
+        <v>1556.25366</v>
+      </c>
+      <c r="E79">
+        <v>1952.896624</v>
+      </c>
+      <c r="F79">
+        <v>2105.476488</v>
+      </c>
+      <c r="G79">
+        <v>1052.738244</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80">
+        <v>1173.175836</v>
+      </c>
+      <c r="E80">
+        <v>914.254152</v>
+      </c>
+      <c r="F80">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="G80">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="H80">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="I80">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="J80">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="K80">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="L80">
+        <v>651.9690400000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81">
         <v>931.7900000000002</v>
       </c>
-      <c r="E76">
+      <c r="E81">
         <v>763.401</v>
       </c>
-      <c r="F76">
+      <c r="F81">
         <v>571.756</v>
       </c>
-      <c r="G76">
+      <c r="G81">
         <v>309.1526395555556</v>
       </c>
-      <c r="H76">
-        <v>192.1817235555555</v>
-      </c>
-      <c r="I76">
-        <v>192.1817235555555</v>
-      </c>
-      <c r="J76">
-        <v>192.1817235555555</v>
-      </c>
-      <c r="K76">
-        <v>192.1817235555555</v>
-      </c>
-      <c r="L76">
-        <v>192.1817235555555</v>
+      <c r="H81">
+        <v>150.403088</v>
+      </c>
+      <c r="I81">
+        <v>110.4022667234042</v>
+      </c>
+      <c r="J81">
+        <v>72.06814633333335</v>
+      </c>
+      <c r="K81">
+        <v>33.73333208163266</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
@@ -98,13 +98,13 @@
     <t>UPS_GRO_NGA_2</t>
   </si>
   <si>
+    <t>UPS_GRO_NGA_3</t>
+  </si>
+  <si>
     <t>UPS_LOC_BCO</t>
   </si>
   <si>
     <t>UPS_LOC_HCO</t>
-  </si>
-  <si>
-    <t>UPS_DIS_HCO</t>
   </si>
   <si>
     <t>UPS_NUC_LWR_UOX_EXS</t>
@@ -988,7 +988,7 @@
         <v>3003.157199999999</v>
       </c>
       <c r="K5">
-        <v>3579.914295325188</v>
+        <v>3690.991931432558</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.002999999991516233</v>
+        <v>0.002999999996973202</v>
       </c>
       <c r="G9">
-        <v>194.5056000000231</v>
+        <v>194.5056000000176</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1233,19 +1233,19 @@
         <v>94</v>
       </c>
       <c r="D12">
-        <v>11339.231</v>
+        <v>3335.857</v>
       </c>
       <c r="E12">
-        <v>2004.169</v>
+        <v>3335.857</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3335.857</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3295.446906634888</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>40.3820933651099</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1271,25 +1271,25 @@
         <v>94</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3558.246999999999</v>
       </c>
       <c r="E13">
-        <v>7309.945</v>
+        <v>3558.246999999999</v>
       </c>
       <c r="F13">
-        <v>7693.646</v>
+        <v>3023.472999999999</v>
       </c>
       <c r="G13">
-        <v>2787.609000000002</v>
+        <v>1627.320093365111</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3558.246999999999</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1891.488</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>574.1779066348895</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1309,25 +1309,25 @@
         <v>94</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2001.514</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2001.514</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1334.316</v>
       </c>
       <c r="G14">
-        <v>4136.671999999999</v>
+        <v>2001.514</v>
       </c>
       <c r="H14">
-        <v>6231.852999999999</v>
+        <v>2001.514</v>
       </c>
       <c r="I14">
-        <v>2974.875000000002</v>
+        <v>2001.514</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2001.514</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>94</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>735.285</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>418.4959999999996</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1359,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>631.7099066348902</v>
       </c>
       <c r="I15">
-        <v>2633.792999999998</v>
+        <v>735.285</v>
       </c>
       <c r="J15">
-        <v>5047.801000000001</v>
+        <v>735.285</v>
       </c>
       <c r="K15">
-        <v>3782.242917849391</v>
+        <v>735.285</v>
       </c>
       <c r="L15">
-        <v>1620.981541075305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1385,7 +1385,7 @@
         <v>94</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>980.3810000000001</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1400,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>980.3810000000001</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>980.3810000000001</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>980.3810000000001</v>
       </c>
       <c r="L16">
-        <v>2467.737458924695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1420,34 +1420,34 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17">
-        <v>3638.04</v>
+        <v>727.9470000000014</v>
       </c>
       <c r="E17">
-        <v>3443.583</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2430.211</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>2187.19</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1968.471</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1441.747620933477</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1210.575176740467</v>
+        <v>735.285</v>
       </c>
       <c r="K17">
-        <v>433.2637502840357</v>
+        <v>735.285</v>
       </c>
       <c r="L17">
-        <v>1291.514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1458,34 +1458,34 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18">
-        <v>3280.326</v>
+        <v>3638.04</v>
       </c>
       <c r="E18">
-        <v>2515.435</v>
+        <v>3443.583</v>
       </c>
       <c r="F18">
-        <v>1491.766</v>
+        <v>2430.211</v>
       </c>
       <c r="G18">
-        <v>1193.413</v>
+        <v>2187.19</v>
       </c>
       <c r="H18">
-        <v>954.7300000000001</v>
+        <v>1968.471</v>
       </c>
       <c r="I18">
-        <v>763.784</v>
+        <v>1391.155458135863</v>
       </c>
       <c r="J18">
-        <v>611.027</v>
+        <v>1170.608575263308</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>735.8386358639725</v>
       </c>
       <c r="L18">
-        <v>62.83459999999942</v>
+        <v>344.5309569399182</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1499,31 +1499,31 @@
         <v>96</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3280.326</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2515.435</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1491.766</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1193.413</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>954.7300000000001</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>763.784</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>611.027</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>328.2234000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1540,28 +1540,28 @@
         <v>10542.65590793705</v>
       </c>
       <c r="E20">
-        <v>9813.491920798784</v>
+        <v>9813.49192079869</v>
       </c>
       <c r="F20">
-        <v>8330.126451514547</v>
+        <v>8330.126451514663</v>
       </c>
       <c r="G20">
-        <v>8877.491745726904</v>
+        <v>8877.491745726877</v>
       </c>
       <c r="H20">
-        <v>8365.601310035534</v>
+        <v>8365.601310035538</v>
       </c>
       <c r="I20">
-        <v>7853.71087434422</v>
+        <v>7853.710874344221</v>
       </c>
       <c r="J20">
-        <v>7126.207756016251</v>
+        <v>7126.207756016246</v>
       </c>
       <c r="K20">
         <v>6673.549543797601</v>
       </c>
       <c r="L20">
-        <v>6220.891331578942</v>
+        <v>6220.891331578949</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1575,7 +1575,7 @@
         <v>98</v>
       </c>
       <c r="D21">
-        <v>467.8900000000004</v>
+        <v>467.8900000000003</v>
       </c>
       <c r="E21">
         <v>635.7240000000002</v>
@@ -1590,13 +1590,13 @@
         <v>555.4210000000002</v>
       </c>
       <c r="I21">
-        <v>490.1205766520289</v>
+        <v>527.6499999999996</v>
       </c>
       <c r="J21">
         <v>17.07828153299648</v>
       </c>
       <c r="K21">
-        <v>11.96844843141363</v>
+        <v>12.35479275377482</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>99</v>
       </c>
       <c r="D22">
-        <v>27.50755464648073</v>
+        <v>23.72335819619219</v>
       </c>
       <c r="E22">
-        <v>522</v>
+        <v>522.0000000000001</v>
       </c>
       <c r="F22">
         <v>670.3999999999999</v>
@@ -1625,19 +1625,19 @@
         <v>809.9000000000001</v>
       </c>
       <c r="H22">
-        <v>949.4000000000001</v>
+        <v>949.3999999999997</v>
       </c>
       <c r="I22">
-        <v>972.6000000001769</v>
+        <v>972.5999999999999</v>
       </c>
       <c r="J22">
         <v>995.8</v>
       </c>
       <c r="K22">
-        <v>1014.600000000001</v>
+        <v>1014.6</v>
       </c>
       <c r="L22">
-        <v>1033.400000000001</v>
+        <v>1033.4</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1654,10 +1654,10 @@
         <v>95.12905841918084</v>
       </c>
       <c r="E23">
-        <v>146.2483690290342</v>
+        <v>142.1030250145193</v>
       </c>
       <c r="F23">
-        <v>90.02558565786411</v>
+        <v>90.04118848439904</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.86378699734191</v>
       </c>
       <c r="J23">
-        <v>288.4999999999999</v>
+        <v>288.5</v>
       </c>
       <c r="K23">
-        <v>286.6499999999999</v>
+        <v>286.65</v>
       </c>
       <c r="L23">
         <v>284.8000000000001</v>
@@ -1695,25 +1695,25 @@
         <v>474.9</v>
       </c>
       <c r="F24">
-        <v>603.2</v>
+        <v>603.2000000000002</v>
       </c>
       <c r="G24">
-        <v>742.8500000000003</v>
+        <v>639.1423429891792</v>
       </c>
       <c r="H24">
-        <v>882.5000000000001</v>
+        <v>882.5</v>
       </c>
       <c r="I24">
-        <v>913.4999999999999</v>
+        <v>913.5</v>
       </c>
       <c r="J24">
-        <v>944.5000000000002</v>
+        <v>944.5</v>
       </c>
       <c r="K24">
-        <v>969.8000000000001</v>
+        <v>969.7999999999997</v>
       </c>
       <c r="L24">
-        <v>995.1</v>
+        <v>995.0999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>322.7600379837668</v>
+        <v>216.8278397577038</v>
       </c>
       <c r="F25">
         <v>1527.3</v>
@@ -1739,7 +1739,7 @@
         <v>1652.4</v>
       </c>
       <c r="H25">
-        <v>1777.500000000001</v>
+        <v>1777.5</v>
       </c>
       <c r="I25">
         <v>1751.8</v>
@@ -1751,7 +1751,7 @@
         <v>1696.9</v>
       </c>
       <c r="L25">
-        <v>1667.7</v>
+        <v>1667.700000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1847,7 +1847,7 @@
         <v>1127.1</v>
       </c>
       <c r="F28">
-        <v>863.6250357918311</v>
+        <v>852.4070013859127</v>
       </c>
       <c r="G28">
         <v>1132.5</v>
@@ -1879,10 +1879,10 @@
         <v>103</v>
       </c>
       <c r="D29">
-        <v>477.9550169343402</v>
+        <v>481.7392133846268</v>
       </c>
       <c r="E29">
-        <v>18.28422298720079</v>
+        <v>128.361765227778</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>943.9</v>
       </c>
       <c r="K32">
-        <v>923.1500000000001</v>
+        <v>923.15</v>
       </c>
       <c r="L32">
-        <v>902.4</v>
+        <v>902.4000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2031,31 +2031,31 @@
         <v>104</v>
       </c>
       <c r="D33">
-        <v>424.3000000000001</v>
+        <v>424.3</v>
       </c>
       <c r="E33">
-        <v>447.65</v>
+        <v>447.6500000000001</v>
       </c>
       <c r="F33">
-        <v>471</v>
+        <v>471.0000000000001</v>
       </c>
       <c r="G33">
         <v>518</v>
       </c>
       <c r="H33">
-        <v>565</v>
+        <v>564.9999999999998</v>
       </c>
       <c r="I33">
-        <v>610.1500000000002</v>
+        <v>610.1499999999999</v>
       </c>
       <c r="J33">
-        <v>655.3</v>
+        <v>655.3000000000001</v>
       </c>
       <c r="K33">
-        <v>707.0999999999999</v>
+        <v>707.1</v>
       </c>
       <c r="L33">
-        <v>758.9</v>
+        <v>758.8999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>31.35</v>
+        <v>31.34999999999999</v>
       </c>
       <c r="H34">
-        <v>34.9</v>
+        <v>34.89999999999999</v>
       </c>
       <c r="I34">
         <v>38.95</v>
@@ -2090,10 +2090,10 @@
         <v>42.99999999999999</v>
       </c>
       <c r="K34">
-        <v>48.3</v>
+        <v>48.29999999999999</v>
       </c>
       <c r="L34">
-        <v>53.60000000000002</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2113,7 +2113,7 @@
         <v>1237.1</v>
       </c>
       <c r="F35">
-        <v>935.6830085503052</v>
+        <v>946.885440129691</v>
       </c>
       <c r="G35">
         <v>1233.55</v>
@@ -2163,13 +2163,13 @@
         <v>65</v>
       </c>
       <c r="J36">
-        <v>56.39999999999999</v>
+        <v>56.4</v>
       </c>
       <c r="K36">
         <v>56.39999999999999</v>
       </c>
       <c r="L36">
-        <v>56.39999999999998</v>
+        <v>56.39999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2189,25 +2189,25 @@
         <v>270.0005</v>
       </c>
       <c r="F37">
-        <v>270.0005</v>
+        <v>270.0004999999998</v>
       </c>
       <c r="G37">
-        <v>369.499900000001</v>
+        <v>369.4998999999999</v>
       </c>
       <c r="H37">
-        <v>468.9992999999999</v>
+        <v>468.9993</v>
       </c>
       <c r="I37">
-        <v>555.4164000000025</v>
+        <v>555.4164</v>
       </c>
       <c r="J37">
-        <v>0.03849999999999999</v>
+        <v>0.0385</v>
       </c>
       <c r="K37">
         <v>0.03849999999999999</v>
       </c>
       <c r="L37">
-        <v>0.03849999999999999</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2230,13 +2230,13 @@
         <v>164.99987</v>
       </c>
       <c r="G38">
-        <v>166.6424564965331</v>
+        <v>98.51855701081904</v>
       </c>
       <c r="H38">
-        <v>104.569288202864</v>
+        <v>102.3462088285153</v>
       </c>
       <c r="I38">
-        <v>18.50742396442822</v>
+        <v>15.99792916944951</v>
       </c>
       <c r="J38">
         <v>0.0251</v>
@@ -2245,7 +2245,7 @@
         <v>0.0251</v>
       </c>
       <c r="L38">
-        <v>0.3567947586939657</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2262,16 +2262,16 @@
         <v>283</v>
       </c>
       <c r="E39">
-        <v>283</v>
+        <v>283.0000000000001</v>
       </c>
       <c r="F39">
         <v>283.0000000000001</v>
       </c>
       <c r="G39">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -2306,16 +2306,16 @@
         <v>2157.069</v>
       </c>
       <c r="G40">
-        <v>2115.437892381151</v>
+        <v>2117.964074939888</v>
       </c>
       <c r="H40">
-        <v>2128.060431983476</v>
+        <v>2131.26298232414</v>
       </c>
       <c r="I40">
-        <v>2157.132351215901</v>
+        <v>2159.5767046698</v>
       </c>
       <c r="J40">
-        <v>2182.51533541839</v>
+        <v>2181.695483642782</v>
       </c>
       <c r="K40">
         <v>2321.433676944</v>
@@ -2335,31 +2335,31 @@
         <v>112</v>
       </c>
       <c r="D41">
-        <v>165.3812282601459</v>
+        <v>165.3812282601465</v>
       </c>
       <c r="E41">
-        <v>406.0593945077775</v>
+        <v>406.0574023031527</v>
       </c>
       <c r="F41">
-        <v>518.9399588839048</v>
+        <v>520.3569336728227</v>
       </c>
       <c r="G41">
-        <v>631.4201690081751</v>
+        <v>631.0643276967709</v>
       </c>
       <c r="H41">
-        <v>734.3822307453855</v>
+        <v>734.3671948823757</v>
       </c>
       <c r="I41">
-        <v>846.9523423377772</v>
+        <v>846.9470678543391</v>
       </c>
       <c r="J41">
-        <v>1017.045902655166</v>
+        <v>1013.680624484109</v>
       </c>
       <c r="K41">
-        <v>1256.420533238042</v>
+        <v>1280.074016803464</v>
       </c>
       <c r="L41">
-        <v>1390.263467492422</v>
+        <v>1428.906254095912</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2373,31 +2373,31 @@
         <v>113</v>
       </c>
       <c r="D42">
-        <v>164.23</v>
+        <v>164.2299999999998</v>
       </c>
       <c r="E42">
         <v>361.68</v>
       </c>
       <c r="F42">
-        <v>583.6799999999999</v>
+        <v>583.6799999999998</v>
       </c>
       <c r="G42">
-        <v>1261.044569068977</v>
+        <v>1262.690515951278</v>
       </c>
       <c r="H42">
-        <v>2022.727665097562</v>
+        <v>2009.062340316602</v>
       </c>
       <c r="I42">
-        <v>2913.38042183824</v>
+        <v>2926.116373915661</v>
       </c>
       <c r="J42">
-        <v>3808.820870279999</v>
+        <v>3791.261872061135</v>
       </c>
       <c r="K42">
-        <v>4506.41309201073</v>
+        <v>4500.68516287858</v>
       </c>
       <c r="L42">
-        <v>4993.975584649704</v>
+        <v>4994.262854140808</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2411,31 +2411,31 @@
         <v>114</v>
       </c>
       <c r="D43">
-        <v>325.6737717398542</v>
+        <v>325.6737717398537</v>
       </c>
       <c r="E43">
-        <v>455.4226054922228</v>
+        <v>455.4245976968472</v>
       </c>
       <c r="F43">
-        <v>633.4290411160954</v>
+        <v>632.0120663271774</v>
       </c>
       <c r="G43">
-        <v>709.6144999999999</v>
+        <v>709.6145</v>
       </c>
       <c r="H43">
-        <v>1340.316333333333</v>
+        <v>1340.316333333334</v>
       </c>
       <c r="I43">
-        <v>2345.508166666667</v>
+        <v>2345.834889890432</v>
       </c>
       <c r="J43">
-        <v>4336.450075937425</v>
+        <v>4334.501440630464</v>
       </c>
       <c r="K43">
-        <v>5385.92631166208</v>
+        <v>5507.741991467523</v>
       </c>
       <c r="L43">
-        <v>6394.407849938817</v>
+        <v>6513.265569925045</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2449,7 +2449,7 @@
         <v>115</v>
       </c>
       <c r="D44">
-        <v>2.74</v>
+        <v>2.740000000000001</v>
       </c>
       <c r="E44">
         <v>20.13</v>
@@ -2458,22 +2458,22 @@
         <v>20.46</v>
       </c>
       <c r="G44">
-        <v>19.3853502959423</v>
+        <v>19.19109834887625</v>
       </c>
       <c r="H44">
-        <v>19.81109623619148</v>
+        <v>19.6482372031466</v>
       </c>
       <c r="I44">
-        <v>27.06490257570038</v>
+        <v>27.09091627970468</v>
       </c>
       <c r="J44">
-        <v>57.29717537684284</v>
+        <v>56.94308801655114</v>
       </c>
       <c r="K44">
-        <v>59.02792427520001</v>
+        <v>59.02792427519999</v>
       </c>
       <c r="L44">
-        <v>59.27804259839998</v>
+        <v>59.27804259839999</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2487,25 +2487,25 @@
         <v>116</v>
       </c>
       <c r="D45">
-        <v>0.01448684999999994</v>
+        <v>0.01655639999999993</v>
       </c>
       <c r="E45">
-        <v>0.5864368860000001</v>
+        <v>0.5843673359999999</v>
       </c>
       <c r="F45">
-        <v>1.2470434088</v>
+        <v>1.250992386</v>
       </c>
       <c r="G45">
-        <v>1.4044547088</v>
+        <v>1.4298948</v>
       </c>
       <c r="H45">
-        <v>1.3956364152</v>
+        <v>1.4133384</v>
       </c>
       <c r="I45">
         <v>0.7618572000000003</v>
       </c>
       <c r="J45">
-        <v>2.7239224728</v>
+        <v>2.747922472800001</v>
       </c>
       <c r="K45">
         <v>2.99592</v>
@@ -2525,13 +2525,13 @@
         <v>117</v>
       </c>
       <c r="D46">
-        <v>1.705513150000001</v>
+        <v>1.7034436</v>
       </c>
       <c r="E46">
-        <v>1.173563114</v>
+        <v>1.175632664</v>
       </c>
       <c r="F46">
-        <v>0.6029565911999999</v>
+        <v>0.599007614</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2563,31 +2563,31 @@
         <v>118</v>
       </c>
       <c r="D47">
-        <v>550.0799999999999</v>
+        <v>550.0800000000002</v>
       </c>
       <c r="E47">
-        <v>983.0199999999999</v>
+        <v>983.0200000000001</v>
       </c>
       <c r="F47">
         <v>1530.69</v>
       </c>
       <c r="G47">
-        <v>2388.394317262298</v>
+        <v>2400.953329046684</v>
       </c>
       <c r="H47">
-        <v>3026.540690391624</v>
+        <v>3017.462326280019</v>
       </c>
       <c r="I47">
-        <v>3255.539501228443</v>
+        <v>3245.907083853065</v>
       </c>
       <c r="J47">
-        <v>3347.382711868258</v>
+        <v>3369.326731654684</v>
       </c>
       <c r="K47">
-        <v>3498.723932588206</v>
+        <v>3492.509372841551</v>
       </c>
       <c r="L47">
-        <v>3701.674607338765</v>
+        <v>3684.321131088465</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2610,22 +2610,22 @@
         <v>259.5700000000001</v>
       </c>
       <c r="G48">
-        <v>816.3933908256</v>
+        <v>811.6686105408</v>
       </c>
       <c r="H48">
-        <v>1385.486319888</v>
+        <v>1389.186123408</v>
       </c>
       <c r="I48">
-        <v>1970.3535971472</v>
+        <v>1974.258218696</v>
       </c>
       <c r="J48">
-        <v>2334.6292128912</v>
+        <v>2330.5437367056</v>
       </c>
       <c r="K48">
-        <v>2398.627207257602</v>
+        <v>2398.519127078401</v>
       </c>
       <c r="L48">
-        <v>2430.430594694401</v>
+        <v>2435.2739377248</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2648,13 +2648,13 @@
         <v>456.966</v>
       </c>
       <c r="G49">
-        <v>456.966</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="H49">
-        <v>456.966</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="I49">
-        <v>456.966</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2686,13 +2686,13 @@
         <v>31.521</v>
       </c>
       <c r="G50">
-        <v>31.521</v>
+        <v>68.63</v>
       </c>
       <c r="H50">
-        <v>31.521</v>
+        <v>68.63</v>
       </c>
       <c r="I50">
-        <v>31.521</v>
+        <v>68.63</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>120</v>
       </c>
       <c r="D51">
-        <v>573.5430000000001</v>
+        <v>573.5429999999999</v>
       </c>
       <c r="E51">
         <v>622.4549225999999</v>
@@ -2724,13 +2724,13 @@
         <v>397.7380000000001</v>
       </c>
       <c r="G51">
-        <v>397.7380000000001</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="H51">
-        <v>397.7380000000001</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="I51">
-        <v>397.7380000000001</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2762,13 +2762,13 @@
         <v>1166.519</v>
       </c>
       <c r="G52">
-        <v>1166.519</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="H52">
-        <v>1166.519</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="I52">
-        <v>1166.519</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>2506.514514618455</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2791,7 +2791,7 @@
         <v>120</v>
       </c>
       <c r="D53">
-        <v>513.146</v>
+        <v>513.1460000000001</v>
       </c>
       <c r="E53">
         <v>556.9333518000001</v>
@@ -2800,13 +2800,13 @@
         <v>533.7809999999999</v>
       </c>
       <c r="G53">
-        <v>533.7809999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="H53">
-        <v>533.7809999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="I53">
-        <v>533.7809999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>18571.906</v>
       </c>
       <c r="G54">
-        <v>9285.953</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2876,10 +2876,10 @@
         <v>6480.449</v>
       </c>
       <c r="G55">
-        <v>6480.449</v>
+        <v>10438.79688738431</v>
       </c>
       <c r="H55">
-        <v>6480.449</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2914,13 +2914,13 @@
         <v>6448.197</v>
       </c>
       <c r="G56">
-        <v>6448.197</v>
+        <v>14039.533</v>
       </c>
       <c r="H56">
-        <v>6448.197</v>
+        <v>11869.16703340687</v>
       </c>
       <c r="I56">
-        <v>4268.331997137235</v>
+        <v>1798.867220465927</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>4002.983142424744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2952,10 +2952,10 @@
         <v>3.941</v>
       </c>
       <c r="G57">
-        <v>3.941</v>
+        <v>8.581000000000001</v>
       </c>
       <c r="H57">
-        <v>3.941</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>15.765</v>
       </c>
       <c r="G58">
-        <v>15.765</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>15.765</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         <v>240.384</v>
       </c>
       <c r="G59">
-        <v>240.384</v>
+        <v>523.383</v>
       </c>
       <c r="H59">
-        <v>240.384</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3066,13 +3066,13 @@
         <v>17799.56</v>
       </c>
       <c r="G60">
-        <v>10740.52028571429</v>
+        <v>13132.23595173613</v>
       </c>
       <c r="H60">
-        <v>4981.661368421052</v>
+        <v>5526.554852654799</v>
       </c>
       <c r="I60">
-        <v>1504.724706688662</v>
+        <v>1631.075975224228</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3104,22 +3104,22 @@
         <v>1420.868</v>
       </c>
       <c r="G61">
-        <v>2099.648999999999</v>
+        <v>2099.649</v>
       </c>
       <c r="H61">
         <v>2778.43</v>
       </c>
       <c r="I61">
-        <v>2778.429999999999</v>
+        <v>2778.43</v>
       </c>
       <c r="J61">
         <v>2283.528</v>
       </c>
       <c r="K61">
-        <v>2283.527999999999</v>
+        <v>2283.528</v>
       </c>
       <c r="L61">
-        <v>2778.43</v>
+        <v>2658.398496633597</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3133,7 +3133,7 @@
         <v>122</v>
       </c>
       <c r="D62">
-        <v>13312.33579999999</v>
+        <v>13312.3358</v>
       </c>
       <c r="E62">
         <v>14460.19899999999</v>
@@ -3142,7 +3142,7 @@
         <v>13473.857</v>
       </c>
       <c r="G62">
-        <v>6791.875795000001</v>
+        <v>3833.038815</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3180,22 +3180,22 @@
         <v>278.5463999999999</v>
       </c>
       <c r="G63">
-        <v>493.7868</v>
+        <v>493.7867999999999</v>
       </c>
       <c r="H63">
+        <v>703.3999999999997</v>
+      </c>
+      <c r="I63">
         <v>703.4</v>
       </c>
-      <c r="I63">
-        <v>703.3999999999997</v>
-      </c>
       <c r="J63">
-        <v>36.628</v>
+        <v>36.62799999999998</v>
       </c>
       <c r="K63">
-        <v>36.628</v>
+        <v>36.62799999999996</v>
       </c>
       <c r="L63">
-        <v>703.3999999999999</v>
+        <v>632.2510899999999</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3221,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>386.8699999999998</v>
+        <v>386.8699999999999</v>
       </c>
       <c r="I64">
-        <v>466.0024999999995</v>
+        <v>466.0024999999994</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>703.4000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3247,16 +3247,16 @@
         <v>123</v>
       </c>
       <c r="D65">
-        <v>8181.323999999999</v>
+        <v>8181.323999999998</v>
       </c>
       <c r="E65">
-        <v>8584.531999999996</v>
+        <v>8584.531999999999</v>
       </c>
       <c r="F65">
         <v>7355.054999999999</v>
       </c>
       <c r="G65">
-        <v>5780.219183571429</v>
+        <v>4512.146192142856</v>
       </c>
       <c r="H65">
         <v>2850.041589473683</v>
@@ -3265,10 +3265,10 @@
         <v>1998.497019512195</v>
       </c>
       <c r="J65">
-        <v>908.1933910779153</v>
+        <v>855.2714999999998</v>
       </c>
       <c r="K65">
-        <v>400.3398510638298</v>
+        <v>400.3398510638297</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>1020.7868</v>
       </c>
       <c r="J66">
-        <v>388.0938679047333</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>1380.8817</v>
       </c>
       <c r="E67">
-        <v>911.5424999999999</v>
+        <v>911.5425</v>
       </c>
       <c r="F67">
-        <v>978.6645</v>
+        <v>978.6645000000001</v>
       </c>
       <c r="G67">
         <v>1177.93025</v>
@@ -3513,7 +3513,7 @@
         <v>125</v>
       </c>
       <c r="D72">
-        <v>616.5158729999999</v>
+        <v>616.5158730000002</v>
       </c>
       <c r="E72">
         <v>609.5027680000001</v>
@@ -3610,7 +3610,7 @@
         <v>76.70224</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>76.70224</v>
       </c>
       <c r="L74">
         <v>76.70224</v>
@@ -3788,7 +3788,7 @@
         <v>2105.476488</v>
       </c>
       <c r="G79">
-        <v>1052.738244</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>571.756</v>
       </c>
       <c r="G81">
-        <v>309.1526395555556</v>
+        <v>192.1817235555555</v>
       </c>
       <c r="H81">
         <v>150.403088</v>
@@ -3876,7 +3876,7 @@
         <v>72.06814633333335</v>
       </c>
       <c r="K81">
-        <v>33.73333208163266</v>
+        <v>35.29868391836735</v>
       </c>
       <c r="L81">
         <v>0</v>

--- a/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3003.157199999999</v>
+        <v>2772.237396664884</v>
       </c>
       <c r="K5">
-        <v>3690.991931432558</v>
+        <v>3495.002032033671</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.002999999996973202</v>
+        <v>0.002999999997882697</v>
       </c>
       <c r="G9">
-        <v>194.5056000000176</v>
+        <v>194.5056000000021</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1242,10 +1242,10 @@
         <v>3335.857</v>
       </c>
       <c r="G12">
-        <v>3295.446906634888</v>
+        <v>3106.526361903447</v>
       </c>
       <c r="H12">
-        <v>40.3820933651099</v>
+        <v>229.3026380965508</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>3023.472999999999</v>
       </c>
       <c r="G13">
-        <v>1627.320093365111</v>
+        <v>1816.240638096552</v>
       </c>
       <c r="H13">
         <v>3558.246999999999</v>
@@ -1289,7 +1289,7 @@
         <v>1891.488</v>
       </c>
       <c r="J13">
-        <v>574.1779066348895</v>
+        <v>385.2573619034488</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>631.7099066348902</v>
+        <v>442.7893619034492</v>
       </c>
       <c r="I15">
         <v>735.285</v>
@@ -1476,16 +1476,16 @@
         <v>1968.471</v>
       </c>
       <c r="I18">
-        <v>1391.155458135863</v>
+        <v>1300.803101502453</v>
       </c>
       <c r="J18">
-        <v>1170.608575263308</v>
+        <v>1198.480144735196</v>
       </c>
       <c r="K18">
-        <v>735.8386358639725</v>
+        <v>394.3357277110096</v>
       </c>
       <c r="L18">
-        <v>344.5309569399182</v>
+        <v>346.1032977152996</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1537,28 +1537,28 @@
         <v>97</v>
       </c>
       <c r="D20">
-        <v>10542.65590793705</v>
+        <v>10573.37281062786</v>
       </c>
       <c r="E20">
-        <v>9813.49192079869</v>
+        <v>9813.491920798784</v>
       </c>
       <c r="F20">
-        <v>8330.126451514663</v>
+        <v>8330.126451514641</v>
       </c>
       <c r="G20">
-        <v>8877.491745726877</v>
+        <v>8877.49174572686</v>
       </c>
       <c r="H20">
-        <v>8365.601310035538</v>
+        <v>8365.601310035541</v>
       </c>
       <c r="I20">
-        <v>7853.710874344221</v>
+        <v>7853.71087434422</v>
       </c>
       <c r="J20">
         <v>7126.207756016246</v>
       </c>
       <c r="K20">
-        <v>6673.549543797601</v>
+        <v>6673.549543797599</v>
       </c>
       <c r="L20">
         <v>6220.891331578949</v>
@@ -1575,7 +1575,7 @@
         <v>98</v>
       </c>
       <c r="D21">
-        <v>467.8900000000003</v>
+        <v>467.8900000000004</v>
       </c>
       <c r="E21">
         <v>635.7240000000002</v>
@@ -1590,13 +1590,13 @@
         <v>555.4210000000002</v>
       </c>
       <c r="I21">
-        <v>527.6499999999996</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>17.07828153299648</v>
+        <v>16.27510747906919</v>
       </c>
       <c r="K21">
-        <v>12.35479275377482</v>
+        <v>11.67210208608054</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1613,25 +1613,25 @@
         <v>99</v>
       </c>
       <c r="D22">
-        <v>23.72335819619219</v>
+        <v>373.6</v>
       </c>
       <c r="E22">
-        <v>522.0000000000001</v>
+        <v>521.9999999999999</v>
       </c>
       <c r="F22">
         <v>670.3999999999999</v>
       </c>
       <c r="G22">
-        <v>809.9000000000001</v>
+        <v>809.8999999999999</v>
       </c>
       <c r="H22">
-        <v>949.3999999999997</v>
+        <v>949.3999999999996</v>
       </c>
       <c r="I22">
-        <v>972.5999999999999</v>
+        <v>972.6000000000004</v>
       </c>
       <c r="J22">
-        <v>995.8</v>
+        <v>995.8000000000001</v>
       </c>
       <c r="K22">
         <v>1014.6</v>
@@ -1651,13 +1651,13 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>95.12905841918084</v>
+        <v>110.96307332494</v>
       </c>
       <c r="E23">
-        <v>142.1030250145193</v>
+        <v>138.2166017570551</v>
       </c>
       <c r="F23">
-        <v>90.04118848439904</v>
+        <v>198.6000000000001</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.86378699734191</v>
+        <v>288.3000000000001</v>
       </c>
       <c r="J23">
-        <v>288.5</v>
+        <v>288.4999999999999</v>
       </c>
       <c r="K23">
         <v>286.65</v>
       </c>
       <c r="L23">
-        <v>284.8000000000001</v>
+        <v>284.8</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1689,31 +1689,31 @@
         <v>101</v>
       </c>
       <c r="D24">
-        <v>346.6</v>
+        <v>346.6000000000001</v>
       </c>
       <c r="E24">
         <v>474.9</v>
       </c>
       <c r="F24">
-        <v>603.2000000000002</v>
+        <v>603.2</v>
       </c>
       <c r="G24">
-        <v>639.1423429891792</v>
+        <v>742.8499999999999</v>
       </c>
       <c r="H24">
         <v>882.5</v>
       </c>
       <c r="I24">
-        <v>913.5</v>
+        <v>913.5000000000001</v>
       </c>
       <c r="J24">
         <v>944.5</v>
       </c>
       <c r="K24">
-        <v>969.7999999999997</v>
+        <v>969.8000000000004</v>
       </c>
       <c r="L24">
-        <v>995.0999999999999</v>
+        <v>995.1000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>216.8278397577038</v>
+        <v>272.7276093977164</v>
       </c>
       <c r="F25">
         <v>1527.3</v>
@@ -1751,7 +1751,7 @@
         <v>1696.9</v>
       </c>
       <c r="L25">
-        <v>1667.700000000001</v>
+        <v>1667.7</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1812,7 +1812,7 @@
         <v>91.3</v>
       </c>
       <c r="G27">
-        <v>93.94999999999999</v>
+        <v>93.95</v>
       </c>
       <c r="H27">
         <v>96.59999999999999</v>
@@ -1847,7 +1847,7 @@
         <v>1127.1</v>
       </c>
       <c r="F28">
-        <v>852.4070013859127</v>
+        <v>668.3862529495993</v>
       </c>
       <c r="G28">
         <v>1132.5</v>
@@ -1879,10 +1879,10 @@
         <v>103</v>
       </c>
       <c r="D29">
-        <v>481.7392133846268</v>
+        <v>116.0285566750598</v>
       </c>
       <c r="E29">
-        <v>128.361765227778</v>
+        <v>76.34841884522939</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         <v>955.45</v>
       </c>
       <c r="F32">
-        <v>933.5999999999999</v>
+        <v>933.6</v>
       </c>
       <c r="G32">
-        <v>940.25</v>
+        <v>940.2499999999999</v>
       </c>
       <c r="H32">
         <v>946.8999999999999</v>
       </c>
       <c r="I32">
-        <v>945.4</v>
+        <v>945.3999999999996</v>
       </c>
       <c r="J32">
         <v>943.9</v>
@@ -2031,31 +2031,31 @@
         <v>104</v>
       </c>
       <c r="D33">
-        <v>424.3</v>
+        <v>424.3000000000001</v>
       </c>
       <c r="E33">
-        <v>447.6500000000001</v>
+        <v>447.65</v>
       </c>
       <c r="F33">
-        <v>471.0000000000001</v>
+        <v>471</v>
       </c>
       <c r="G33">
         <v>518</v>
       </c>
       <c r="H33">
-        <v>564.9999999999998</v>
+        <v>565</v>
       </c>
       <c r="I33">
-        <v>610.1499999999999</v>
+        <v>610.15</v>
       </c>
       <c r="J33">
-        <v>655.3000000000001</v>
+        <v>655.2999999999998</v>
       </c>
       <c r="K33">
-        <v>707.1</v>
+        <v>707.0999999999999</v>
       </c>
       <c r="L33">
-        <v>758.8999999999997</v>
+        <v>758.8999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2078,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>31.34999999999999</v>
+        <v>31.35</v>
       </c>
       <c r="H34">
-        <v>34.89999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="I34">
         <v>38.95</v>
       </c>
       <c r="J34">
-        <v>42.99999999999999</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>48.29999999999999</v>
+        <v>48.3</v>
       </c>
       <c r="L34">
         <v>53.6</v>
@@ -2113,7 +2113,7 @@
         <v>1237.1</v>
       </c>
       <c r="F35">
-        <v>946.885440129691</v>
+        <v>1022.347377050401</v>
       </c>
       <c r="G35">
         <v>1233.55</v>
@@ -2154,19 +2154,19 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>71.40000000000001</v>
+        <v>71.40000000000002</v>
       </c>
       <c r="H36">
         <v>73.59999999999999</v>
       </c>
       <c r="I36">
-        <v>65</v>
+        <v>65.00000000000001</v>
       </c>
       <c r="J36">
         <v>56.4</v>
       </c>
       <c r="K36">
-        <v>56.39999999999999</v>
+        <v>56.39999999999998</v>
       </c>
       <c r="L36">
         <v>56.39999999999999</v>
@@ -2189,25 +2189,25 @@
         <v>270.0005</v>
       </c>
       <c r="F37">
-        <v>270.0004999999998</v>
+        <v>270.0005</v>
       </c>
       <c r="G37">
-        <v>369.4998999999999</v>
+        <v>202.8997751480056</v>
       </c>
       <c r="H37">
-        <v>468.9993</v>
+        <v>468.999299999997</v>
       </c>
       <c r="I37">
-        <v>555.4164</v>
+        <v>0.03849999999925556</v>
       </c>
       <c r="J37">
         <v>0.0385</v>
       </c>
       <c r="K37">
+        <v>0.0385</v>
+      </c>
+      <c r="L37">
         <v>0.03849999999999999</v>
-      </c>
-      <c r="L37">
-        <v>0.0385</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2230,13 +2230,13 @@
         <v>164.99987</v>
       </c>
       <c r="G38">
-        <v>98.51855701081904</v>
+        <v>161.4110248519913</v>
       </c>
       <c r="H38">
-        <v>102.3462088285153</v>
+        <v>51.06128713508157</v>
       </c>
       <c r="I38">
-        <v>15.99792916944951</v>
+        <v>46.74522442266372</v>
       </c>
       <c r="J38">
         <v>0.0251</v>
@@ -2262,10 +2262,10 @@
         <v>283</v>
       </c>
       <c r="E39">
-        <v>283.0000000000001</v>
+        <v>283</v>
       </c>
       <c r="F39">
-        <v>283.0000000000001</v>
+        <v>283</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2306,22 +2306,22 @@
         <v>2157.069</v>
       </c>
       <c r="G40">
-        <v>2117.964074939888</v>
+        <v>2273.395691447231</v>
       </c>
       <c r="H40">
-        <v>2131.26298232414</v>
+        <v>2323.176350186845</v>
       </c>
       <c r="I40">
-        <v>2159.5767046698</v>
+        <v>2390.119196497897</v>
       </c>
       <c r="J40">
-        <v>2181.695483642782</v>
+        <v>2470.436355501527</v>
       </c>
       <c r="K40">
-        <v>2321.433676944</v>
+        <v>2557.089759884338</v>
       </c>
       <c r="L40">
-        <v>2397.1443912</v>
+        <v>2708.536957775339</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2335,31 +2335,31 @@
         <v>112</v>
       </c>
       <c r="D41">
-        <v>165.3812282601465</v>
+        <v>166.0537997527061</v>
       </c>
       <c r="E41">
-        <v>406.0574023031527</v>
+        <v>396.1279751793557</v>
       </c>
       <c r="F41">
-        <v>520.3569336728227</v>
+        <v>520.3857758013409</v>
       </c>
       <c r="G41">
-        <v>631.0643276967709</v>
+        <v>630.3037656833579</v>
       </c>
       <c r="H41">
-        <v>734.3671948823757</v>
+        <v>736.2677765340173</v>
       </c>
       <c r="I41">
-        <v>846.9470678543391</v>
+        <v>857.3430349814155</v>
       </c>
       <c r="J41">
-        <v>1013.680624484109</v>
+        <v>1023.631040539374</v>
       </c>
       <c r="K41">
-        <v>1280.074016803464</v>
+        <v>1267.548074091485</v>
       </c>
       <c r="L41">
-        <v>1428.906254095912</v>
+        <v>1427.457391435527</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2373,31 +2373,31 @@
         <v>113</v>
       </c>
       <c r="D42">
-        <v>164.2299999999998</v>
+        <v>164.23</v>
       </c>
       <c r="E42">
-        <v>361.68</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F42">
         <v>583.6799999999998</v>
       </c>
       <c r="G42">
-        <v>1262.690515951278</v>
+        <v>1187.98602997674</v>
       </c>
       <c r="H42">
-        <v>2009.062340316602</v>
+        <v>1894.015241261687</v>
       </c>
       <c r="I42">
-        <v>2926.116373915661</v>
+        <v>2741.899210747633</v>
       </c>
       <c r="J42">
-        <v>3791.261872061135</v>
+        <v>3635.688880143752</v>
       </c>
       <c r="K42">
-        <v>4500.68516287858</v>
+        <v>4522.191697904803</v>
       </c>
       <c r="L42">
-        <v>4994.262854140808</v>
+        <v>5158.046184530204</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2411,31 +2411,31 @@
         <v>114</v>
       </c>
       <c r="D43">
-        <v>325.6737717398537</v>
+        <v>325.0012002472943</v>
       </c>
       <c r="E43">
-        <v>455.4245976968472</v>
+        <v>465.3540248206446</v>
       </c>
       <c r="F43">
-        <v>632.0120663271774</v>
+        <v>631.9832241986604</v>
       </c>
       <c r="G43">
-        <v>709.6145</v>
+        <v>818.7252309609955</v>
       </c>
       <c r="H43">
-        <v>1340.316333333334</v>
+        <v>1449.427064294329</v>
       </c>
       <c r="I43">
-        <v>2345.834889890432</v>
+        <v>2386.546001547121</v>
       </c>
       <c r="J43">
-        <v>4334.501440630464</v>
+        <v>4394.286666278605</v>
       </c>
       <c r="K43">
-        <v>5507.741991467523</v>
+        <v>5535.86488906396</v>
       </c>
       <c r="L43">
-        <v>6513.265569925045</v>
+        <v>6521.922795640871</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2449,28 +2449,28 @@
         <v>115</v>
       </c>
       <c r="D44">
-        <v>2.740000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="E44">
         <v>20.13</v>
       </c>
       <c r="F44">
-        <v>20.46</v>
+        <v>20.45999999999867</v>
       </c>
       <c r="G44">
-        <v>19.19109834887625</v>
+        <v>17.5512894533074</v>
       </c>
       <c r="H44">
-        <v>19.6482372031466</v>
+        <v>18.31493590894711</v>
       </c>
       <c r="I44">
-        <v>27.09091627970468</v>
+        <v>26.25180673764283</v>
       </c>
       <c r="J44">
-        <v>56.94308801655114</v>
+        <v>56.82934348650203</v>
       </c>
       <c r="K44">
-        <v>59.02792427519999</v>
+        <v>57.40330690548965</v>
       </c>
       <c r="L44">
         <v>59.27804259839999</v>
@@ -2487,31 +2487,31 @@
         <v>116</v>
       </c>
       <c r="D45">
-        <v>0.01655639999999993</v>
+        <v>0.01448684999999994</v>
       </c>
       <c r="E45">
-        <v>0.5843673359999999</v>
+        <v>0.6680376000000001</v>
       </c>
       <c r="F45">
-        <v>1.250992386</v>
+        <v>1.2725375184</v>
       </c>
       <c r="G45">
-        <v>1.4298948</v>
+        <v>1.3897142568</v>
       </c>
       <c r="H45">
-        <v>1.4133384</v>
+        <v>1.363098924</v>
       </c>
       <c r="I45">
-        <v>0.7618572000000003</v>
+        <v>0.7542386280000002</v>
       </c>
       <c r="J45">
-        <v>2.747922472800001</v>
+        <v>2.77863696</v>
       </c>
       <c r="K45">
-        <v>2.99592</v>
+        <v>2.967852960000001</v>
       </c>
       <c r="L45">
-        <v>3.185136000000001</v>
+        <v>3.185136</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2525,13 +2525,13 @@
         <v>117</v>
       </c>
       <c r="D46">
-        <v>1.7034436</v>
+        <v>1.70551315</v>
       </c>
       <c r="E46">
-        <v>1.175632664</v>
+        <v>1.0919624</v>
       </c>
       <c r="F46">
-        <v>0.599007614</v>
+        <v>0.5774624816000002</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2563,31 +2563,31 @@
         <v>118</v>
       </c>
       <c r="D47">
-        <v>550.0800000000002</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E47">
-        <v>983.0200000000001</v>
+        <v>983.0199999999999</v>
       </c>
       <c r="F47">
         <v>1530.69</v>
       </c>
       <c r="G47">
-        <v>2400.953329046684</v>
+        <v>2467.489409752511</v>
       </c>
       <c r="H47">
-        <v>3017.462326280019</v>
+        <v>3058.358621344633</v>
       </c>
       <c r="I47">
-        <v>3245.907083853065</v>
+        <v>3253.540558178556</v>
       </c>
       <c r="J47">
-        <v>3369.326731654684</v>
+        <v>3411.542161175159</v>
       </c>
       <c r="K47">
-        <v>3492.509372841551</v>
+        <v>3530.689433333829</v>
       </c>
       <c r="L47">
-        <v>3684.321131088465</v>
+        <v>3542.75503808367</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2607,25 +2607,25 @@
         <v>126.62</v>
       </c>
       <c r="F48">
-        <v>259.5700000000001</v>
+        <v>259.57</v>
       </c>
       <c r="G48">
-        <v>811.6686105408</v>
+        <v>825.1520544</v>
       </c>
       <c r="H48">
-        <v>1389.186123408</v>
+        <v>1390.652263331941</v>
       </c>
       <c r="I48">
-        <v>1974.258218696</v>
+        <v>1995.982179335768</v>
       </c>
       <c r="J48">
-        <v>2330.5437367056</v>
+        <v>2397.2497435152</v>
       </c>
       <c r="K48">
-        <v>2398.519127078401</v>
+        <v>2443.730157504144</v>
       </c>
       <c r="L48">
-        <v>2435.2739377248</v>
+        <v>2455.6127596128</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2677,7 +2677,7 @@
         <v>120</v>
       </c>
       <c r="D50">
-        <v>45.45400000000001</v>
+        <v>45.454</v>
       </c>
       <c r="E50">
         <v>49.14117809999999</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>2506.514514618455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2876,7 +2876,7 @@
         <v>6480.449</v>
       </c>
       <c r="G55">
-        <v>10438.79688738431</v>
+        <v>8951.877980473259</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2497.620175446785</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2917,10 +2917,10 @@
         <v>14039.533</v>
       </c>
       <c r="H56">
-        <v>11869.16703340687</v>
+        <v>10387.68811051881</v>
       </c>
       <c r="I56">
-        <v>1798.867220465927</v>
+        <v>1626.787953546271</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>120</v>
       </c>
       <c r="D57">
-        <v>5.683</v>
+        <v>5.683000000000001</v>
       </c>
       <c r="E57">
         <v>6.142647262499999</v>
@@ -3066,13 +3066,13 @@
         <v>17799.56</v>
       </c>
       <c r="G60">
-        <v>13132.23595173613</v>
+        <v>12494.9849916314</v>
       </c>
       <c r="H60">
-        <v>5526.554852654799</v>
+        <v>5058.719403321727</v>
       </c>
       <c r="I60">
-        <v>1631.075975224228</v>
+        <v>1593.302477607718</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3116,10 +3116,10 @@
         <v>2283.528</v>
       </c>
       <c r="K61">
-        <v>2283.528</v>
+        <v>2283.527999999999</v>
       </c>
       <c r="L61">
-        <v>2658.398496633597</v>
+        <v>2728.880956032416</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3142,7 +3142,7 @@
         <v>13473.857</v>
       </c>
       <c r="G62">
-        <v>3833.038815</v>
+        <v>3833.038814999998</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3180,22 +3180,22 @@
         <v>278.5463999999999</v>
       </c>
       <c r="G63">
-        <v>493.7867999999999</v>
+        <v>493.7868</v>
       </c>
       <c r="H63">
-        <v>703.3999999999997</v>
+        <v>703.4</v>
       </c>
       <c r="I63">
         <v>703.4</v>
       </c>
       <c r="J63">
-        <v>36.62799999999998</v>
+        <v>36.62799999999994</v>
       </c>
       <c r="K63">
-        <v>36.62799999999996</v>
+        <v>36.62800000000001</v>
       </c>
       <c r="L63">
-        <v>632.2510899999999</v>
+        <v>427.8341240396194</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3221,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>386.8699999999999</v>
+        <v>386.8699999999998</v>
       </c>
       <c r="I64">
-        <v>466.0024999999994</v>
+        <v>466.0024999999998</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3247,16 +3247,16 @@
         <v>123</v>
       </c>
       <c r="D65">
-        <v>8181.323999999998</v>
+        <v>8181.324</v>
       </c>
       <c r="E65">
         <v>8584.531999999999</v>
       </c>
       <c r="F65">
-        <v>7355.054999999999</v>
+        <v>7355.055</v>
       </c>
       <c r="G65">
-        <v>4512.146192142856</v>
+        <v>4512.146192142857</v>
       </c>
       <c r="H65">
         <v>2850.041589473683</v>
@@ -3265,10 +3265,10 @@
         <v>1998.497019512195</v>
       </c>
       <c r="J65">
-        <v>855.2714999999998</v>
+        <v>855.2714999999999</v>
       </c>
       <c r="K65">
-        <v>400.3398510638297</v>
+        <v>400.3398510638298</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>911.5425</v>
       </c>
       <c r="F67">
-        <v>978.6645000000001</v>
+        <v>978.6645</v>
       </c>
       <c r="G67">
         <v>1177.93025</v>
@@ -3551,7 +3551,7 @@
         <v>125</v>
       </c>
       <c r="D73">
-        <v>586.5879180000001</v>
+        <v>586.5879179999999</v>
       </c>
       <c r="E73">
         <v>827.1823280000001</v>

--- a/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
   <si>
     <t>tech</t>
   </si>
@@ -65,6 +65,12 @@
     <t>UPS_GRO_HOIL_1</t>
   </si>
   <si>
+    <t>UPS_GRO_HOIL_2</t>
+  </si>
+  <si>
+    <t>UPS_GRO_HOIL_3</t>
+  </si>
+  <si>
     <t>UPS_LOC_HSAN_1</t>
   </si>
   <si>
@@ -158,6 +164,24 @@
     <t>UPS_BIO_LIQ_POT</t>
   </si>
   <si>
+    <t>UPS_BIO_REF_GEN1_TRANSESTER_EXS</t>
+  </si>
+  <si>
+    <t>UPS_BIO_REF_GEN1_ETHAMIDE_EXS</t>
+  </si>
+  <si>
+    <t>UPS_BIO_REF_GEN1_ETHSUG_EXS</t>
+  </si>
+  <si>
+    <t>UPS_BIO_REF_GEN1_HVO_NEW</t>
+  </si>
+  <si>
+    <t>UPS_BIO_REF_GEN2_FT_LGC_DST_CCS_NEW</t>
+  </si>
+  <si>
+    <t>UPS_BIO_REF_GEN2_FT_LGC_KER_CCS_NEW</t>
+  </si>
+  <si>
     <t>IMP_BIO_EMHV_GLB</t>
   </si>
   <si>
@@ -185,9 +209,6 @@
     <t>UPS_TDL_POT</t>
   </si>
   <si>
-    <t>UPS_WAV_POT</t>
-  </si>
-  <si>
     <t>UPS_WIN_ON_POT</t>
   </si>
   <si>
@@ -239,9 +260,6 @@
     <t>IMP_GAS_PIP_CAC</t>
   </si>
   <si>
-    <t>IMP_GAS_PIP_MEA</t>
-  </si>
-  <si>
     <t>EXP_GAS_NGA_GLB</t>
   </si>
   <si>
@@ -341,6 +359,21 @@
     <t>RNW_POT_BIO_LIQ</t>
   </si>
   <si>
+    <t>RNW_BIO_EMHV</t>
+  </si>
+  <si>
+    <t>RNW_BIO_ETH</t>
+  </si>
+  <si>
+    <t>RNW_BIO_HVO</t>
+  </si>
+  <si>
+    <t>RNW_BIO_DST_FT</t>
+  </si>
+  <si>
+    <t>RNW_BIO_KER_FT</t>
+  </si>
+  <si>
     <t>IMP_RNW_BIO_EMHV</t>
   </si>
   <si>
@@ -366,9 +399,6 @@
   </si>
   <si>
     <t>RNW_POT_TDL</t>
-  </si>
-  <si>
-    <t>RNW_POT_WAV</t>
   </si>
   <si>
     <t>RNW_POT_WIN_ON</t>
@@ -801,7 +831,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -850,7 +880,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>7384.745999999999</v>
@@ -888,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -926,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -964,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -985,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2772.237396664884</v>
+        <v>3003.157199999999</v>
       </c>
       <c r="K5">
-        <v>3495.002032033671</v>
+        <v>4795</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>865.5521000000009</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1002,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>95.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1029,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2858.7784</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1040,10 +1070,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>95.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1067,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>830.9194999999991</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1078,10 +1108,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>47.83000000000001</v>
+        <v>95.66000000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1116,19 +1146,19 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>95.66000000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.002999999997882697</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>194.5056000000021</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1154,10 +1184,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>47.83000000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1166,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>194.5086</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,19 +1222,19 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>194.5086000000145</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>97.2544</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1230,22 +1260,22 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>3335.857</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3335.857</v>
+        <v>194.5086</v>
       </c>
       <c r="F12">
-        <v>3335.857</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3106.526361903447</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>229.3026380965508</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1268,28 +1298,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>3558.246999999999</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3558.246999999999</v>
+        <v>97.25140000001011</v>
       </c>
       <c r="F13">
-        <v>3023.472999999999</v>
+        <v>0.002999999992425728</v>
       </c>
       <c r="G13">
-        <v>1816.240638096552</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3558.246999999999</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1891.488</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>385.2573619034488</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1306,28 +1336,28 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>2001.514</v>
+        <v>3335.857</v>
       </c>
       <c r="E14">
-        <v>2001.514</v>
+        <v>3335.857</v>
       </c>
       <c r="F14">
-        <v>1334.316</v>
+        <v>3335.857</v>
       </c>
       <c r="G14">
-        <v>2001.514</v>
+        <v>3335.828999999999</v>
       </c>
       <c r="H14">
-        <v>2001.514</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2001.514</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2001.514</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1344,31 +1374,31 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>735.285</v>
+        <v>3558.246999999999</v>
       </c>
       <c r="E15">
-        <v>418.4959999999996</v>
+        <v>3558.246999999999</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3558.246999999999</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1526.445697143913</v>
       </c>
       <c r="H15">
-        <v>442.7893619034492</v>
+        <v>3557.144999999999</v>
       </c>
       <c r="I15">
-        <v>735.285</v>
+        <v>2032.868302856087</v>
       </c>
       <c r="J15">
-        <v>735.285</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>735.285</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1382,31 +1412,31 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D16">
-        <v>980.3810000000001</v>
+        <v>2001.514</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2001.514</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>799.5419999999995</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1677.324302856088</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2001.514</v>
       </c>
       <c r="I16">
-        <v>980.3810000000001</v>
+        <v>2001.514</v>
       </c>
       <c r="J16">
-        <v>980.3810000000001</v>
+        <v>1814.542457856757</v>
       </c>
       <c r="K16">
-        <v>980.3810000000001</v>
+        <v>707.8636916132144</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1420,13 +1450,13 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>727.9470000000014</v>
+        <v>735.285</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>418.4959999999996</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1441,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>735.285</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>735.285</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1458,34 +1488,34 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>3638.04</v>
+        <v>980.3810000000001</v>
       </c>
       <c r="E18">
-        <v>3443.583</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2430.211</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>2187.19</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1968.471</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1300.803101502453</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1198.480144735196</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>394.3357277110096</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>346.1032977152996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1496,28 +1526,28 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>3280.326</v>
+        <v>727.9470000000014</v>
       </c>
       <c r="E19">
-        <v>2515.435</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1491.766</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1193.413</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>954.7300000000001</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>763.784</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>611.027</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1534,34 +1564,34 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D20">
-        <v>10573.37281062786</v>
+        <v>3638.04</v>
       </c>
       <c r="E20">
-        <v>9813.491920798784</v>
+        <v>3443.583</v>
       </c>
       <c r="F20">
-        <v>8330.126451514641</v>
+        <v>2430.211</v>
       </c>
       <c r="G20">
-        <v>8877.49174572686</v>
+        <v>2187.19</v>
       </c>
       <c r="H20">
-        <v>8365.601310035541</v>
+        <v>1968.471</v>
       </c>
       <c r="I20">
-        <v>7853.71087434422</v>
+        <v>1043.745140408577</v>
       </c>
       <c r="J20">
-        <v>7126.207756016246</v>
+        <v>61.80088913133918</v>
       </c>
       <c r="K20">
-        <v>6673.549543797599</v>
+        <v>30.70726151842776</v>
       </c>
       <c r="L20">
-        <v>6220.891331578949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1572,31 +1602,31 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D21">
-        <v>467.8900000000004</v>
+        <v>3280.326</v>
       </c>
       <c r="E21">
-        <v>635.7240000000002</v>
+        <v>2515.435</v>
       </c>
       <c r="F21">
-        <v>615.4250000000002</v>
+        <v>1491.766</v>
       </c>
       <c r="G21">
-        <v>584.6539999999997</v>
+        <v>1193.413</v>
       </c>
       <c r="H21">
-        <v>555.4210000000002</v>
+        <v>954.7300000000001</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>763.6284503360018</v>
       </c>
       <c r="J21">
-        <v>16.27510747906919</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>11.67210208608054</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1610,34 +1640,34 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>373.6</v>
+        <v>10579.16162513789</v>
       </c>
       <c r="E22">
-        <v>521.9999999999999</v>
+        <v>9711.1572233692</v>
       </c>
       <c r="F22">
-        <v>670.3999999999999</v>
+        <v>8283.118638160247</v>
       </c>
       <c r="G22">
-        <v>809.8999999999999</v>
+        <v>8932.904578067304</v>
       </c>
       <c r="H22">
-        <v>949.3999999999996</v>
+        <v>8490.600262792974</v>
       </c>
       <c r="I22">
-        <v>972.6000000000004</v>
+        <v>8063.1879475186</v>
       </c>
       <c r="J22">
-        <v>995.8000000000001</v>
+        <v>7426.120496646219</v>
       </c>
       <c r="K22">
-        <v>1014.6</v>
+        <v>7092.710953237862</v>
       </c>
       <c r="L22">
-        <v>1033.4</v>
+        <v>6773.903287643006</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1648,34 +1678,34 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>110.96307332494</v>
+        <v>467.8900000000004</v>
       </c>
       <c r="E23">
-        <v>138.2166017570551</v>
+        <v>635.7240000000002</v>
       </c>
       <c r="F23">
-        <v>198.6000000000001</v>
+        <v>615.4250000000002</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>555.4210000000002</v>
       </c>
       <c r="I23">
-        <v>288.3000000000001</v>
+        <v>527.6499999999996</v>
       </c>
       <c r="J23">
-        <v>288.4999999999999</v>
+        <v>352.0378105499302</v>
       </c>
       <c r="K23">
-        <v>286.65</v>
+        <v>128.468808179221</v>
       </c>
       <c r="L23">
-        <v>284.8</v>
+        <v>32.7821312229577</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1686,34 +1716,34 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D24">
-        <v>346.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>474.9</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>603.2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>742.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>882.5</v>
+        <v>949.4000000000002</v>
       </c>
       <c r="I24">
-        <v>913.5000000000001</v>
+        <v>972.5999999999998</v>
       </c>
       <c r="J24">
-        <v>944.5</v>
+        <v>995.8</v>
       </c>
       <c r="K24">
-        <v>969.8000000000004</v>
+        <v>1014.6</v>
       </c>
       <c r="L24">
-        <v>995.1000000000001</v>
+        <v>1033.4</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1724,34 +1754,34 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>172.7</v>
       </c>
       <c r="E25">
-        <v>272.7276093977164</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1527.3</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1652.4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1777.5</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1751.8</v>
+        <v>288.3</v>
       </c>
       <c r="J25">
-        <v>1726.1</v>
+        <v>288.5</v>
       </c>
       <c r="K25">
-        <v>1696.9</v>
+        <v>286.65</v>
       </c>
       <c r="L25">
-        <v>1667.7</v>
+        <v>284.8</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1762,34 +1792,34 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>346.6</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>474.9</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>603.2000000000002</v>
       </c>
       <c r="G26">
-        <v>292.5</v>
+        <v>742.85</v>
       </c>
       <c r="H26">
-        <v>317.6</v>
+        <v>882.5</v>
       </c>
       <c r="I26">
-        <v>310.3</v>
+        <v>913.5</v>
       </c>
       <c r="J26">
-        <v>303</v>
+        <v>944.5</v>
       </c>
       <c r="K26">
-        <v>294.45</v>
+        <v>969.8</v>
       </c>
       <c r="L26">
-        <v>285.9</v>
+        <v>995.1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1800,34 +1830,34 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>45.65</v>
+        <v>696.7420041907849</v>
       </c>
       <c r="F27">
-        <v>91.3</v>
+        <v>913.3436</v>
       </c>
       <c r="G27">
-        <v>93.95</v>
+        <v>1313.507604791081</v>
       </c>
       <c r="H27">
-        <v>96.59999999999999</v>
+        <v>1777.5</v>
       </c>
       <c r="I27">
-        <v>99.65000000000001</v>
+        <v>1751.8</v>
       </c>
       <c r="J27">
-        <v>102.7</v>
+        <v>1726.1</v>
       </c>
       <c r="K27">
-        <v>105.85</v>
+        <v>1696.9</v>
       </c>
       <c r="L27">
-        <v>109</v>
+        <v>1667.7</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1838,34 +1868,34 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D28">
-        <v>1109.8</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1127.1</v>
+        <v>133.7</v>
       </c>
       <c r="F28">
-        <v>668.3862529495993</v>
+        <v>267.4</v>
       </c>
       <c r="G28">
-        <v>1132.5</v>
+        <v>292.5</v>
       </c>
       <c r="H28">
-        <v>1120.6</v>
+        <v>317.6</v>
       </c>
       <c r="I28">
-        <v>1106.6</v>
+        <v>310.3</v>
       </c>
       <c r="J28">
-        <v>1092.6</v>
+        <v>303</v>
       </c>
       <c r="K28">
-        <v>1078.4</v>
+        <v>294.45</v>
       </c>
       <c r="L28">
-        <v>1064.2</v>
+        <v>285.9</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1876,34 +1906,34 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D29">
-        <v>116.0285566750598</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>76.34841884522939</v>
+        <v>45.65</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="G29">
-        <v>315.4</v>
+        <v>93.95</v>
       </c>
       <c r="H29">
-        <v>320.6</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I29">
-        <v>312.7</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="J29">
-        <v>304.8</v>
+        <v>102.7</v>
       </c>
       <c r="K29">
-        <v>304.95</v>
+        <v>105.85</v>
       </c>
       <c r="L29">
-        <v>305.1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1914,34 +1944,34 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D30">
-        <v>110.6</v>
+        <v>1109.8</v>
       </c>
       <c r="E30">
-        <v>112.3</v>
+        <v>1127.1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1144.4</v>
       </c>
       <c r="G30">
-        <v>116.75</v>
+        <v>1132.5</v>
       </c>
       <c r="H30">
-        <v>119.5</v>
+        <v>1120.6</v>
       </c>
       <c r="I30">
-        <v>127.8</v>
+        <v>1106.6</v>
       </c>
       <c r="J30">
-        <v>136.1</v>
+        <v>1092.6</v>
       </c>
       <c r="K30">
-        <v>139.7</v>
+        <v>1078.4</v>
       </c>
       <c r="L30">
-        <v>143.3</v>
+        <v>1064.2</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1952,34 +1982,34 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D31">
-        <v>156.2</v>
+        <v>533.3</v>
       </c>
       <c r="E31">
-        <v>155.85</v>
+        <v>421.75</v>
       </c>
       <c r="F31">
-        <v>155.5</v>
+        <v>310.2</v>
       </c>
       <c r="G31">
-        <v>155.45</v>
+        <v>315.4</v>
       </c>
       <c r="H31">
-        <v>155.4</v>
+        <v>320.6</v>
       </c>
       <c r="I31">
-        <v>163.25</v>
+        <v>312.7</v>
       </c>
       <c r="J31">
-        <v>171.1</v>
+        <v>304.8</v>
       </c>
       <c r="K31">
-        <v>173.05</v>
+        <v>304.95</v>
       </c>
       <c r="L31">
-        <v>175</v>
+        <v>305.1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1990,34 +2020,34 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D32">
-        <v>977.3</v>
+        <v>110.6</v>
       </c>
       <c r="E32">
-        <v>955.45</v>
+        <v>112.3</v>
       </c>
       <c r="F32">
-        <v>933.6</v>
+        <v>114</v>
       </c>
       <c r="G32">
-        <v>940.2499999999999</v>
+        <v>116.75</v>
       </c>
       <c r="H32">
-        <v>946.8999999999999</v>
+        <v>119.5</v>
       </c>
       <c r="I32">
-        <v>945.3999999999996</v>
+        <v>127.8</v>
       </c>
       <c r="J32">
-        <v>943.9</v>
+        <v>136.1</v>
       </c>
       <c r="K32">
-        <v>923.15</v>
+        <v>139.7</v>
       </c>
       <c r="L32">
-        <v>902.4000000000001</v>
+        <v>143.3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2028,34 +2058,34 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D33">
-        <v>424.3000000000001</v>
+        <v>156.2</v>
       </c>
       <c r="E33">
-        <v>447.65</v>
+        <v>155.85</v>
       </c>
       <c r="F33">
-        <v>471</v>
+        <v>155.5</v>
       </c>
       <c r="G33">
-        <v>518</v>
+        <v>155.45</v>
       </c>
       <c r="H33">
-        <v>565</v>
+        <v>155.4</v>
       </c>
       <c r="I33">
-        <v>610.15</v>
+        <v>163.25</v>
       </c>
       <c r="J33">
-        <v>655.2999999999998</v>
+        <v>171.1</v>
       </c>
       <c r="K33">
-        <v>707.0999999999999</v>
+        <v>173.05</v>
       </c>
       <c r="L33">
-        <v>758.8999999999999</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2066,34 +2096,34 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D34">
-        <v>24.1</v>
+        <v>977.3</v>
       </c>
       <c r="E34">
-        <v>25.95</v>
+        <v>955.45</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>933.5999999999999</v>
       </c>
       <c r="G34">
-        <v>31.35</v>
+        <v>940.25</v>
       </c>
       <c r="H34">
-        <v>34.9</v>
+        <v>946.9</v>
       </c>
       <c r="I34">
-        <v>38.95</v>
+        <v>945.4</v>
       </c>
       <c r="J34">
-        <v>43</v>
+        <v>943.9</v>
       </c>
       <c r="K34">
-        <v>48.3</v>
+        <v>923.1500000000001</v>
       </c>
       <c r="L34">
-        <v>53.6</v>
+        <v>902.4</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2104,34 +2134,34 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35">
-        <v>1246</v>
+        <v>424.3000000000001</v>
       </c>
       <c r="E35">
-        <v>1237.1</v>
+        <v>436.2599081856475</v>
       </c>
       <c r="F35">
-        <v>1022.347377050401</v>
+        <v>471.0000000000001</v>
       </c>
       <c r="G35">
-        <v>1233.55</v>
+        <v>517.9999999999999</v>
       </c>
       <c r="H35">
-        <v>1238.9</v>
+        <v>565</v>
       </c>
       <c r="I35">
-        <v>1245.75</v>
+        <v>610.15</v>
       </c>
       <c r="J35">
-        <v>1252.6</v>
+        <v>655.3</v>
       </c>
       <c r="K35">
-        <v>1259.4</v>
+        <v>707.0999999999999</v>
       </c>
       <c r="L35">
-        <v>1266.2</v>
+        <v>758.9</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2142,34 +2172,34 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="G36">
-        <v>71.40000000000002</v>
+        <v>31.34999999999999</v>
       </c>
       <c r="H36">
-        <v>73.59999999999999</v>
+        <v>34.89999999999999</v>
       </c>
       <c r="I36">
-        <v>65.00000000000001</v>
+        <v>38.95</v>
       </c>
       <c r="J36">
-        <v>56.4</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>56.39999999999998</v>
+        <v>48.29999999999999</v>
       </c>
       <c r="L36">
-        <v>56.39999999999999</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2180,34 +2210,34 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D37">
-        <v>270.0005</v>
+        <v>1246</v>
       </c>
       <c r="E37">
-        <v>270.0005</v>
+        <v>1237.1</v>
       </c>
       <c r="F37">
-        <v>270.0005</v>
+        <v>1228.2</v>
       </c>
       <c r="G37">
-        <v>202.8997751480056</v>
+        <v>1233.55</v>
       </c>
       <c r="H37">
-        <v>468.999299999997</v>
+        <v>1238.9</v>
       </c>
       <c r="I37">
-        <v>0.03849999999925556</v>
+        <v>1245.75</v>
       </c>
       <c r="J37">
-        <v>0.0385</v>
+        <v>1252.6</v>
       </c>
       <c r="K37">
-        <v>0.0385</v>
+        <v>1259.4</v>
       </c>
       <c r="L37">
-        <v>0.03849999999999999</v>
+        <v>1266.2</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2218,34 +2248,34 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D38">
-        <v>164.99987</v>
+        <v>26.9</v>
       </c>
       <c r="E38">
-        <v>164.99987</v>
+        <v>48.05</v>
       </c>
       <c r="F38">
-        <v>164.99987</v>
+        <v>69.20000000000002</v>
       </c>
       <c r="G38">
-        <v>161.4110248519913</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H38">
-        <v>51.06128713508157</v>
+        <v>73.60000000000001</v>
       </c>
       <c r="I38">
-        <v>46.74522442266372</v>
+        <v>65</v>
       </c>
       <c r="J38">
-        <v>0.0251</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="K38">
-        <v>0.0251</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="L38">
-        <v>0.0251</v>
+        <v>56.39999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2256,34 +2286,34 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D39">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>283</v>
+        <v>287.3988025004689</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>13984.15440800994</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>14325.87800424528</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>70997.19562304535</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>5155.511461005694</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2294,34 +2324,34 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D40">
-        <v>2016.271</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>2052.35</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2157.069</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>2273.395691447231</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>2323.176350186845</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>2390.119196497897</v>
+        <v>1515.319858309386</v>
       </c>
       <c r="J40">
-        <v>2470.436355501527</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>2557.089759884338</v>
+        <v>5803.235916279068</v>
       </c>
       <c r="L40">
-        <v>2708.536957775339</v>
+        <v>2081.634768771409</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2332,34 +2362,34 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>166.0537997527061</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>396.1279751793557</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>520.3857758013409</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>630.3037656833579</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>736.2677765340173</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>857.3430349814155</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1023.631040539374</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>1267.548074091485</v>
+        <v>1222.401756669195</v>
       </c>
       <c r="L41">
-        <v>1427.457391435527</v>
+        <v>25962.86751169075</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2370,34 +2400,34 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D42">
-        <v>164.23</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>361.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>583.6799999999998</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1187.98602997674</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1894.015241261687</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2741.899210747633</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>3635.688880143752</v>
+        <v>15173.5958694936</v>
       </c>
       <c r="K42">
-        <v>4522.191697904803</v>
+        <v>85275.06684359862</v>
       </c>
       <c r="L42">
-        <v>5158.046184530204</v>
+        <v>51324.20624509237</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2408,34 +2438,34 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D43">
-        <v>325.0012002472943</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>465.3540248206446</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>631.9832241986604</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>818.7252309609955</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1449.427064294329</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2386.546001547121</v>
+        <v>8544.854748960119</v>
       </c>
       <c r="J43">
-        <v>4394.286666278605</v>
+        <v>8544.854748960119</v>
       </c>
       <c r="K43">
-        <v>5535.86488906396</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>6521.922795640871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2446,34 +2476,34 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D44">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>20.13</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>20.45999999999867</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>17.5512894533074</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>18.31493590894711</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>26.25180673764283</v>
+        <v>309.7932173885004</v>
       </c>
       <c r="J44">
-        <v>56.82934348650203</v>
+        <v>309.7932173885003</v>
       </c>
       <c r="K44">
-        <v>57.40330690548965</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>59.27804259839999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2484,34 +2514,34 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D45">
-        <v>0.01448684999999994</v>
+        <v>125.2020999999993</v>
       </c>
       <c r="E45">
-        <v>0.6680376000000001</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.2725375184</v>
+        <v>270.0005</v>
       </c>
       <c r="G45">
-        <v>1.3897142568</v>
+        <v>369.4999</v>
       </c>
       <c r="H45">
-        <v>1.363098924</v>
+        <v>468.9993000000002</v>
       </c>
       <c r="I45">
-        <v>0.7542386280000002</v>
+        <v>0.0385</v>
       </c>
       <c r="J45">
-        <v>2.77863696</v>
+        <v>0.0385</v>
       </c>
       <c r="K45">
-        <v>2.967852960000001</v>
+        <v>0.03849999999999999</v>
       </c>
       <c r="L45">
-        <v>3.185136</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2522,34 +2552,34 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D46">
-        <v>1.70551315</v>
+        <v>177.4899</v>
       </c>
       <c r="E46">
-        <v>1.0919624</v>
+        <v>155.4410876235688</v>
       </c>
       <c r="F46">
-        <v>0.5774624816000002</v>
+        <v>177.4899</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>53.22190800025679</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>46.28624809686676</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2560,34 +2590,34 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D47">
-        <v>550.0799999999999</v>
+        <v>283</v>
       </c>
       <c r="E47">
-        <v>983.0199999999999</v>
+        <v>283</v>
       </c>
       <c r="F47">
-        <v>1530.69</v>
+        <v>283</v>
       </c>
       <c r="G47">
-        <v>2467.489409752511</v>
+        <v>400</v>
       </c>
       <c r="H47">
-        <v>3058.358621344633</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>3253.540558178556</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>3411.542161175159</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>3530.689433333829</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>3542.75503808367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2598,34 +2628,34 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2088.78</v>
       </c>
       <c r="E48">
-        <v>126.62</v>
+        <v>2123.37</v>
       </c>
       <c r="F48">
-        <v>259.57</v>
+        <v>2231.01</v>
       </c>
       <c r="G48">
-        <v>825.1520544</v>
+        <v>2248.869096543514</v>
       </c>
       <c r="H48">
-        <v>1390.652263331941</v>
+        <v>2376.657561500261</v>
       </c>
       <c r="I48">
-        <v>1995.982179335768</v>
+        <v>2443.561135122422</v>
       </c>
       <c r="J48">
-        <v>2397.2497435152</v>
+        <v>2530.990080767102</v>
       </c>
       <c r="K48">
-        <v>2443.730157504144</v>
+        <v>2521.308511499652</v>
       </c>
       <c r="L48">
-        <v>2455.6127596128</v>
+        <v>2561.412298739835</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2636,34 +2666,34 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D49">
-        <v>281.869</v>
+        <v>229.4589210133827</v>
       </c>
       <c r="E49">
-        <v>305.4943238549999</v>
+        <v>250.2019508913704</v>
       </c>
       <c r="F49">
-        <v>456.966</v>
+        <v>245.8025203844297</v>
       </c>
       <c r="G49">
-        <v>994.9430000000001</v>
+        <v>230</v>
       </c>
       <c r="H49">
-        <v>994.9430000000001</v>
+        <v>264.9999999999999</v>
       </c>
       <c r="I49">
-        <v>994.9430000000001</v>
+        <v>305</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2674,34 +2704,34 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D50">
-        <v>45.454</v>
+        <v>164.23</v>
       </c>
       <c r="E50">
-        <v>49.14117809999999</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F50">
-        <v>31.521</v>
+        <v>583.6799999999998</v>
       </c>
       <c r="G50">
-        <v>68.63</v>
+        <v>1467.830367573006</v>
       </c>
       <c r="H50">
-        <v>68.63</v>
+        <v>2346.00813832161</v>
       </c>
       <c r="I50">
-        <v>68.63</v>
+        <v>3360.445621816069</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>4393.115566907953</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>5124.330268771026</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>5113.851299709742</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2712,34 +2742,34 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D51">
-        <v>573.5429999999999</v>
+        <v>261.5960789866173</v>
       </c>
       <c r="E51">
-        <v>622.4549225999999</v>
+        <v>611.2800491086294</v>
       </c>
       <c r="F51">
-        <v>397.7380000000001</v>
+        <v>906.5664796155711</v>
       </c>
       <c r="G51">
-        <v>865.9870000000001</v>
+        <v>1363.932</v>
       </c>
       <c r="H51">
-        <v>865.9870000000001</v>
+        <v>1367.811144260531</v>
       </c>
       <c r="I51">
-        <v>865.9870000000001</v>
+        <v>1713.9816</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1889.0064</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>2064.0312</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2239.055999999999</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2750,34 +2780,34 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D52">
-        <v>1121.453</v>
+        <v>2.74</v>
       </c>
       <c r="E52">
-        <v>1216.244157975</v>
+        <v>20.13000000000011</v>
       </c>
       <c r="F52">
-        <v>1166.519</v>
+        <v>20.45999999999959</v>
       </c>
       <c r="G52">
-        <v>2539.838999999999</v>
+        <v>17.57061392639991</v>
       </c>
       <c r="H52">
-        <v>2539.838999999999</v>
+        <v>17.82073224959999</v>
       </c>
       <c r="I52">
-        <v>2539.838999999999</v>
+        <v>45.97317764881181</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>56.41300370960825</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>58.23276041447772</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>58.28880210288207</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2788,34 +2818,34 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D53">
-        <v>513.1460000000001</v>
+        <v>1.72</v>
       </c>
       <c r="E53">
-        <v>556.9333518000001</v>
+        <v>1.76</v>
       </c>
       <c r="F53">
-        <v>533.7809999999999</v>
+        <v>1.85</v>
       </c>
       <c r="G53">
-        <v>1162.191</v>
+        <v>7.829001216000001</v>
       </c>
       <c r="H53">
-        <v>1162.191</v>
+        <v>9.279152640000001</v>
       </c>
       <c r="I53">
-        <v>1162.191</v>
+        <v>10.09908864</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>11.226816</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>11.98368</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>12.59926272</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2826,34 +2856,34 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D54">
-        <v>18141.907</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E54">
-        <v>17784.42636</v>
+        <v>983.0199999999999</v>
       </c>
       <c r="F54">
-        <v>18571.906</v>
+        <v>1530.69</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2423.7130858904</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2953.996843553848</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3154.767539352481</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>3111.65728304112</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>3357.447655334815</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>3569.349709328375</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2864,34 +2894,34 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D55">
-        <v>8810.888999999999</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>9476.640240928249</v>
+        <v>126.62</v>
       </c>
       <c r="F55">
-        <v>6480.449</v>
+        <v>259.5700000000001</v>
       </c>
       <c r="G55">
-        <v>8951.877980473259</v>
+        <v>1016.6853023352</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2375.5198737528</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>4583.257863521764</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>7695.950916358799</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>10400.14914516338</v>
       </c>
       <c r="L55">
-        <v>2497.620175446785</v>
+        <v>12205.66894810675</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2902,34 +2932,34 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D56">
-        <v>7942.354000000001</v>
+        <v>281.869</v>
       </c>
       <c r="E56">
-        <v>8599.706167500002</v>
+        <v>305.4943238549999</v>
       </c>
       <c r="F56">
-        <v>6448.197</v>
+        <v>456.966</v>
       </c>
       <c r="G56">
-        <v>14039.533</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="H56">
-        <v>10387.68811051881</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="I56">
-        <v>1626.787953546271</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>466.1337264700437</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2940,31 +2970,31 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D57">
-        <v>5.683000000000001</v>
+        <v>45.454</v>
       </c>
       <c r="E57">
-        <v>6.142647262499999</v>
+        <v>49.14117809999999</v>
       </c>
       <c r="F57">
-        <v>3.941</v>
+        <v>31.521</v>
       </c>
       <c r="G57">
-        <v>8.581000000000001</v>
+        <v>68.63</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>68.63</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>68.63</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>68.63</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>68.63</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -2978,28 +3008,28 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D58">
-        <v>7.582</v>
+        <v>573.5429999999999</v>
       </c>
       <c r="E58">
-        <v>8.23114733175</v>
+        <v>622.4549225999999</v>
       </c>
       <c r="F58">
-        <v>15.765</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>91.85219691572776</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3016,31 +3046,31 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D59">
-        <v>346.636</v>
+        <v>1121.453</v>
       </c>
       <c r="E59">
-        <v>375.5205026475</v>
+        <v>1216.244157975</v>
       </c>
       <c r="F59">
-        <v>240.384</v>
+        <v>1166.519</v>
       </c>
       <c r="G59">
-        <v>523.383</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1091.911807141648</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3054,28 +3084,28 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D60">
-        <v>17983.926</v>
+        <v>513.1460000000001</v>
       </c>
       <c r="E60">
-        <v>19356.834</v>
+        <v>556.9333518000001</v>
       </c>
       <c r="F60">
-        <v>17799.56</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="G60">
-        <v>12494.9849916314</v>
+        <v>1162.191</v>
       </c>
       <c r="H60">
-        <v>5058.719403321727</v>
+        <v>1162.191</v>
       </c>
       <c r="I60">
-        <v>1593.302477607718</v>
+        <v>1162.191</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1162.191</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3092,34 +3122,34 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D61">
-        <v>1649.5118</v>
+        <v>18141.907</v>
       </c>
       <c r="E61">
-        <v>1801.2946</v>
+        <v>17784.42636</v>
       </c>
       <c r="F61">
-        <v>1420.868</v>
+        <v>18571.906</v>
       </c>
       <c r="G61">
-        <v>2099.649</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>2283.528</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>2283.527999999999</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>2728.880956032416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3130,19 +3160,19 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D62">
-        <v>13312.3358</v>
+        <v>8810.888999999999</v>
       </c>
       <c r="E62">
-        <v>14460.19899999999</v>
+        <v>8990.371640928224</v>
       </c>
       <c r="F62">
-        <v>13473.857</v>
+        <v>6480.449</v>
       </c>
       <c r="G62">
-        <v>3833.038814999998</v>
+        <v>10363.67508173781</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3168,34 +3198,34 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D63">
-        <v>25.25</v>
+        <v>7942.354</v>
       </c>
       <c r="E63">
-        <v>27.573</v>
+        <v>8599.706167500002</v>
       </c>
       <c r="F63">
-        <v>278.5463999999999</v>
+        <v>6448.197</v>
       </c>
       <c r="G63">
-        <v>493.7868</v>
+        <v>14039.533</v>
       </c>
       <c r="H63">
-        <v>703.4</v>
+        <v>10409.74965760402</v>
       </c>
       <c r="I63">
-        <v>703.4</v>
+        <v>5341.184618089383</v>
       </c>
       <c r="J63">
-        <v>36.62799999999994</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>36.62800000000001</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>427.8341240396194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3206,25 +3236,25 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>5.683000000000001</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>6.142647262499999</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>3.941</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>8.581000000000001</v>
       </c>
       <c r="H64">
-        <v>386.8699999999998</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>466.0024999999998</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3244,31 +3274,31 @@
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D65">
-        <v>8181.324</v>
+        <v>7.582</v>
       </c>
       <c r="E65">
-        <v>8584.531999999999</v>
+        <v>8.23114733175</v>
       </c>
       <c r="F65">
-        <v>7355.055</v>
+        <v>15.765</v>
       </c>
       <c r="G65">
-        <v>4512.146192142857</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>2850.041589473683</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>1998.497019512195</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>855.2714999999999</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>400.3398510638298</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3282,25 +3312,25 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D66">
-        <v>1573.6248</v>
+        <v>346.636</v>
       </c>
       <c r="E66">
-        <v>538.9857</v>
+        <v>375.5205026475</v>
       </c>
       <c r="F66">
-        <v>1000.5732</v>
+        <v>240.384</v>
       </c>
       <c r="G66">
-        <v>1020.7868</v>
+        <v>523.383</v>
       </c>
       <c r="H66">
-        <v>1020.7868</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1020.7868</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3309,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>1020.7868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3320,34 +3350,34 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D67">
-        <v>1380.8817</v>
+        <v>17983.926</v>
       </c>
       <c r="E67">
-        <v>911.5425</v>
+        <v>19356.834</v>
       </c>
       <c r="F67">
-        <v>978.6645</v>
+        <v>17799.56000000001</v>
       </c>
       <c r="G67">
-        <v>1177.93025</v>
+        <v>13100.04089217335</v>
       </c>
       <c r="H67">
-        <v>1357.425</v>
+        <v>5636.146366185199</v>
       </c>
       <c r="I67">
-        <v>1357.425</v>
+        <v>3094.885148691877</v>
       </c>
       <c r="J67">
-        <v>1357.425</v>
+        <v>1066.270652981501</v>
       </c>
       <c r="K67">
-        <v>1357.425</v>
+        <v>350.8928755811986</v>
       </c>
       <c r="L67">
-        <v>1357.425</v>
+        <v>51.79263627444929</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3358,34 +3388,34 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D68">
-        <v>291.1194</v>
+        <v>1649.5118</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1801.2946</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1420.868</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>2099.649</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2540.707190372435</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2283.528</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2283.528</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>2283.528</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>2184.545729224294</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3396,25 +3426,25 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D69">
-        <v>211.6455</v>
+        <v>13252.64879999999</v>
       </c>
       <c r="E69">
-        <v>98.88120000000001</v>
+        <v>14460.199</v>
       </c>
       <c r="F69">
-        <v>180.1701</v>
+        <v>13473.857</v>
       </c>
       <c r="G69">
-        <v>183.8099</v>
+        <v>3833.038814999999</v>
       </c>
       <c r="H69">
-        <v>183.8099</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>183.8099</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3423,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>183.8099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3434,34 +3464,34 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>25.25</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>27.573</v>
       </c>
       <c r="F70">
-        <v>827.5509</v>
+        <v>278.5463999999999</v>
       </c>
       <c r="G70">
-        <v>1719.33955</v>
+        <v>36.628</v>
       </c>
       <c r="H70">
-        <v>2594.41</v>
+        <v>36.628</v>
       </c>
       <c r="I70">
-        <v>2594.41</v>
+        <v>36.62799999999991</v>
       </c>
       <c r="J70">
-        <v>2594.41</v>
+        <v>36.62799999999991</v>
       </c>
       <c r="K70">
-        <v>2594.41</v>
+        <v>36.62799999999991</v>
       </c>
       <c r="L70">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3472,34 +3502,34 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>8181.323999999998</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>8584.532000000001</v>
       </c>
       <c r="F71">
-        <v>562.4289</v>
+        <v>7355.054999999998</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>4822.253835</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2980.427895263432</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1769.023102564102</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1376.778512195122</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1021.021790697675</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>681.8200810249216</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3510,34 +3540,34 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D72">
-        <v>616.5158730000002</v>
+        <v>1605.4152</v>
       </c>
       <c r="E72">
-        <v>609.5027680000001</v>
+        <v>538.9857</v>
       </c>
       <c r="F72">
-        <v>88.207576</v>
+        <v>1000.5732</v>
       </c>
       <c r="G72">
-        <v>88.207576</v>
+        <v>2021.36</v>
       </c>
       <c r="H72">
-        <v>88.207576</v>
+        <v>1953.586126915793</v>
       </c>
       <c r="I72">
-        <v>88.207576</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>88.207576</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>88.207576</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>88.207576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3548,34 +3578,34 @@
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D73">
-        <v>586.5879179999999</v>
+        <v>1408.7783</v>
       </c>
       <c r="E73">
-        <v>827.1823280000001</v>
+        <v>911.5425</v>
       </c>
       <c r="F73">
-        <v>579.1019119999999</v>
+        <v>978.6645</v>
       </c>
       <c r="G73">
-        <v>579.1019119999999</v>
+        <v>1177.93025</v>
       </c>
       <c r="H73">
-        <v>579.1019119999999</v>
+        <v>1357.425</v>
       </c>
       <c r="I73">
-        <v>579.1019119999999</v>
+        <v>1357.425</v>
       </c>
       <c r="J73">
-        <v>579.1019119999999</v>
+        <v>1357.425</v>
       </c>
       <c r="K73">
-        <v>579.1019119999999</v>
+        <v>1357.425</v>
       </c>
       <c r="L73">
-        <v>579.1019119999999</v>
+        <v>1357.425</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3586,34 +3616,34 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D74">
-        <v>23.942364</v>
+        <v>291.1194</v>
       </c>
       <c r="E74">
-        <v>37.31649600000001</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>76.70224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3624,34 +3654,34 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D75">
-        <v>161.610957</v>
+        <v>211.6455</v>
       </c>
       <c r="E75">
-        <v>118.168904</v>
+        <v>98.88120000000001</v>
       </c>
       <c r="F75">
-        <v>99.712912</v>
+        <v>180.1701</v>
       </c>
       <c r="G75">
-        <v>99.712912</v>
+        <v>363.98</v>
       </c>
       <c r="H75">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3662,34 +3692,34 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D76">
-        <v>389.063415</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>310.9708000000001</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>3.835112</v>
+        <v>827.5508999999998</v>
       </c>
       <c r="G76">
-        <v>3.835112</v>
+        <v>1719.33955</v>
       </c>
       <c r="H76">
-        <v>3.835112</v>
+        <v>2594.41</v>
       </c>
       <c r="I76">
-        <v>3.835112</v>
+        <v>2594.409999999999</v>
       </c>
       <c r="J76">
-        <v>3.835112</v>
+        <v>2594.41</v>
       </c>
       <c r="K76">
-        <v>3.835112</v>
+        <v>2594.41</v>
       </c>
       <c r="L76">
-        <v>3.835112</v>
+        <v>2594.41</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3700,16 +3730,16 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D77">
-        <v>161.610957</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>18.658248</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>562.4289</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3738,34 +3768,34 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D78">
-        <v>1316.83002</v>
+        <v>616.5148429999998</v>
       </c>
       <c r="E78">
-        <v>1430.46568</v>
+        <v>609.5027680000001</v>
       </c>
       <c r="F78">
-        <v>230.10672</v>
+        <v>88.207576</v>
       </c>
       <c r="G78">
-        <v>230.10672</v>
+        <v>88.207576</v>
       </c>
       <c r="H78">
-        <v>230.10672</v>
+        <v>88.207576</v>
       </c>
       <c r="I78">
-        <v>230.10672</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>230.10672</v>
+        <v>88.207576</v>
       </c>
       <c r="K78">
-        <v>230.10672</v>
+        <v>88.207576</v>
       </c>
       <c r="L78">
-        <v>230.10672</v>
+        <v>88.207576</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3776,34 +3806,34 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D79">
-        <v>1556.25366</v>
+        <v>586.586938</v>
       </c>
       <c r="E79">
-        <v>1952.896624</v>
+        <v>827.1823280000001</v>
       </c>
       <c r="F79">
-        <v>2105.476488</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>65.33692515154507</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>409.3899791521397</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>430.8244544029596</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>455.593633663357</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3814,34 +3844,34 @@
         <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D80">
-        <v>1173.175836</v>
+        <v>23.942324</v>
       </c>
       <c r="E80">
-        <v>914.254152</v>
+        <v>37.31649600000001</v>
       </c>
       <c r="F80">
-        <v>651.9690400000001</v>
+        <v>76.70224</v>
       </c>
       <c r="G80">
-        <v>651.9690400000001</v>
+        <v>76.70224</v>
       </c>
       <c r="H80">
-        <v>651.9690400000001</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>651.9690400000001</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>651.9690400000001</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>651.9690400000001</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>651.9690400000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3852,33 +3882,261 @@
         <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D81">
+        <v>161.610687</v>
+      </c>
+      <c r="E81">
+        <v>118.168904</v>
+      </c>
+      <c r="F81">
+        <v>99.712912</v>
+      </c>
+      <c r="G81">
+        <v>99.712912</v>
+      </c>
+      <c r="H81">
+        <v>99.712912</v>
+      </c>
+      <c r="I81">
+        <v>99.712912</v>
+      </c>
+      <c r="J81">
+        <v>99.712912</v>
+      </c>
+      <c r="K81">
+        <v>99.712912</v>
+      </c>
+      <c r="L81">
+        <v>99.712912</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82">
+        <v>389.062765</v>
+      </c>
+      <c r="E82">
+        <v>310.9708000000001</v>
+      </c>
+      <c r="F82">
+        <v>3.835112</v>
+      </c>
+      <c r="G82">
+        <v>3.835112</v>
+      </c>
+      <c r="H82">
+        <v>3.835112</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>3.835112</v>
+      </c>
+      <c r="K82">
+        <v>3.835112</v>
+      </c>
+      <c r="L82">
+        <v>3.835112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83">
+        <v>161.610687</v>
+      </c>
+      <c r="E83">
+        <v>18.658248</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84">
+        <v>1316.82782</v>
+      </c>
+      <c r="E84">
+        <v>1430.46568</v>
+      </c>
+      <c r="F84">
+        <v>230.10672</v>
+      </c>
+      <c r="G84">
+        <v>230.10672</v>
+      </c>
+      <c r="H84">
+        <v>230.10672</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>230.10672</v>
+      </c>
+      <c r="K84">
+        <v>230.10672</v>
+      </c>
+      <c r="L84">
+        <v>230.10672</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85">
+        <v>1556.25106</v>
+      </c>
+      <c r="E85">
+        <v>1952.896624</v>
+      </c>
+      <c r="F85">
+        <v>2105.476488</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86">
+        <v>1173.173876</v>
+      </c>
+      <c r="E86">
+        <v>914.254152</v>
+      </c>
+      <c r="F86">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="G86">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="H86">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="K86">
+        <v>651.9690400000001</v>
+      </c>
+      <c r="L86">
+        <v>651.9690400000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87">
         <v>931.7900000000002</v>
       </c>
-      <c r="E81">
+      <c r="E87">
         <v>763.401</v>
       </c>
-      <c r="F81">
+      <c r="F87">
         <v>571.756</v>
       </c>
-      <c r="G81">
+      <c r="G87">
         <v>192.1817235555555</v>
       </c>
-      <c r="H81">
-        <v>150.403088</v>
-      </c>
-      <c r="I81">
-        <v>110.4022667234042</v>
-      </c>
-      <c r="J81">
-        <v>72.06814633333335</v>
-      </c>
-      <c r="K81">
-        <v>35.29868391836735</v>
-      </c>
-      <c r="L81">
+      <c r="H87">
+        <v>99.05811175230825</v>
+      </c>
+      <c r="I87">
+        <v>6.36465395744681</v>
+      </c>
+      <c r="J87">
+        <v>61.80088913133918</v>
+      </c>
+      <c r="K87">
+        <v>30.70726151842776</v>
+      </c>
+      <c r="L87">
         <v>0</v>
       </c>
     </row>

--- a/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
   <si>
     <t>tech</t>
   </si>
@@ -164,24 +164,6 @@
     <t>UPS_BIO_LIQ_POT</t>
   </si>
   <si>
-    <t>UPS_BIO_REF_GEN1_TRANSESTER_EXS</t>
-  </si>
-  <si>
-    <t>UPS_BIO_REF_GEN1_ETHAMIDE_EXS</t>
-  </si>
-  <si>
-    <t>UPS_BIO_REF_GEN1_ETHSUG_EXS</t>
-  </si>
-  <si>
-    <t>UPS_BIO_REF_GEN1_HVO_NEW</t>
-  </si>
-  <si>
-    <t>UPS_BIO_REF_GEN2_FT_LGC_DST_CCS_NEW</t>
-  </si>
-  <si>
-    <t>UPS_BIO_REF_GEN2_FT_LGC_KER_CCS_NEW</t>
-  </si>
-  <si>
     <t>IMP_BIO_EMHV_GLB</t>
   </si>
   <si>
@@ -209,6 +191,9 @@
     <t>UPS_TDL_POT</t>
   </si>
   <si>
+    <t>UPS_WAV_POT</t>
+  </si>
+  <si>
     <t>UPS_WIN_ON_POT</t>
   </si>
   <si>
@@ -260,6 +245,9 @@
     <t>IMP_GAS_PIP_CAC</t>
   </si>
   <si>
+    <t>IMP_GAS_PIP_MEA</t>
+  </si>
+  <si>
     <t>EXP_GAS_NGA_GLB</t>
   </si>
   <si>
@@ -359,21 +347,6 @@
     <t>RNW_POT_BIO_LIQ</t>
   </si>
   <si>
-    <t>RNW_BIO_EMHV</t>
-  </si>
-  <si>
-    <t>RNW_BIO_ETH</t>
-  </si>
-  <si>
-    <t>RNW_BIO_HVO</t>
-  </si>
-  <si>
-    <t>RNW_BIO_DST_FT</t>
-  </si>
-  <si>
-    <t>RNW_BIO_KER_FT</t>
-  </si>
-  <si>
     <t>IMP_RNW_BIO_EMHV</t>
   </si>
   <si>
@@ -399,6 +372,9 @@
   </si>
   <si>
     <t>RNW_POT_TDL</t>
+  </si>
+  <si>
+    <t>RNW_POT_WAV</t>
   </si>
   <si>
     <t>RNW_POT_WIN_ON</t>
@@ -831,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>7384.745999999999</v>
@@ -889,7 +865,7 @@
         <v>6027.236000000001</v>
       </c>
       <c r="F2">
-        <v>5810.872800000002</v>
+        <v>5810.8728</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -918,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -927,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>385.9711999999981</v>
+        <v>385.971199999999</v>
       </c>
       <c r="G3">
         <v>5887.002</v>
@@ -956,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -971,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>331.9121999999979</v>
+        <v>331.9121999999988</v>
       </c>
       <c r="I4">
         <v>5313.019</v>
@@ -994,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1015,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3003.157199999999</v>
+        <v>3003.1572</v>
       </c>
       <c r="K5">
         <v>4795</v>
       </c>
       <c r="L5">
-        <v>865.5521000000009</v>
+        <v>865.5521000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1032,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1070,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1097,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>830.9194999999991</v>
+        <v>830.9194999999995</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1108,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>95.66000000000001</v>
@@ -1146,7 +1122,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>95.66000000000001</v>
@@ -1184,7 +1160,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>47.83000000000001</v>
@@ -1222,19 +1198,19 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>194.5086000000145</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.003000000008796632</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>194.5056000000058</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1260,19 +1236,19 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>194.5086</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1298,19 +1274,19 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>97.25140000001011</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.002999999992425728</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>97.2544</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1336,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <v>3335.857</v>
@@ -1374,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>3558.246999999999</v>
@@ -1386,13 +1362,13 @@
         <v>3558.246999999999</v>
       </c>
       <c r="G15">
-        <v>1526.445697143913</v>
+        <v>1202.256000000001</v>
       </c>
       <c r="H15">
         <v>3557.144999999999</v>
       </c>
       <c r="I15">
-        <v>2032.868302856087</v>
+        <v>2357.057999999998</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1412,7 +1388,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>2001.514</v>
@@ -1424,7 +1400,7 @@
         <v>799.5419999999995</v>
       </c>
       <c r="G16">
-        <v>1677.324302856088</v>
+        <v>2001.514</v>
       </c>
       <c r="H16">
         <v>2001.514</v>
@@ -1433,10 +1409,10 @@
         <v>2001.514</v>
       </c>
       <c r="J16">
-        <v>1814.542457856757</v>
+        <v>1985.94267665762</v>
       </c>
       <c r="K16">
-        <v>707.8636916132144</v>
+        <v>550.3453233423807</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1450,7 +1426,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D17">
         <v>735.285</v>
@@ -1468,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>87.82281790847217</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.75002491545888</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1488,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>980.3810000000001</v>
@@ -1526,7 +1502,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>727.9470000000014</v>
@@ -1564,7 +1540,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>3638.04</v>
@@ -1579,16 +1555,16 @@
         <v>2187.19</v>
       </c>
       <c r="H20">
-        <v>1968.471</v>
+        <v>1540.175433994158</v>
       </c>
       <c r="I20">
-        <v>1043.745140408577</v>
+        <v>961.7195325269364</v>
       </c>
       <c r="J20">
-        <v>61.80088913133918</v>
+        <v>254.5742334472903</v>
       </c>
       <c r="K20">
-        <v>30.70726151842776</v>
+        <v>94.97222268674483</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1602,7 +1578,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D21">
         <v>3280.326</v>
@@ -1617,10 +1593,10 @@
         <v>1193.413</v>
       </c>
       <c r="H21">
-        <v>954.7300000000001</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>763.6284503360018</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1640,34 +1616,34 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22">
-        <v>10579.16162513789</v>
+        <v>10579.16162513793</v>
       </c>
       <c r="E22">
-        <v>9711.1572233692</v>
+        <v>9711.15722336925</v>
       </c>
       <c r="F22">
-        <v>8283.118638160247</v>
+        <v>8293.784107105919</v>
       </c>
       <c r="G22">
-        <v>8932.904578067304</v>
+        <v>8932.904578067357</v>
       </c>
       <c r="H22">
-        <v>8490.600262792974</v>
+        <v>8490.600262792972</v>
       </c>
       <c r="I22">
-        <v>8063.1879475186</v>
+        <v>8063.187947518588</v>
       </c>
       <c r="J22">
-        <v>7426.120496646219</v>
+        <v>7649.9230322442</v>
       </c>
       <c r="K22">
-        <v>7092.710953237862</v>
+        <v>7249.316316969815</v>
       </c>
       <c r="L22">
-        <v>6773.903287643006</v>
+        <v>6097.607175362102</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1678,7 +1654,7 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>467.8900000000004</v>
@@ -1690,7 +1666,7 @@
         <v>615.4250000000002</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>584.6539999999997</v>
       </c>
       <c r="H23">
         <v>555.4210000000002</v>
@@ -1699,13 +1675,13 @@
         <v>527.6499999999996</v>
       </c>
       <c r="J23">
-        <v>352.0378105499302</v>
+        <v>328.7839986336722</v>
       </c>
       <c r="K23">
-        <v>128.468808179221</v>
+        <v>96.45227199335918</v>
       </c>
       <c r="L23">
-        <v>32.7821312229577</v>
+        <v>16.67897062554446</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1716,10 +1692,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>167.8807167585833</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1728,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>809.9</v>
       </c>
       <c r="H24">
-        <v>949.4000000000002</v>
+        <v>949.3999999999999</v>
       </c>
       <c r="I24">
         <v>972.5999999999998</v>
       </c>
       <c r="J24">
-        <v>995.8</v>
+        <v>995.7999999999997</v>
       </c>
       <c r="K24">
         <v>1014.6</v>
@@ -1754,13 +1730,13 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>172.7</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>38.54480296999379</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1772,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>288.3</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>288.5</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>286.65</v>
@@ -1792,7 +1768,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>346.6</v>
@@ -1801,25 +1777,25 @@
         <v>474.9</v>
       </c>
       <c r="F26">
-        <v>603.2000000000002</v>
+        <v>603.2</v>
       </c>
       <c r="G26">
         <v>742.85</v>
       </c>
       <c r="H26">
-        <v>882.5</v>
+        <v>882.5000000000001</v>
       </c>
       <c r="I26">
-        <v>913.5</v>
+        <v>599.8053812279933</v>
       </c>
       <c r="J26">
-        <v>944.5</v>
+        <v>572.1990329755446</v>
       </c>
       <c r="K26">
-        <v>969.8</v>
+        <v>969.8000000000001</v>
       </c>
       <c r="L26">
-        <v>995.1</v>
+        <v>995.0999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1830,19 +1806,19 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>696.7420041907849</v>
+        <v>702.2249251148536</v>
       </c>
       <c r="F27">
-        <v>913.3436</v>
+        <v>928.8351333070093</v>
       </c>
       <c r="G27">
-        <v>1313.507604791081</v>
+        <v>1319.309143169643</v>
       </c>
       <c r="H27">
         <v>1777.5</v>
@@ -1868,7 +1844,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1906,7 +1882,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1944,7 +1920,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <v>1109.8</v>
@@ -1982,7 +1958,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D31">
         <v>533.3</v>
@@ -2020,7 +1996,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D32">
         <v>110.6</v>
@@ -2058,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D33">
         <v>156.2</v>
@@ -2096,7 +2072,7 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D34">
         <v>977.3</v>
@@ -2120,10 +2096,10 @@
         <v>943.9</v>
       </c>
       <c r="K34">
-        <v>923.1500000000001</v>
+        <v>923.15</v>
       </c>
       <c r="L34">
-        <v>902.4</v>
+        <v>902.4000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2134,28 +2110,28 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35">
-        <v>424.3000000000001</v>
+        <v>424.3</v>
       </c>
       <c r="E35">
-        <v>436.2599081856475</v>
+        <v>447.6499999999999</v>
       </c>
       <c r="F35">
-        <v>471.0000000000001</v>
+        <v>471</v>
       </c>
       <c r="G35">
-        <v>517.9999999999999</v>
+        <v>518</v>
       </c>
       <c r="H35">
-        <v>565</v>
+        <v>564.9999999999999</v>
       </c>
       <c r="I35">
-        <v>610.15</v>
+        <v>610.1499999999999</v>
       </c>
       <c r="J35">
-        <v>655.3</v>
+        <v>655.2999999999998</v>
       </c>
       <c r="K35">
         <v>707.0999999999999</v>
@@ -2172,7 +2148,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D36">
         <v>24.1</v>
@@ -2184,10 +2160,10 @@
         <v>27.8</v>
       </c>
       <c r="G36">
-        <v>31.34999999999999</v>
+        <v>31.35</v>
       </c>
       <c r="H36">
-        <v>34.89999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="I36">
         <v>38.95</v>
@@ -2196,10 +2172,10 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>48.29999999999999</v>
+        <v>48.3</v>
       </c>
       <c r="L36">
-        <v>53.6</v>
+        <v>53.60000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2210,7 +2186,7 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37">
         <v>1246</v>
@@ -2248,7 +2224,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D38">
         <v>26.9</v>
@@ -2257,25 +2233,25 @@
         <v>48.05</v>
       </c>
       <c r="F38">
-        <v>69.20000000000002</v>
+        <v>53.70846669299203</v>
       </c>
       <c r="G38">
         <v>71.40000000000001</v>
       </c>
       <c r="H38">
-        <v>73.60000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I38">
         <v>65</v>
       </c>
       <c r="J38">
-        <v>56.40000000000001</v>
+        <v>56.39999999999998</v>
       </c>
       <c r="K38">
-        <v>56.40000000000001</v>
+        <v>56.4</v>
       </c>
       <c r="L38">
-        <v>56.39999999999999</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2286,7 +2262,7 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2295,25 +2271,25 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>287.3988025004689</v>
+        <v>270.0004999999999</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>369.4999</v>
       </c>
       <c r="H39">
-        <v>13984.15440800994</v>
+        <v>468.9993</v>
       </c>
       <c r="I39">
-        <v>14325.87800424528</v>
+        <v>555.4163999999998</v>
       </c>
       <c r="J39">
-        <v>70997.19562304535</v>
+        <v>0.0385</v>
       </c>
       <c r="K39">
-        <v>5155.511461005694</v>
+        <v>0.03849999999999999</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2324,34 +2300,34 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>134.8112832414164</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>100.0232719151538</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>177.4899</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>56.67251094221081</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="I40">
-        <v>1515.319858309386</v>
+        <v>0.027</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="K40">
-        <v>5803.235916279068</v>
+        <v>0.027</v>
       </c>
       <c r="L40">
-        <v>2081.634768771409</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2362,34 +2338,34 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>283.0000000000001</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>1222.401756669195</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>25962.86751169075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2400,34 +2376,34 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2088.78</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2123.37</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2231.01</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2273.754959451373</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2365.270617843978</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1755.716164853181</v>
       </c>
       <c r="J42">
-        <v>15173.5958694936</v>
+        <v>1513.651419018115</v>
       </c>
       <c r="K42">
-        <v>85275.06684359862</v>
+        <v>1359.262061051675</v>
       </c>
       <c r="L42">
-        <v>51324.20624509237</v>
+        <v>2044.200248780949</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2438,34 +2414,34 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>229.437506708492</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>250.18053658648</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>245.9098810187636</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>264.9999999999999</v>
       </c>
       <c r="I43">
-        <v>8544.854748960119</v>
+        <v>305</v>
       </c>
       <c r="J43">
-        <v>8544.854748960119</v>
+        <v>350</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2476,34 +2452,34 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>164.2299999999999</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>583.6799999999999</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1424.805412877689</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2270.828588015974</v>
       </c>
       <c r="I44">
-        <v>309.7932173885004</v>
+        <v>3321.952759910013</v>
       </c>
       <c r="J44">
-        <v>309.7932173885003</v>
+        <v>4432.897237596907</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>5105.685050617766</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>4845.717985904266</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2514,34 +2490,34 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D45">
-        <v>125.2020999999993</v>
+        <v>261.6174932915079</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>611.30146341352</v>
       </c>
       <c r="F45">
-        <v>270.0005</v>
+        <v>906.4591189812359</v>
       </c>
       <c r="G45">
-        <v>369.4999</v>
+        <v>1252.077371952776</v>
       </c>
       <c r="H45">
-        <v>468.9993000000002</v>
+        <v>1538.956799999999</v>
       </c>
       <c r="I45">
-        <v>0.0385</v>
+        <v>1681.618960677484</v>
       </c>
       <c r="J45">
-        <v>0.0385</v>
+        <v>1889.006399999999</v>
       </c>
       <c r="K45">
-        <v>0.03849999999999999</v>
+        <v>2064.031199999999</v>
       </c>
       <c r="L45">
-        <v>0.0385</v>
+        <v>2239.055999999999</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2552,34 +2528,34 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D46">
-        <v>177.4899</v>
+        <v>2.74</v>
       </c>
       <c r="E46">
-        <v>155.4410876235688</v>
+        <v>20.13</v>
       </c>
       <c r="F46">
-        <v>177.4899</v>
+        <v>20.46</v>
       </c>
       <c r="G46">
-        <v>53.22190800025679</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="H46">
-        <v>46.28624809686676</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="I46">
-        <v>0.027</v>
+        <v>15.12616433924174</v>
       </c>
       <c r="J46">
-        <v>0.027</v>
+        <v>7.601225586842811</v>
       </c>
       <c r="K46">
-        <v>0.027</v>
+        <v>7.601225586848476</v>
       </c>
       <c r="L46">
-        <v>0.027</v>
+        <v>0.2971069632000002</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2590,34 +2566,34 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D47">
-        <v>283</v>
+        <v>1.4608079812</v>
       </c>
       <c r="E47">
-        <v>283</v>
+        <v>1.4832868424</v>
       </c>
       <c r="F47">
-        <v>283</v>
+        <v>1.5732868424</v>
       </c>
       <c r="G47">
-        <v>400</v>
+        <v>5.7195792</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.8199360000000007</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0.6307200000000006</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2628,34 +2604,34 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48">
-        <v>2088.78</v>
+        <v>0.2591920188</v>
       </c>
       <c r="E48">
-        <v>2123.37</v>
+        <v>0.2767131576000001</v>
       </c>
       <c r="F48">
-        <v>2231.01</v>
+        <v>0.2767131576000001</v>
       </c>
       <c r="G48">
-        <v>2248.869096543514</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2376.657561500261</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>2443.561135122422</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>2530.990080767102</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>2521.308511499652</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>2561.412298739835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2666,34 +2642,34 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D49">
-        <v>229.4589210133827</v>
+        <v>550.0800000000002</v>
       </c>
       <c r="E49">
-        <v>250.2019508913704</v>
+        <v>983.0199999999999</v>
       </c>
       <c r="F49">
-        <v>245.8025203844297</v>
+        <v>1530.69</v>
       </c>
       <c r="G49">
-        <v>230</v>
+        <v>2483.153339284388</v>
       </c>
       <c r="H49">
-        <v>264.9999999999999</v>
+        <v>2968.664004468684</v>
       </c>
       <c r="I49">
-        <v>305</v>
+        <v>3070.949472649375</v>
       </c>
       <c r="J49">
-        <v>350</v>
+        <v>3247.47652784112</v>
       </c>
       <c r="K49">
-        <v>405</v>
+        <v>3463.61933677248</v>
       </c>
       <c r="L49">
-        <v>465</v>
+        <v>3493.564058468502</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2704,34 +2680,34 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D50">
-        <v>164.23</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>361.6799999999999</v>
+        <v>126.62</v>
       </c>
       <c r="F50">
-        <v>583.6799999999998</v>
+        <v>259.5700000000001</v>
       </c>
       <c r="G50">
-        <v>1467.830367573006</v>
+        <v>1074.2031820152</v>
       </c>
       <c r="H50">
-        <v>2346.00813832161</v>
+        <v>2402.914212476633</v>
       </c>
       <c r="I50">
-        <v>3360.445621816069</v>
+        <v>4626.785773364447</v>
       </c>
       <c r="J50">
-        <v>4393.115566907953</v>
+        <v>7688.923007662646</v>
       </c>
       <c r="K50">
-        <v>5124.330268771026</v>
+        <v>10735.29006498129</v>
       </c>
       <c r="L50">
-        <v>5113.851299709742</v>
+        <v>11915.3367051714</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2742,34 +2718,34 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D51">
-        <v>261.5960789866173</v>
+        <v>281.869</v>
       </c>
       <c r="E51">
-        <v>611.2800491086294</v>
+        <v>305.4943238549999</v>
       </c>
       <c r="F51">
-        <v>906.5664796155711</v>
+        <v>456.966</v>
       </c>
       <c r="G51">
-        <v>1363.932</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="H51">
-        <v>1367.811144260531</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="I51">
-        <v>1713.9816</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="J51">
-        <v>1889.0064</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="K51">
-        <v>2064.0312</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="L51">
-        <v>2239.055999999999</v>
+        <v>370.0832285524277</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2780,34 +2756,34 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D52">
-        <v>2.74</v>
+        <v>45.45400000000001</v>
       </c>
       <c r="E52">
-        <v>20.13000000000011</v>
+        <v>49.14117809999999</v>
       </c>
       <c r="F52">
-        <v>20.45999999999959</v>
+        <v>31.521</v>
       </c>
       <c r="G52">
-        <v>17.57061392639991</v>
+        <v>68.63</v>
       </c>
       <c r="H52">
-        <v>17.82073224959999</v>
+        <v>68.63</v>
       </c>
       <c r="I52">
-        <v>45.97317764881181</v>
+        <v>68.63</v>
       </c>
       <c r="J52">
-        <v>56.41300370960825</v>
+        <v>68.63</v>
       </c>
       <c r="K52">
-        <v>58.23276041447772</v>
+        <v>68.63</v>
       </c>
       <c r="L52">
-        <v>58.28880210288207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2818,34 +2794,34 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D53">
-        <v>1.72</v>
+        <v>573.5430000000001</v>
       </c>
       <c r="E53">
-        <v>1.76</v>
+        <v>622.4549225999999</v>
       </c>
       <c r="F53">
-        <v>1.85</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="G53">
-        <v>7.829001216000001</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="H53">
-        <v>9.279152640000001</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="I53">
-        <v>10.09908864</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="J53">
-        <v>11.226816</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="K53">
-        <v>11.98368</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>12.59926272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2856,34 +2832,34 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D54">
-        <v>550.0799999999999</v>
+        <v>1121.453</v>
       </c>
       <c r="E54">
-        <v>983.0199999999999</v>
+        <v>1216.244157975</v>
       </c>
       <c r="F54">
-        <v>1530.69</v>
+        <v>1166.519</v>
       </c>
       <c r="G54">
-        <v>2423.7130858904</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="H54">
-        <v>2953.996843553848</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="I54">
-        <v>3154.767539352481</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="J54">
-        <v>3111.65728304112</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="K54">
-        <v>3357.447655334815</v>
+        <v>2506.486871158184</v>
       </c>
       <c r="L54">
-        <v>3569.349709328375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2894,34 +2870,34 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>513.146</v>
       </c>
       <c r="E55">
-        <v>126.62</v>
+        <v>556.9333518000001</v>
       </c>
       <c r="F55">
-        <v>259.5700000000001</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="G55">
-        <v>1016.6853023352</v>
+        <v>1162.191</v>
       </c>
       <c r="H55">
-        <v>2375.5198737528</v>
+        <v>1162.191</v>
       </c>
       <c r="I55">
-        <v>4583.257863521764</v>
+        <v>1162.191</v>
       </c>
       <c r="J55">
-        <v>7695.950916358799</v>
+        <v>1162.191</v>
       </c>
       <c r="K55">
-        <v>10400.14914516338</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>12205.66894810675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2932,34 +2908,34 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D56">
-        <v>281.869</v>
+        <v>18141.907</v>
       </c>
       <c r="E56">
-        <v>305.4943238549999</v>
+        <v>17784.42636</v>
       </c>
       <c r="F56">
-        <v>456.966</v>
+        <v>18571.906</v>
       </c>
       <c r="G56">
-        <v>994.9430000000001</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>994.9430000000001</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>994.9430000000001</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>994.9430000000001</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>994.9430000000001</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>466.1337264700437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2970,31 +2946,31 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D57">
-        <v>45.454</v>
+        <v>8810.888999999999</v>
       </c>
       <c r="E57">
-        <v>49.14117809999999</v>
+        <v>9476.640240928247</v>
       </c>
       <c r="F57">
-        <v>31.521</v>
+        <v>6480.449</v>
       </c>
       <c r="G57">
-        <v>68.63</v>
+        <v>5866.619900670471</v>
       </c>
       <c r="H57">
-        <v>68.63</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>68.63</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>68.63</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>68.63</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3008,28 +2984,28 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D58">
-        <v>573.5429999999999</v>
+        <v>7942.354</v>
       </c>
       <c r="E58">
-        <v>622.4549225999999</v>
+        <v>8599.706167500002</v>
       </c>
       <c r="F58">
-        <v>397.7380000000001</v>
+        <v>6448.197</v>
       </c>
       <c r="G58">
-        <v>865.9870000000001</v>
+        <v>14039.533</v>
       </c>
       <c r="H58">
-        <v>865.9870000000001</v>
+        <v>10307.08427291339</v>
       </c>
       <c r="I58">
-        <v>865.9870000000001</v>
+        <v>4941.981590518792</v>
       </c>
       <c r="J58">
-        <v>91.85219691572776</v>
+        <v>1442.589569292139</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3046,31 +3022,31 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D59">
-        <v>1121.453</v>
+        <v>5.683</v>
       </c>
       <c r="E59">
-        <v>1216.244157975</v>
+        <v>6.142647262499999</v>
       </c>
       <c r="F59">
-        <v>1166.519</v>
+        <v>3.941</v>
       </c>
       <c r="G59">
-        <v>2539.838999999999</v>
+        <v>8.581000000000001</v>
       </c>
       <c r="H59">
-        <v>2539.838999999999</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>2539.838999999999</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>2539.838999999999</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>1091.911807141648</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3084,28 +3060,28 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D60">
-        <v>513.1460000000001</v>
+        <v>7.582</v>
       </c>
       <c r="E60">
-        <v>556.9333518000001</v>
+        <v>8.23114733175</v>
       </c>
       <c r="F60">
-        <v>533.7809999999999</v>
+        <v>15.765</v>
       </c>
       <c r="G60">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3122,19 +3098,19 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D61">
-        <v>18141.907</v>
+        <v>346.636</v>
       </c>
       <c r="E61">
-        <v>17784.42636</v>
+        <v>375.5205026475</v>
       </c>
       <c r="F61">
-        <v>18571.906</v>
+        <v>240.384</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>523.383</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3160,31 +3136,31 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D62">
-        <v>8810.888999999999</v>
+        <v>17983.926</v>
       </c>
       <c r="E62">
-        <v>8990.371640928224</v>
+        <v>19356.834</v>
       </c>
       <c r="F62">
-        <v>6480.449</v>
+        <v>17799.56</v>
       </c>
       <c r="G62">
-        <v>10363.67508173781</v>
+        <v>11172.73152885877</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>5033.265559867387</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2321.027910113881</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>964.660850358019</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>227.8761619888203</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3198,34 +3174,34 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D63">
-        <v>7942.354</v>
+        <v>1649.5118</v>
       </c>
       <c r="E63">
-        <v>8599.706167500002</v>
+        <v>1801.2946</v>
       </c>
       <c r="F63">
-        <v>6448.197</v>
+        <v>1420.868</v>
       </c>
       <c r="G63">
-        <v>14039.533</v>
+        <v>2099.648999999999</v>
       </c>
       <c r="H63">
-        <v>10409.74965760402</v>
+        <v>2778.43</v>
       </c>
       <c r="I63">
-        <v>5341.184618089383</v>
+        <v>2283.528</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2283.527999999999</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>2283.528</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1506.572516968978</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3236,19 +3212,19 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D64">
-        <v>5.683000000000001</v>
+        <v>13252.64879999999</v>
       </c>
       <c r="E64">
-        <v>6.142647262499999</v>
+        <v>14460.19899999999</v>
       </c>
       <c r="F64">
-        <v>3.941</v>
+        <v>13473.85700000001</v>
       </c>
       <c r="G64">
-        <v>8.581000000000001</v>
+        <v>6791.875795</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3274,31 +3250,31 @@
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D65">
-        <v>7.582</v>
+        <v>25.25</v>
       </c>
       <c r="E65">
-        <v>8.23114733175</v>
+        <v>27.573</v>
       </c>
       <c r="F65">
-        <v>15.765</v>
+        <v>278.5463999999999</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>493.7868000000013</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>703.3999999999999</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>36.628</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>36.628</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>36.628</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3312,22 +3288,22 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D66">
-        <v>346.636</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>375.5205026475</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>240.384</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>523.383</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>386.8699999999995</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3350,34 +3326,34 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D67">
-        <v>17983.926</v>
+        <v>8181.323999999997</v>
       </c>
       <c r="E67">
-        <v>19356.834</v>
+        <v>8584.531999999999</v>
       </c>
       <c r="F67">
-        <v>17799.56000000001</v>
+        <v>7355.055</v>
       </c>
       <c r="G67">
-        <v>13100.04089217335</v>
+        <v>4422.881157676406</v>
       </c>
       <c r="H67">
-        <v>5636.146366185199</v>
+        <v>2691.689243438345</v>
       </c>
       <c r="I67">
-        <v>3094.885148691877</v>
+        <v>1376.778512195122</v>
       </c>
       <c r="J67">
-        <v>1066.270652981501</v>
+        <v>855.2715000000001</v>
       </c>
       <c r="K67">
-        <v>350.8928755811986</v>
+        <v>400.3398510638299</v>
       </c>
       <c r="L67">
-        <v>51.79263627444929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3388,34 +3364,34 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D68">
-        <v>1649.5118</v>
+        <v>1605.4152</v>
       </c>
       <c r="E68">
-        <v>1801.2946</v>
+        <v>538.9857</v>
       </c>
       <c r="F68">
-        <v>1420.868</v>
+        <v>1000.5732</v>
       </c>
       <c r="G68">
-        <v>2099.649</v>
+        <v>934.7444395782824</v>
       </c>
       <c r="H68">
-        <v>2540.707190372435</v>
+        <v>703.1476042214293</v>
       </c>
       <c r="I68">
-        <v>2283.528</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>2283.528</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>2283.528</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>2184.545729224294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3426,34 +3402,34 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D69">
-        <v>13252.64879999999</v>
+        <v>1408.7783</v>
       </c>
       <c r="E69">
-        <v>14460.199</v>
+        <v>911.5425</v>
       </c>
       <c r="F69">
-        <v>13473.857</v>
+        <v>978.6645</v>
       </c>
       <c r="G69">
-        <v>3833.038814999999</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1357.425</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1357.425</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1357.425</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1357.425</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1357.425</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3464,31 +3440,31 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D70">
-        <v>25.25</v>
+        <v>291.1194</v>
       </c>
       <c r="E70">
-        <v>27.573</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>278.5463999999999</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>36.628</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>36.628</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>36.62799999999991</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>36.62799999999991</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>36.62799999999991</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3502,34 +3478,34 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D71">
-        <v>8181.323999999998</v>
+        <v>211.6455</v>
       </c>
       <c r="E71">
-        <v>8584.532000000001</v>
+        <v>98.88120000000001</v>
       </c>
       <c r="F71">
-        <v>7355.054999999998</v>
+        <v>180.1701</v>
       </c>
       <c r="G71">
-        <v>4822.253835</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>2980.427895263432</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1769.023102564102</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>1376.778512195122</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>1021.021790697675</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>681.8200810249216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3540,34 +3516,34 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D72">
-        <v>1605.4152</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>538.9857</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1000.5732</v>
+        <v>827.5509</v>
       </c>
       <c r="G72">
-        <v>2021.36</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1953.586126915793</v>
+        <v>2594.41</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3578,34 +3554,34 @@
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D73">
-        <v>1408.7783</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>911.5425</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>978.6645</v>
+        <v>562.4289</v>
       </c>
       <c r="G73">
-        <v>1177.93025</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3616,34 +3592,34 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D74">
-        <v>291.1194</v>
+        <v>616.514843</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>609.5027680000001</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>88.207576</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3654,19 +3630,19 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D75">
-        <v>211.6455</v>
+        <v>586.586938</v>
       </c>
       <c r="E75">
-        <v>98.88120000000001</v>
+        <v>827.1823280000001</v>
       </c>
       <c r="F75">
-        <v>180.1701</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="G75">
-        <v>363.98</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3692,34 +3668,34 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>23.942324</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>37.31649600000001</v>
       </c>
       <c r="F76">
-        <v>827.5508999999998</v>
+        <v>76.70224</v>
       </c>
       <c r="G76">
-        <v>1719.33955</v>
+        <v>115.05336</v>
       </c>
       <c r="H76">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>2594.409999999999</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3730,34 +3706,34 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>161.610687</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>118.168904</v>
       </c>
       <c r="F77">
-        <v>562.4289</v>
+        <v>99.712912</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3768,34 +3744,34 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D78">
-        <v>616.5148429999998</v>
+        <v>389.062765</v>
       </c>
       <c r="E78">
-        <v>609.5027680000001</v>
+        <v>310.9708000000001</v>
       </c>
       <c r="F78">
-        <v>88.207576</v>
+        <v>3.835112</v>
       </c>
       <c r="G78">
-        <v>88.207576</v>
+        <v>5.752668</v>
       </c>
       <c r="H78">
-        <v>88.207576</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>88.207576</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>88.207576</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>88.207576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3806,34 +3782,34 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D79">
-        <v>586.586938</v>
+        <v>161.610687</v>
       </c>
       <c r="E79">
-        <v>827.1823280000001</v>
+        <v>18.658248</v>
       </c>
       <c r="F79">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>579.1019119999999</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>65.33692515154507</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>409.3899791521397</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>430.8244544029596</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>455.593633663357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3844,34 +3820,34 @@
         <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D80">
-        <v>23.942324</v>
+        <v>1316.82782</v>
       </c>
       <c r="E80">
-        <v>37.31649600000001</v>
+        <v>1430.46568</v>
       </c>
       <c r="F80">
-        <v>76.70224</v>
+        <v>230.10672</v>
       </c>
       <c r="G80">
-        <v>76.70224</v>
+        <v>345.16008</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3882,34 +3858,34 @@
         <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D81">
-        <v>161.610687</v>
+        <v>1556.25106</v>
       </c>
       <c r="E81">
-        <v>118.168904</v>
+        <v>1952.896624</v>
       </c>
       <c r="F81">
-        <v>99.712912</v>
+        <v>2105.476488</v>
       </c>
       <c r="G81">
-        <v>99.712912</v>
+        <v>1052.738244</v>
       </c>
       <c r="H81">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>99.712912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3920,34 +3896,34 @@
         <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D82">
-        <v>389.062765</v>
+        <v>1173.173876</v>
       </c>
       <c r="E82">
-        <v>310.9708000000001</v>
+        <v>914.254152</v>
       </c>
       <c r="F82">
-        <v>3.835112</v>
+        <v>651.9690400000001</v>
       </c>
       <c r="G82">
-        <v>3.835112</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="H82">
-        <v>3.835112</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>638.1025598707839</v>
       </c>
       <c r="J82">
-        <v>3.835112</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="K82">
-        <v>3.835112</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="L82">
-        <v>3.835112</v>
+        <v>907.7918868054135</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3958,185 +3934,33 @@
         <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D83">
-        <v>161.610687</v>
+        <v>931.7900000000002</v>
       </c>
       <c r="E83">
-        <v>18.658248</v>
+        <v>763.401</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>571.756</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>405.2435013333334</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>139.564728</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>58.72233777898622</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>66.87476550000002</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>32.75498718367348</v>
       </c>
       <c r="L83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84">
-        <v>1316.82782</v>
-      </c>
-      <c r="E84">
-        <v>1430.46568</v>
-      </c>
-      <c r="F84">
-        <v>230.10672</v>
-      </c>
-      <c r="G84">
-        <v>230.10672</v>
-      </c>
-      <c r="H84">
-        <v>230.10672</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>230.10672</v>
-      </c>
-      <c r="K84">
-        <v>230.10672</v>
-      </c>
-      <c r="L84">
-        <v>230.10672</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85">
-        <v>1556.25106</v>
-      </c>
-      <c r="E85">
-        <v>1952.896624</v>
-      </c>
-      <c r="F85">
-        <v>2105.476488</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86">
-        <v>1173.173876</v>
-      </c>
-      <c r="E86">
-        <v>914.254152</v>
-      </c>
-      <c r="F86">
-        <v>651.9690400000001</v>
-      </c>
-      <c r="G86">
-        <v>651.9690400000001</v>
-      </c>
-      <c r="H86">
-        <v>651.9690400000001</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>651.9690400000001</v>
-      </c>
-      <c r="K86">
-        <v>651.9690400000001</v>
-      </c>
-      <c r="L86">
-        <v>651.9690400000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87">
-        <v>931.7900000000002</v>
-      </c>
-      <c r="E87">
-        <v>763.401</v>
-      </c>
-      <c r="F87">
-        <v>571.756</v>
-      </c>
-      <c r="G87">
-        <v>192.1817235555555</v>
-      </c>
-      <c r="H87">
-        <v>99.05811175230825</v>
-      </c>
-      <c r="I87">
-        <v>6.36465395744681</v>
-      </c>
-      <c r="J87">
-        <v>61.80088913133918</v>
-      </c>
-      <c r="K87">
-        <v>30.70726151842776</v>
-      </c>
-      <c r="L87">
         <v>0</v>
       </c>
     </row>

--- a/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/_2_Primary energy supply.xlsx
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>809.9</v>
+        <v>809.8999999999999</v>
       </c>
       <c r="H24">
         <v>949.3999999999999</v>
       </c>
       <c r="I24">
-        <v>972.5999999999998</v>
+        <v>972.5999999999999</v>
       </c>
       <c r="J24">
         <v>995.7999999999997</v>
@@ -1783,7 +1783,7 @@
         <v>742.85</v>
       </c>
       <c r="H26">
-        <v>882.5000000000001</v>
+        <v>882.5</v>
       </c>
       <c r="I26">
         <v>599.8053812279933</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>702.2249251148536</v>
+        <v>702.2249251148535</v>
       </c>
       <c r="F27">
         <v>928.8351333070093</v>
@@ -2113,19 +2113,19 @@
         <v>106</v>
       </c>
       <c r="D35">
-        <v>424.3</v>
+        <v>424.3000000000001</v>
       </c>
       <c r="E35">
         <v>447.6499999999999</v>
       </c>
       <c r="F35">
-        <v>471</v>
+        <v>471.0000000000001</v>
       </c>
       <c r="G35">
         <v>518</v>
       </c>
       <c r="H35">
-        <v>564.9999999999999</v>
+        <v>565</v>
       </c>
       <c r="I35">
         <v>610.1499999999999</v>
@@ -2137,7 +2137,7 @@
         <v>707.0999999999999</v>
       </c>
       <c r="L35">
-        <v>758.9</v>
+        <v>758.9000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2163,7 +2163,7 @@
         <v>31.35</v>
       </c>
       <c r="H36">
-        <v>34.9</v>
+        <v>34.89999999999999</v>
       </c>
       <c r="I36">
         <v>38.95</v>
@@ -2175,7 +2175,7 @@
         <v>48.3</v>
       </c>
       <c r="L36">
-        <v>53.60000000000002</v>
+        <v>53.60000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2245,10 +2245,10 @@
         <v>65</v>
       </c>
       <c r="J38">
-        <v>56.39999999999998</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="K38">
-        <v>56.4</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="L38">
         <v>56.4</v>
@@ -2271,25 +2271,25 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>270.0004999999999</v>
+        <v>270.0005</v>
       </c>
       <c r="G39">
-        <v>369.4999</v>
+        <v>369.4998999999999</v>
       </c>
       <c r="H39">
         <v>468.9993</v>
       </c>
       <c r="I39">
-        <v>555.4163999999998</v>
+        <v>555.4164</v>
       </c>
       <c r="J39">
-        <v>0.0385</v>
+        <v>0.03849999999999999</v>
       </c>
       <c r="K39">
         <v>0.03849999999999999</v>
       </c>
       <c r="L39">
-        <v>0.0385</v>
+        <v>0.03849999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2499,25 +2499,25 @@
         <v>611.30146341352</v>
       </c>
       <c r="F45">
-        <v>906.4591189812359</v>
+        <v>906.4591189812357</v>
       </c>
       <c r="G45">
         <v>1252.077371952776</v>
       </c>
       <c r="H45">
-        <v>1538.956799999999</v>
+        <v>1538.9568</v>
       </c>
       <c r="I45">
-        <v>1681.618960677484</v>
+        <v>1681.618960677483</v>
       </c>
       <c r="J45">
-        <v>1889.006399999999</v>
+        <v>1889.0064</v>
       </c>
       <c r="K45">
-        <v>2064.031199999999</v>
+        <v>2064.0312</v>
       </c>
       <c r="L45">
-        <v>2239.055999999999</v>
+        <v>2239.055999999998</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2759,7 +2759,7 @@
         <v>122</v>
       </c>
       <c r="D52">
-        <v>45.45400000000001</v>
+        <v>45.454</v>
       </c>
       <c r="E52">
         <v>49.14117809999999</v>
@@ -3189,13 +3189,13 @@
         <v>2099.648999999999</v>
       </c>
       <c r="H63">
-        <v>2778.43</v>
+        <v>2778.430000000001</v>
       </c>
       <c r="I63">
         <v>2283.528</v>
       </c>
       <c r="J63">
-        <v>2283.527999999999</v>
+        <v>2283.528</v>
       </c>
       <c r="K63">
         <v>2283.528</v>
@@ -3221,10 +3221,10 @@
         <v>14460.19899999999</v>
       </c>
       <c r="F64">
-        <v>13473.85700000001</v>
+        <v>13473.857</v>
       </c>
       <c r="G64">
-        <v>6791.875795</v>
+        <v>6791.875794999998</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         <v>493.7868000000013</v>
       </c>
       <c r="H65">
-        <v>703.3999999999999</v>
+        <v>703.4</v>
       </c>
       <c r="I65">
-        <v>36.628</v>
+        <v>36.62799999999999</v>
       </c>
       <c r="J65">
         <v>36.628</v>
@@ -3329,13 +3329,13 @@
         <v>125</v>
       </c>
       <c r="D67">
-        <v>8181.323999999997</v>
+        <v>8181.323999999998</v>
       </c>
       <c r="E67">
         <v>8584.531999999999</v>
       </c>
       <c r="F67">
-        <v>7355.055</v>
+        <v>7355.054999999999</v>
       </c>
       <c r="G67">
         <v>4422.881157676406</v>
@@ -3344,7 +3344,7 @@
         <v>2691.689243438345</v>
       </c>
       <c r="I67">
-        <v>1376.778512195122</v>
+        <v>1376.778512195121</v>
       </c>
       <c r="J67">
         <v>855.2715000000001</v>
@@ -3481,7 +3481,7 @@
         <v>126</v>
       </c>
       <c r="D71">
-        <v>211.6455</v>
+        <v>211.6455000000001</v>
       </c>
       <c r="E71">
         <v>98.88120000000001</v>
